--- a/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9959720849624576</v>
+        <v>0.9959720849624583</v>
       </c>
       <c r="D2">
         <v>1.014039378855201</v>
@@ -430,7 +430,7 @@
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.003605680874022</v>
+        <v>1.003605680874023</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.042874468679364</v>
       </c>
       <c r="J2">
-        <v>1.018273941360788</v>
+        <v>1.018273941360789</v>
       </c>
       <c r="K2">
-        <v>1.025306527353082</v>
+        <v>1.025306527353083</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.015015010361682</v>
+        <v>1.015015010361683</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004194180250551</v>
+        <v>1.004194180250552</v>
       </c>
       <c r="D3">
-        <v>1.020259218660473</v>
+        <v>1.020259218660474</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.012126855916605</v>
+        <v>1.012126855916607</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046034980368271</v>
+        <v>1.046034980368272</v>
       </c>
       <c r="J3">
-        <v>1.024571157053842</v>
+        <v>1.024571157053843</v>
       </c>
       <c r="K3">
-        <v>1.030639278663995</v>
+        <v>1.030639278663996</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.022606887550433</v>
+        <v>1.022606887550434</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00932630512927</v>
+        <v>1.009326305129269</v>
       </c>
       <c r="D4">
-        <v>1.024142597248115</v>
+        <v>1.024142597248114</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.017452329851058</v>
+        <v>1.017452329851056</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.04799160316812</v>
       </c>
       <c r="J4">
-        <v>1.028494414788196</v>
+        <v>1.028494414788194</v>
       </c>
       <c r="K4">
-        <v>1.033958119158856</v>
+        <v>1.033958119158855</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.027344586668199</v>
+        <v>1.027344586668198</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011441688325322</v>
+        <v>1.011441688325321</v>
       </c>
       <c r="D5">
-        <v>1.025743390041158</v>
+        <v>1.025743390041157</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
         <v>1.019648990082429</v>
@@ -559,10 +559,10 @@
         <v>1.035323666638623</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.029297111047307</v>
+        <v>1.029297111047306</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011794476316257</v>
+        <v>1.011794476316259</v>
       </c>
       <c r="D6">
-        <v>1.026010362272909</v>
+        <v>1.026010362272911</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.020015425404756</v>
+        <v>1.020015425404758</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048927771515416</v>
+        <v>1.048927771515417</v>
       </c>
       <c r="J6">
-        <v>1.030378966193003</v>
+        <v>1.030378966193005</v>
       </c>
       <c r="K6">
-        <v>1.035551257570201</v>
+        <v>1.035551257570203</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.029622721186078</v>
+        <v>1.02962272118608</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,7 +617,7 @@
         <v>1.024164109441348</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
         <v>1.017481843797601</v>
@@ -635,7 +635,7 @@
         <v>1.033976480019969</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
         <v>1.027370827156258</v>
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9987915576758073</v>
+        <v>0.9987915576758082</v>
       </c>
       <c r="D8">
-        <v>1.0161719499161</v>
+        <v>1.016171949916101</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
         <v>1.00652628749505</v>
@@ -667,10 +667,10 @@
         <v>1.043961630184455</v>
       </c>
       <c r="J8">
-        <v>1.0204348724426</v>
+        <v>1.020434872442601</v>
       </c>
       <c r="K8">
-        <v>1.027137228585971</v>
+        <v>1.027137228585972</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9785903038613359</v>
+        <v>0.9785903038613354</v>
       </c>
       <c r="D9">
         <v>1.000902737081744</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9856304978933971</v>
+        <v>0.9856304978933965</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036104489405057</v>
       </c>
       <c r="J9">
-        <v>1.004922425636508</v>
+        <v>1.004922425636507</v>
       </c>
       <c r="K9">
-        <v>1.013981184966256</v>
+        <v>1.013981184966255</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>0.9989610934807333</v>
+        <v>0.9989610934807328</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9638163100617659</v>
+        <v>0.9638163100617666</v>
       </c>
       <c r="D10">
-        <v>0.9897569832431472</v>
+        <v>0.989756983243148</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9703885551255607</v>
+        <v>0.970388555125561</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030274424961579</v>
+        <v>1.03027442496158</v>
       </c>
       <c r="J10">
-        <v>0.9935429093510658</v>
+        <v>0.9935429093510665</v>
       </c>
       <c r="K10">
         <v>1.004313674535976</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.9853138586839753</v>
+        <v>0.9853138586839758</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9570432582475703</v>
+        <v>0.9570432582475725</v>
       </c>
       <c r="D11">
-        <v>0.984655231832069</v>
+        <v>0.9846552318320709</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9634109394651226</v>
+        <v>0.9634109394651243</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027583003757961</v>
+        <v>1.027583003757963</v>
       </c>
       <c r="J11">
-        <v>0.9883191014138659</v>
+        <v>0.988319101413868</v>
       </c>
       <c r="K11">
-        <v>0.9998724482228201</v>
+        <v>0.9998724482228223</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9790575102367977</v>
+        <v>0.9790575102367991</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9544641800129894</v>
+        <v>0.9544641800129873</v>
       </c>
       <c r="D12">
-        <v>0.982714045251026</v>
+        <v>0.982714045251024</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9607555072196124</v>
+        <v>0.9607555072196103</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026555472679728</v>
+        <v>1.026555472679727</v>
       </c>
       <c r="J12">
-        <v>0.9863290414515206</v>
+        <v>0.9863290414515183</v>
       </c>
       <c r="K12">
-        <v>0.9981800829662183</v>
+        <v>0.9981800829662165</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9766752755205076</v>
+        <v>0.9766752755205057</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9550203862441847</v>
+        <v>0.9550203862441845</v>
       </c>
       <c r="D13">
-        <v>0.9831326111607575</v>
+        <v>0.9831326111607572</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.961328109791126</v>
+        <v>0.9613281097911259</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026777189432058</v>
       </c>
       <c r="J13">
-        <v>0.9867582582586107</v>
+        <v>0.9867582582586104</v>
       </c>
       <c r="K13">
-        <v>0.9985451115164972</v>
+        <v>0.9985451115164969</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.9771890250274131</v>
+        <v>0.977189025027413</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9568314050272624</v>
+        <v>0.9568314050272623</v>
       </c>
       <c r="D14">
-        <v>0.9844957450790688</v>
+        <v>0.984495745079069</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
         <v>0.9631927828459605</v>
@@ -895,16 +895,16 @@
         <v>1.027498652672753</v>
       </c>
       <c r="J14">
-        <v>0.9881556495343996</v>
+        <v>0.9881556495343997</v>
       </c>
       <c r="K14">
-        <v>0.9997334557094506</v>
+        <v>0.9997334557094505</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9788618240748673</v>
+        <v>0.9788618240748672</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9579386265153818</v>
+        <v>0.9579386265153799</v>
       </c>
       <c r="D15">
-        <v>0.9853293425157891</v>
+        <v>0.9853293425157874</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.964333010912069</v>
+        <v>0.9643330109120676</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027939394174464</v>
+        <v>1.027939394174463</v>
       </c>
       <c r="J15">
-        <v>0.9890098720223176</v>
+        <v>0.989009872022316</v>
       </c>
       <c r="K15">
-        <v>1.000459832775583</v>
+        <v>1.000459832775582</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9798845547726687</v>
+        <v>0.9798845547726673</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9642573427215327</v>
+        <v>0.964257342721531</v>
       </c>
       <c r="D16">
-        <v>0.9900893748578867</v>
+        <v>0.9900893748578854</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9708431167469211</v>
+        <v>0.9708431167469189</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030449305074332</v>
+        <v>1.03044930507433</v>
       </c>
       <c r="J16">
-        <v>0.9938829295455162</v>
+        <v>0.9938829295455144</v>
       </c>
       <c r="K16">
-        <v>1.004602692757971</v>
+        <v>1.00460269275797</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9857212543173858</v>
+        <v>0.9857212543173839</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9681158402605338</v>
+        <v>0.9681158402605315</v>
       </c>
       <c r="D17">
-        <v>0.9929983173009317</v>
+        <v>0.9929983173009299</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9748210972896704</v>
+        <v>0.9748210972896687</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031977215115419</v>
+        <v>1.031977215115417</v>
       </c>
       <c r="J17">
-        <v>0.9968569279432807</v>
+        <v>0.9968569279432788</v>
       </c>
       <c r="K17">
-        <v>1.007130235315905</v>
+        <v>1.007130235315903</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9892854925628485</v>
+        <v>0.9892854925628468</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9703306919798018</v>
+        <v>0.9703306919798007</v>
       </c>
       <c r="D18">
-        <v>0.9946688270939336</v>
+        <v>0.9946688270939323</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.9771054602868741</v>
+        <v>0.977105460286873</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032852516511071</v>
+        <v>1.03285251651107</v>
       </c>
       <c r="J18">
-        <v>0.9985634045105954</v>
+        <v>0.9985634045105944</v>
       </c>
       <c r="K18">
-        <v>1.008580222455783</v>
+        <v>1.008580222455782</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9913314426852214</v>
+        <v>0.9913314426852204</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9710800244114643</v>
+        <v>0.9710800244114655</v>
       </c>
       <c r="D19">
-        <v>0.9952341112777603</v>
+        <v>0.9952341112777611</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9778784657258508</v>
+        <v>0.9778784657258515</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.033148349977987</v>
       </c>
       <c r="J19">
-        <v>0.9991406278343946</v>
+        <v>0.9991406278343954</v>
       </c>
       <c r="K19">
-        <v>1.00907063220938</v>
+        <v>1.009070632209381</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>0.9920236316951927</v>
+        <v>0.9920236316951935</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9677056026952079</v>
+        <v>0.9677056026952073</v>
       </c>
       <c r="D20">
-        <v>0.9926889600163894</v>
+        <v>0.9926889600163888</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9743980595915881</v>
+        <v>0.9743980595915874</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031814948004424</v>
+        <v>1.031814948004423</v>
       </c>
       <c r="J20">
-        <v>0.9965407981858009</v>
+        <v>0.9965407981858003</v>
       </c>
       <c r="K20">
-        <v>1.006861595110665</v>
+        <v>1.006861595110664</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9889065394313573</v>
+        <v>0.988906539431357</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9562999121840499</v>
+        <v>0.9562999121840522</v>
       </c>
       <c r="D21">
-        <v>0.9840956530146707</v>
+        <v>0.9840956530146726</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9626455010655657</v>
+        <v>0.9626455010655678</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027286991941327</v>
+        <v>1.027286991941329</v>
       </c>
       <c r="J21">
-        <v>0.9877455707984041</v>
+        <v>0.9877455707984063</v>
       </c>
       <c r="K21">
-        <v>0.9993847354307097</v>
+        <v>0.9993847354307115</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9783708925056765</v>
+        <v>0.9783708925056785</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9487583671431586</v>
+        <v>0.9487583671431574</v>
       </c>
       <c r="D22">
-        <v>0.9784225781190307</v>
+        <v>0.9784225781190297</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.954883676960814</v>
+        <v>0.9548836769608136</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.024277421347257</v>
       </c>
       <c r="J22">
-        <v>0.9819248191267842</v>
+        <v>0.9819248191267833</v>
       </c>
       <c r="K22">
-        <v>0.9944339589791911</v>
+        <v>0.9944339589791901</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9714052011267853</v>
+        <v>0.9714052011267846</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9527939864075181</v>
+        <v>0.9527939864075169</v>
       </c>
       <c r="D23">
-        <v>0.9814574048575355</v>
+        <v>0.9814574048575344</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.9590363077518137</v>
+        <v>0.9590363077518126</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025889312779299</v>
+        <v>1.025889312779298</v>
       </c>
       <c r="J23">
-        <v>0.985040053357688</v>
+        <v>0.9850400533576867</v>
       </c>
       <c r="K23">
-        <v>0.9970838008035843</v>
+        <v>0.9970838008035832</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9751325914110232</v>
+        <v>0.975132591411022</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9678910813540622</v>
+        <v>0.9678910813540621</v>
       </c>
       <c r="D24">
-        <v>0.9928288259561867</v>
+        <v>0.9928288259561868</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
         <v>0.9745893226335811</v>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031888318470103</v>
+        <v>1.031888318470104</v>
       </c>
       <c r="J24">
         <v>0.9966837304012797</v>
@@ -1281,10 +1281,10 @@
         <v>1.006983056784831</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
-        <v>0.9890778735928543</v>
+        <v>0.9890778735928539</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9840234717523619</v>
+        <v>0.984023471752362</v>
       </c>
       <c r="D25">
         <v>1.005006677840565</v>
@@ -1304,7 +1304,7 @@
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9912438574175644</v>
+        <v>0.9912438574175643</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1.038232171754399</v>
       </c>
       <c r="J25">
-        <v>1.009100737421091</v>
+        <v>1.009100737421092</v>
       </c>
       <c r="K25">
         <v>1.017527765605632</v>

--- a/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
@@ -421,7 +421,7 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9959720849624583</v>
+        <v>0.9959720849624576</v>
       </c>
       <c r="D2">
         <v>1.014039378855201</v>
@@ -430,7 +430,7 @@
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.003605680874023</v>
+        <v>1.003605680874022</v>
       </c>
       <c r="G2">
         <v>1</v>
@@ -439,16 +439,16 @@
         <v>1.042874468679364</v>
       </c>
       <c r="J2">
-        <v>1.018273941360789</v>
+        <v>1.018273941360788</v>
       </c>
       <c r="K2">
-        <v>1.025306527353083</v>
+        <v>1.025306527353082</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.015015010361683</v>
+        <v>1.015015010361682</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +459,34 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004194180250552</v>
+        <v>1.004194180250551</v>
       </c>
       <c r="D3">
-        <v>1.020259218660474</v>
+        <v>1.020259218660473</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.012126855916607</v>
+        <v>1.012126855916605</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046034980368272</v>
+        <v>1.046034980368271</v>
       </c>
       <c r="J3">
-        <v>1.024571157053843</v>
+        <v>1.024571157053842</v>
       </c>
       <c r="K3">
-        <v>1.030639278663996</v>
+        <v>1.030639278663995</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.022606887550434</v>
+        <v>1.022606887550433</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,16 +497,16 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.009326305129269</v>
+        <v>1.00932630512927</v>
       </c>
       <c r="D4">
-        <v>1.024142597248114</v>
+        <v>1.024142597248115</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.017452329851056</v>
+        <v>1.017452329851058</v>
       </c>
       <c r="G4">
         <v>1</v>
@@ -515,16 +515,16 @@
         <v>1.04799160316812</v>
       </c>
       <c r="J4">
-        <v>1.028494414788194</v>
+        <v>1.028494414788196</v>
       </c>
       <c r="K4">
-        <v>1.033958119158855</v>
+        <v>1.033958119158856</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.027344586668198</v>
+        <v>1.027344586668199</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,13 +535,13 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011441688325321</v>
+        <v>1.011441688325322</v>
       </c>
       <c r="D5">
-        <v>1.025743390041157</v>
+        <v>1.025743390041158</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
         <v>1.019648990082429</v>
@@ -559,10 +559,10 @@
         <v>1.035323666638623</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.029297111047306</v>
+        <v>1.029297111047307</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +573,34 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011794476316259</v>
+        <v>1.011794476316257</v>
       </c>
       <c r="D6">
-        <v>1.026010362272911</v>
+        <v>1.026010362272909</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.020015425404758</v>
+        <v>1.020015425404756</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048927771515417</v>
+        <v>1.048927771515416</v>
       </c>
       <c r="J6">
-        <v>1.030378966193005</v>
+        <v>1.030378966193003</v>
       </c>
       <c r="K6">
-        <v>1.035551257570203</v>
+        <v>1.035551257570201</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.02962272118608</v>
+        <v>1.029622721186078</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -617,7 +617,7 @@
         <v>1.024164109441348</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
         <v>1.017481843797601</v>
@@ -635,7 +635,7 @@
         <v>1.033976480019969</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
         <v>1.027370827156258</v>
@@ -649,13 +649,13 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9987915576758082</v>
+        <v>0.9987915576758073</v>
       </c>
       <c r="D8">
-        <v>1.016171949916101</v>
+        <v>1.0161719499161</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
         <v>1.00652628749505</v>
@@ -667,10 +667,10 @@
         <v>1.043961630184455</v>
       </c>
       <c r="J8">
-        <v>1.020434872442601</v>
+        <v>1.0204348724426</v>
       </c>
       <c r="K8">
-        <v>1.027137228585972</v>
+        <v>1.027137228585971</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
@@ -687,16 +687,16 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9785903038613354</v>
+        <v>0.9785903038613359</v>
       </c>
       <c r="D9">
         <v>1.000902737081744</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9856304978933965</v>
+        <v>0.9856304978933971</v>
       </c>
       <c r="G9">
         <v>1</v>
@@ -705,16 +705,16 @@
         <v>1.036104489405057</v>
       </c>
       <c r="J9">
-        <v>1.004922425636507</v>
+        <v>1.004922425636508</v>
       </c>
       <c r="K9">
-        <v>1.013981184966255</v>
+        <v>1.013981184966256</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9989610934807328</v>
+        <v>0.9989610934807333</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +725,34 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9638163100617666</v>
+        <v>0.9638163100617659</v>
       </c>
       <c r="D10">
-        <v>0.989756983243148</v>
+        <v>0.9897569832431472</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.970388555125561</v>
+        <v>0.9703885551255607</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03027442496158</v>
+        <v>1.030274424961579</v>
       </c>
       <c r="J10">
-        <v>0.9935429093510665</v>
+        <v>0.9935429093510658</v>
       </c>
       <c r="K10">
         <v>1.004313674535976</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9853138586839758</v>
+        <v>0.9853138586839753</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +763,34 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9570432582475725</v>
+        <v>0.9570432582475703</v>
       </c>
       <c r="D11">
-        <v>0.9846552318320709</v>
+        <v>0.984655231832069</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9634109394651243</v>
+        <v>0.9634109394651226</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027583003757963</v>
+        <v>1.027583003757961</v>
       </c>
       <c r="J11">
-        <v>0.988319101413868</v>
+        <v>0.9883191014138659</v>
       </c>
       <c r="K11">
-        <v>0.9998724482228223</v>
+        <v>0.9998724482228201</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9790575102367991</v>
+        <v>0.9790575102367977</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +801,34 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9544641800129873</v>
+        <v>0.9544641800129894</v>
       </c>
       <c r="D12">
-        <v>0.982714045251024</v>
+        <v>0.982714045251026</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9607555072196103</v>
+        <v>0.9607555072196124</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026555472679727</v>
+        <v>1.026555472679728</v>
       </c>
       <c r="J12">
-        <v>0.9863290414515183</v>
+        <v>0.9863290414515206</v>
       </c>
       <c r="K12">
-        <v>0.9981800829662165</v>
+        <v>0.9981800829662183</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9766752755205057</v>
+        <v>0.9766752755205076</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,16 +839,16 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9550203862441845</v>
+        <v>0.9550203862441847</v>
       </c>
       <c r="D13">
-        <v>0.9831326111607572</v>
+        <v>0.9831326111607575</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9613281097911259</v>
+        <v>0.961328109791126</v>
       </c>
       <c r="G13">
         <v>1</v>
@@ -857,16 +857,16 @@
         <v>1.026777189432058</v>
       </c>
       <c r="J13">
-        <v>0.9867582582586104</v>
+        <v>0.9867582582586107</v>
       </c>
       <c r="K13">
-        <v>0.9985451115164969</v>
+        <v>0.9985451115164972</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.977189025027413</v>
+        <v>0.9771890250274131</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,13 +877,13 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9568314050272623</v>
+        <v>0.9568314050272624</v>
       </c>
       <c r="D14">
-        <v>0.984495745079069</v>
+        <v>0.9844957450790688</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
         <v>0.9631927828459605</v>
@@ -895,16 +895,16 @@
         <v>1.027498652672753</v>
       </c>
       <c r="J14">
-        <v>0.9881556495343997</v>
+        <v>0.9881556495343996</v>
       </c>
       <c r="K14">
-        <v>0.9997334557094505</v>
+        <v>0.9997334557094506</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9788618240748672</v>
+        <v>0.9788618240748673</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +915,34 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9579386265153799</v>
+        <v>0.9579386265153818</v>
       </c>
       <c r="D15">
-        <v>0.9853293425157874</v>
+        <v>0.9853293425157891</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9643330109120676</v>
+        <v>0.964333010912069</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027939394174463</v>
+        <v>1.027939394174464</v>
       </c>
       <c r="J15">
-        <v>0.989009872022316</v>
+        <v>0.9890098720223176</v>
       </c>
       <c r="K15">
-        <v>1.000459832775582</v>
+        <v>1.000459832775583</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9798845547726673</v>
+        <v>0.9798845547726687</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,34 +953,34 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.964257342721531</v>
+        <v>0.9642573427215327</v>
       </c>
       <c r="D16">
-        <v>0.9900893748578854</v>
+        <v>0.9900893748578867</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9708431167469189</v>
+        <v>0.9708431167469211</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.03044930507433</v>
+        <v>1.030449305074332</v>
       </c>
       <c r="J16">
-        <v>0.9938829295455144</v>
+        <v>0.9938829295455162</v>
       </c>
       <c r="K16">
-        <v>1.00460269275797</v>
+        <v>1.004602692757971</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9857212543173839</v>
+        <v>0.9857212543173858</v>
       </c>
     </row>
     <row r="17" spans="1:13">
@@ -991,34 +991,34 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9681158402605315</v>
+        <v>0.9681158402605338</v>
       </c>
       <c r="D17">
-        <v>0.9929983173009299</v>
+        <v>0.9929983173009317</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9748210972896687</v>
+        <v>0.9748210972896704</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031977215115417</v>
+        <v>1.031977215115419</v>
       </c>
       <c r="J17">
-        <v>0.9968569279432788</v>
+        <v>0.9968569279432807</v>
       </c>
       <c r="K17">
-        <v>1.007130235315903</v>
+        <v>1.007130235315905</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9892854925628468</v>
+        <v>0.9892854925628485</v>
       </c>
     </row>
     <row r="18" spans="1:13">
@@ -1029,34 +1029,34 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9703306919798007</v>
+        <v>0.9703306919798018</v>
       </c>
       <c r="D18">
-        <v>0.9946688270939323</v>
+        <v>0.9946688270939336</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.977105460286873</v>
+        <v>0.9771054602868741</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.03285251651107</v>
+        <v>1.032852516511071</v>
       </c>
       <c r="J18">
-        <v>0.9985634045105944</v>
+        <v>0.9985634045105954</v>
       </c>
       <c r="K18">
-        <v>1.008580222455782</v>
+        <v>1.008580222455783</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9913314426852204</v>
+        <v>0.9913314426852214</v>
       </c>
     </row>
     <row r="19" spans="1:13">
@@ -1067,16 +1067,16 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9710800244114655</v>
+        <v>0.9710800244114643</v>
       </c>
       <c r="D19">
-        <v>0.9952341112777611</v>
+        <v>0.9952341112777603</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9778784657258515</v>
+        <v>0.9778784657258508</v>
       </c>
       <c r="G19">
         <v>1</v>
@@ -1085,16 +1085,16 @@
         <v>1.033148349977987</v>
       </c>
       <c r="J19">
-        <v>0.9991406278343954</v>
+        <v>0.9991406278343946</v>
       </c>
       <c r="K19">
-        <v>1.009070632209381</v>
+        <v>1.00907063220938</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9920236316951935</v>
+        <v>0.9920236316951927</v>
       </c>
     </row>
     <row r="20" spans="1:13">
@@ -1105,34 +1105,34 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9677056026952073</v>
+        <v>0.9677056026952079</v>
       </c>
       <c r="D20">
-        <v>0.9926889600163888</v>
+        <v>0.9926889600163894</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9743980595915874</v>
+        <v>0.9743980595915881</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031814948004423</v>
+        <v>1.031814948004424</v>
       </c>
       <c r="J20">
-        <v>0.9965407981858003</v>
+        <v>0.9965407981858009</v>
       </c>
       <c r="K20">
-        <v>1.006861595110664</v>
+        <v>1.006861595110665</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.988906539431357</v>
+        <v>0.9889065394313573</v>
       </c>
     </row>
     <row r="21" spans="1:13">
@@ -1143,34 +1143,34 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9562999121840522</v>
+        <v>0.9562999121840499</v>
       </c>
       <c r="D21">
-        <v>0.9840956530146726</v>
+        <v>0.9840956530146707</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9626455010655678</v>
+        <v>0.9626455010655657</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027286991941329</v>
+        <v>1.027286991941327</v>
       </c>
       <c r="J21">
-        <v>0.9877455707984063</v>
+        <v>0.9877455707984041</v>
       </c>
       <c r="K21">
-        <v>0.9993847354307115</v>
+        <v>0.9993847354307097</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9783708925056785</v>
+        <v>0.9783708925056765</v>
       </c>
     </row>
     <row r="22" spans="1:13">
@@ -1181,16 +1181,16 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9487583671431574</v>
+        <v>0.9487583671431586</v>
       </c>
       <c r="D22">
-        <v>0.9784225781190297</v>
+        <v>0.9784225781190307</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.9548836769608136</v>
+        <v>0.954883676960814</v>
       </c>
       <c r="G22">
         <v>1</v>
@@ -1199,16 +1199,16 @@
         <v>1.024277421347257</v>
       </c>
       <c r="J22">
-        <v>0.9819248191267833</v>
+        <v>0.9819248191267842</v>
       </c>
       <c r="K22">
-        <v>0.9944339589791901</v>
+        <v>0.9944339589791911</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9714052011267846</v>
+        <v>0.9714052011267853</v>
       </c>
     </row>
     <row r="23" spans="1:13">
@@ -1219,34 +1219,34 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9527939864075169</v>
+        <v>0.9527939864075181</v>
       </c>
       <c r="D23">
-        <v>0.9814574048575344</v>
+        <v>0.9814574048575355</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9590363077518126</v>
+        <v>0.9590363077518137</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025889312779298</v>
+        <v>1.025889312779299</v>
       </c>
       <c r="J23">
-        <v>0.9850400533576867</v>
+        <v>0.985040053357688</v>
       </c>
       <c r="K23">
-        <v>0.9970838008035832</v>
+        <v>0.9970838008035843</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.975132591411022</v>
+        <v>0.9751325914110232</v>
       </c>
     </row>
     <row r="24" spans="1:13">
@@ -1257,13 +1257,13 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9678910813540621</v>
+        <v>0.9678910813540622</v>
       </c>
       <c r="D24">
-        <v>0.9928288259561868</v>
+        <v>0.9928288259561867</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
         <v>0.9745893226335811</v>
@@ -1272,7 +1272,7 @@
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031888318470104</v>
+        <v>1.031888318470103</v>
       </c>
       <c r="J24">
         <v>0.9966837304012797</v>
@@ -1281,10 +1281,10 @@
         <v>1.006983056784831</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9890778735928539</v>
+        <v>0.9890778735928543</v>
       </c>
     </row>
     <row r="25" spans="1:13">
@@ -1295,7 +1295,7 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.984023471752362</v>
+        <v>0.9840234717523619</v>
       </c>
       <c r="D25">
         <v>1.005006677840565</v>
@@ -1304,7 +1304,7 @@
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9912438574175643</v>
+        <v>0.9912438574175644</v>
       </c>
       <c r="G25">
         <v>1</v>
@@ -1313,7 +1313,7 @@
         <v>1.038232171754399</v>
       </c>
       <c r="J25">
-        <v>1.009100737421092</v>
+        <v>1.009100737421091</v>
       </c>
       <c r="K25">
         <v>1.017527765605632</v>

--- a/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
@@ -421,34 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.9959720849624576</v>
+        <v>0.998864134555536</v>
       </c>
       <c r="D2">
-        <v>1.014039378855201</v>
+        <v>1.016283546911556</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.003605680874022</v>
+        <v>1.006067500388571</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.042874468679364</v>
+        <v>1.044200429044916</v>
       </c>
       <c r="J2">
-        <v>1.018273941360788</v>
+        <v>1.021078872321978</v>
       </c>
       <c r="K2">
-        <v>1.025306527353082</v>
+        <v>1.027520593184392</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.015015010361682</v>
+        <v>1.017442947576069</v>
+      </c>
+      <c r="N2">
+        <v>1.022528921440058</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,34 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.004194180250551</v>
+        <v>1.007061729654715</v>
       </c>
       <c r="D3">
-        <v>1.020259218660473</v>
+        <v>1.022487573785085</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.012126855916605</v>
+        <v>1.014562670006702</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.046034980368271</v>
+        <v>1.047352894938946</v>
       </c>
       <c r="J3">
-        <v>1.024571157053842</v>
+        <v>1.02736171864826</v>
       </c>
       <c r="K3">
-        <v>1.030639278663995</v>
+        <v>1.032840585261889</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.022606887550433</v>
+        <v>1.025012548779358</v>
+      </c>
+      <c r="N3">
+        <v>1.028820690128777</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -497,34 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.00932630512927</v>
+        <v>1.012179683835703</v>
       </c>
       <c r="D4">
-        <v>1.024142597248115</v>
+        <v>1.026361872407989</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.017452329851058</v>
+        <v>1.019873003874236</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.04799160316812</v>
+        <v>1.049304980071861</v>
       </c>
       <c r="J4">
-        <v>1.028494414788196</v>
+        <v>1.031276881332914</v>
       </c>
       <c r="K4">
-        <v>1.033958119158856</v>
+        <v>1.03615221243373</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.027344586668199</v>
+        <v>1.029737352942397</v>
+      </c>
+      <c r="N4">
+        <v>1.032741412793518</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -535,34 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.011441688325322</v>
+        <v>1.014289471425091</v>
       </c>
       <c r="D5">
-        <v>1.025743390041158</v>
+        <v>1.027959096310406</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.019648990082429</v>
+        <v>1.022063662018089</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.048794160155674</v>
+        <v>1.050105773874902</v>
       </c>
       <c r="J5">
-        <v>1.030109691550968</v>
+        <v>1.03288901349488</v>
       </c>
       <c r="K5">
-        <v>1.035323666638623</v>
+        <v>1.037514952125386</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.029297111047307</v>
+        <v>1.031684783176549</v>
+      </c>
+      <c r="N5">
+        <v>1.034355834368068</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -573,34 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.011794476316257</v>
+        <v>1.014641340019523</v>
       </c>
       <c r="D6">
-        <v>1.026010362272909</v>
+        <v>1.0282254831466</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.020015425404756</v>
+        <v>1.022429109753267</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.048927771515416</v>
+        <v>1.050239097247852</v>
       </c>
       <c r="J6">
-        <v>1.030378966193003</v>
+        <v>1.033157774531446</v>
       </c>
       <c r="K6">
-        <v>1.035551257570201</v>
+        <v>1.037742084135413</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.029622721186078</v>
+        <v>1.032009556184948</v>
+      </c>
+      <c r="N6">
+        <v>1.034624977076134</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -611,34 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.009354733065071</v>
+        <v>1.012208035631075</v>
       </c>
       <c r="D7">
-        <v>1.024164109441348</v>
+        <v>1.026383335971112</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.017481843797601</v>
+        <v>1.019902436244922</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.048002404133395</v>
+        <v>1.049315756928684</v>
       </c>
       <c r="J7">
-        <v>1.028516129285241</v>
+        <v>1.031298552831334</v>
       </c>
       <c r="K7">
-        <v>1.033976480019969</v>
+        <v>1.03617053492439</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.027370827156258</v>
+        <v>1.02976352412238</v>
+      </c>
+      <c r="N7">
+        <v>1.032763115067952</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -649,34 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>0.9987915576758073</v>
+        <v>1.00167495220432</v>
       </c>
       <c r="D8">
-        <v>1.0161719499161</v>
+        <v>1.01841051749326</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.00652628749505</v>
+        <v>1.008978942248132</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.043961630184455</v>
+        <v>1.045284722866041</v>
       </c>
       <c r="J8">
-        <v>1.0204348724426</v>
+        <v>1.023234678977017</v>
       </c>
       <c r="K8">
-        <v>1.027137228585971</v>
+        <v>1.029346750220973</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.017618575850571</v>
+        <v>1.020038646308365</v>
+      </c>
+      <c r="N8">
+        <v>1.024687789587822</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -687,34 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.9785903038613359</v>
+        <v>0.981541848921578</v>
       </c>
       <c r="D9">
-        <v>1.000902737081744</v>
+        <v>1.003185706459699</v>
       </c>
       <c r="E9">
         <v>0.9435740419923925</v>
       </c>
       <c r="F9">
-        <v>0.9856304978933971</v>
+        <v>0.9881548135860423</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.036104489405057</v>
+        <v>1.03745071560535</v>
       </c>
       <c r="J9">
-        <v>1.004922425636508</v>
+        <v>1.007763683046033</v>
       </c>
       <c r="K9">
-        <v>1.013981184966256</v>
+        <v>1.016227308387373</v>
       </c>
       <c r="L9">
         <v>0.9576541208832519</v>
       </c>
       <c r="M9">
-        <v>0.9989610934807333</v>
+        <v>1.001443039331463</v>
+      </c>
+      <c r="N9">
+        <v>1.009194823068068</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -725,34 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9638163100617659</v>
+        <v>0.9668274050351033</v>
       </c>
       <c r="D10">
-        <v>0.9897569832431472</v>
+        <v>0.9920791301324372</v>
       </c>
       <c r="E10">
         <v>0.9361465105547282</v>
       </c>
       <c r="F10">
-        <v>0.9703885551255607</v>
+        <v>0.9729747916507369</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.030274424961579</v>
+        <v>1.03164158904723</v>
       </c>
       <c r="J10">
-        <v>0.9935429093510658</v>
+        <v>0.9964219159214956</v>
       </c>
       <c r="K10">
-        <v>1.004313674535976</v>
+        <v>1.006592886360566</v>
       </c>
       <c r="L10">
         <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>0.9853138586839753</v>
+        <v>0.98784976213112</v>
+      </c>
+      <c r="N10">
+        <v>0.9978369493332954</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -763,34 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9570432582475703</v>
+        <v>0.960084695128222</v>
       </c>
       <c r="D11">
-        <v>0.984655231832069</v>
+        <v>0.9869974204356119</v>
       </c>
       <c r="E11">
         <v>0.9328454960016258</v>
       </c>
       <c r="F11">
-        <v>0.9634109394651226</v>
+        <v>0.9660285531999317</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.027583003757961</v>
+        <v>1.028961002049378</v>
       </c>
       <c r="J11">
-        <v>0.9883191014138659</v>
+        <v>0.9912177245048134</v>
       </c>
       <c r="K11">
-        <v>0.9998724482228201</v>
+        <v>1.002168784016068</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9790575102367977</v>
+        <v>0.9816208743196198</v>
+      </c>
+      <c r="N11">
+        <v>0.9926253673678723</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -801,34 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9544641800129894</v>
+        <v>0.9575177080162258</v>
       </c>
       <c r="D12">
-        <v>0.982714045251026</v>
+        <v>0.9850642314210759</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9607555072196124</v>
+        <v>0.9633855981014352</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.026555472679728</v>
+        <v>1.027937812746789</v>
       </c>
       <c r="J12">
-        <v>0.9863290414515206</v>
+        <v>0.989235540880527</v>
       </c>
       <c r="K12">
-        <v>0.9981800829662183</v>
+        <v>1.000483282534153</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9766752755205076</v>
+        <v>0.9792495772666686</v>
+      </c>
+      <c r="N12">
+        <v>0.9906403688154797</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -839,34 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9550203862441847</v>
+        <v>0.9580712809481265</v>
       </c>
       <c r="D13">
-        <v>0.9831326111607575</v>
+        <v>0.9854810550810066</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.961328109791126</v>
+        <v>0.9639554845004988</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.026777189432058</v>
+        <v>1.028158582829141</v>
       </c>
       <c r="J13">
-        <v>0.9867582582586107</v>
+        <v>0.9896630396332566</v>
       </c>
       <c r="K13">
-        <v>0.9985451115164972</v>
+        <v>1.000846814445252</v>
       </c>
       <c r="L13">
         <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9771890250274131</v>
+        <v>0.979760944928257</v>
+      </c>
+      <c r="N13">
+        <v>0.9910684746654732</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -877,34 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9568314050272624</v>
+        <v>0.959873823707447</v>
       </c>
       <c r="D14">
-        <v>0.9844957450790688</v>
+        <v>0.986838582871271</v>
       </c>
       <c r="E14">
         <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9631927828459605</v>
+        <v>0.965811410258138</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.027498652672753</v>
+        <v>1.028877003033069</v>
       </c>
       <c r="J14">
-        <v>0.9881556495343996</v>
+        <v>0.9910549109921462</v>
       </c>
       <c r="K14">
-        <v>0.9997334557094506</v>
+        <v>1.002030348043624</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9788618240748673</v>
+        <v>0.9814260764044881</v>
+      </c>
+      <c r="N14">
+        <v>0.9924623226413422</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -915,34 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9579386265153818</v>
+        <v>0.9609759362648086</v>
       </c>
       <c r="D15">
-        <v>0.9853293425157891</v>
+        <v>0.9876688025971287</v>
       </c>
       <c r="E15">
         <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.964333010912069</v>
+        <v>0.9669463624531573</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.027939394174464</v>
+        <v>1.029315913462682</v>
       </c>
       <c r="J15">
-        <v>0.9890098720223176</v>
+        <v>0.9919058140175691</v>
       </c>
       <c r="K15">
-        <v>1.000459832775583</v>
+        <v>1.002753830662203</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9798845547726687</v>
+        <v>0.9824441847730477</v>
+      </c>
+      <c r="N15">
+        <v>0.9933144340466609</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -953,37 +995,40 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9642573427215327</v>
+        <v>0.9672665308722653</v>
       </c>
       <c r="D16">
-        <v>0.9900893748578867</v>
+        <v>0.9924102637342845</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9708431167469211</v>
+        <v>0.9734273779355297</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.030449305074332</v>
+        <v>1.031815791516073</v>
       </c>
       <c r="J16">
-        <v>0.9938829295455162</v>
+        <v>0.9967607110007906</v>
       </c>
       <c r="K16">
-        <v>1.004602692757971</v>
+        <v>1.006880833664784</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9857212543173858</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>0.9882554313462186</v>
+      </c>
+      <c r="N16">
+        <v>0.9981762255404634</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -991,37 +1036,40 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9681158402605338</v>
+        <v>0.9711086944125867</v>
       </c>
       <c r="D17">
-        <v>0.9929983173009317</v>
+        <v>0.995308438297303</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.9748210972896704</v>
+        <v>0.9773884192297709</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.031977215115419</v>
+        <v>1.033337914304499</v>
       </c>
       <c r="J17">
-        <v>0.9968569279432807</v>
+        <v>0.9997242556417151</v>
       </c>
       <c r="K17">
-        <v>1.007130235315905</v>
+        <v>1.009399230693653</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9892854925628485</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>0.9918048775185732</v>
+      </c>
+      <c r="N17">
+        <v>1.001143978754701</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1029,37 +1077,40 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9703306919798018</v>
+        <v>0.9733144476378176</v>
       </c>
       <c r="D18">
-        <v>0.9946688270939336</v>
+        <v>0.9969729571324768</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9771054602868741</v>
+        <v>0.979663331525209</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.032852516511071</v>
+        <v>1.034210006574873</v>
       </c>
       <c r="J18">
-        <v>0.9985634045105954</v>
+        <v>1.001424942507332</v>
       </c>
       <c r="K18">
-        <v>1.008580222455783</v>
+        <v>1.010844146651406</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9913314426852214</v>
-      </c>
-    </row>
-    <row r="19" spans="1:13">
+        <v>0.993842585284761</v>
+      </c>
+      <c r="N18">
+        <v>1.002847080790738</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1067,37 +1118,40 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9710800244114643</v>
+        <v>0.9740607468510266</v>
       </c>
       <c r="D19">
-        <v>0.9952341112777603</v>
+        <v>0.9975362452975751</v>
       </c>
       <c r="E19">
         <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9778784657258508</v>
+        <v>0.9804331837876329</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.033148349977987</v>
+        <v>1.034504772678088</v>
       </c>
       <c r="J19">
-        <v>0.9991406278343946</v>
+        <v>1.002000241294895</v>
       </c>
       <c r="K19">
-        <v>1.00907063220938</v>
+        <v>1.011332869716481</v>
       </c>
       <c r="L19">
         <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9920236316951927</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>0.994532026037604</v>
+      </c>
+      <c r="N19">
+        <v>1.003423196568568</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1105,37 +1159,40 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9677056026952079</v>
+        <v>0.970700164094754</v>
       </c>
       <c r="D20">
-        <v>0.9926889600163894</v>
+        <v>0.9950002057472558</v>
       </c>
       <c r="E20">
         <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.9743980595915881</v>
+        <v>0.9769671536304837</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.031814948004424</v>
+        <v>1.033176250556883</v>
       </c>
       <c r="J20">
-        <v>0.9965407981858009</v>
+        <v>0.9994092150023385</v>
       </c>
       <c r="K20">
-        <v>1.006861595110665</v>
+        <v>1.009131543952966</v>
       </c>
       <c r="L20">
         <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9889065394313573</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>0.9914274707644248</v>
+      </c>
+      <c r="N20">
+        <v>1.000828490721481</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1143,37 +1200,40 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9562999121840499</v>
+        <v>0.9593448029152559</v>
       </c>
       <c r="D21">
-        <v>0.9840956530146707</v>
+        <v>0.9864401255560032</v>
       </c>
       <c r="E21">
         <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9626455010655657</v>
+        <v>0.9652666803699517</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.027286991941327</v>
+        <v>1.028666229153436</v>
       </c>
       <c r="J21">
-        <v>0.9877455707984041</v>
+        <v>0.990646440532277</v>
       </c>
       <c r="K21">
-        <v>0.9993847354307097</v>
+        <v>1.001683029701591</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9783708925056765</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>0.9809373812464321</v>
+      </c>
+      <c r="N21">
+        <v>0.9920532721065678</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1181,37 +1241,40 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9487583671431586</v>
+        <v>0.9518397460941501</v>
       </c>
       <c r="D22">
-        <v>0.9784225781190307</v>
+        <v>0.9807912056851301</v>
       </c>
       <c r="E22">
         <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.954883676960814</v>
+        <v>0.9575424571246141</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.024277421347257</v>
+        <v>1.025669807862293</v>
       </c>
       <c r="J22">
-        <v>0.9819248191267842</v>
+        <v>0.9848495752610865</v>
       </c>
       <c r="K22">
-        <v>0.9944339589791911</v>
+        <v>0.9967530444695073</v>
       </c>
       <c r="L22">
         <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9714052011267853</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>0.9740046863697073</v>
+      </c>
+      <c r="N22">
+        <v>0.9862481746217824</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1219,37 +1282,40 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9527939864075181</v>
+        <v>0.9558555078459274</v>
       </c>
       <c r="D23">
-        <v>0.9814574048575355</v>
+        <v>0.9838128812024191</v>
       </c>
       <c r="E23">
         <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9590363077518137</v>
+        <v>0.9616746396849732</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.025889312779299</v>
+        <v>1.027274530027583</v>
       </c>
       <c r="J23">
-        <v>0.985040053357688</v>
+        <v>0.987951776832932</v>
       </c>
       <c r="K23">
-        <v>0.9970838008035843</v>
+        <v>0.9993915493394613</v>
       </c>
       <c r="L23">
         <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.9751325914110232</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>0.9777141224836694</v>
+      </c>
+      <c r="N23">
+        <v>0.9893547816756875</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1257,37 +1323,40 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9678910813540622</v>
+        <v>0.9708848700064591</v>
       </c>
       <c r="D24">
-        <v>0.9928288259561867</v>
+        <v>0.9951395625790196</v>
       </c>
       <c r="E24">
         <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9745893226335811</v>
+        <v>0.977157614619277</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.031888318470103</v>
+        <v>1.033249347877873</v>
       </c>
       <c r="J24">
-        <v>0.9966837304012797</v>
+        <v>0.9995516541481108</v>
       </c>
       <c r="K24">
-        <v>1.006983056784831</v>
+        <v>1.009252573989987</v>
       </c>
       <c r="L24">
         <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9890778735928543</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>0.9915981050016793</v>
+      </c>
+      <c r="N24">
+        <v>1.000971132147178</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1295,34 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9840234717523619</v>
+        <v>0.9869552500460674</v>
       </c>
       <c r="D25">
-        <v>1.005006677840565</v>
+        <v>1.0072767073497</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9912438574175644</v>
+        <v>0.9937474938125668</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.038232171754399</v>
+        <v>1.039571574532977</v>
       </c>
       <c r="J25">
-        <v>1.009100737421091</v>
+        <v>1.011929740784185</v>
       </c>
       <c r="K25">
-        <v>1.017527765605632</v>
+        <v>1.019763102354669</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.003979639230599</v>
+        <v>1.006443653573635</v>
+      </c>
+      <c r="N25">
+        <v>1.013366797086062</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>0.998864134555536</v>
+        <v>1.000530534252903</v>
       </c>
       <c r="D2">
-        <v>1.016283546911556</v>
+        <v>1.019196195916506</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.006067500388571</v>
+        <v>1.007876452208469</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.044200429044916</v>
+        <v>1.045737479776238</v>
       </c>
       <c r="J2">
-        <v>1.021078872321978</v>
+        <v>1.022695388703633</v>
       </c>
       <c r="K2">
-        <v>1.027520593184392</v>
+        <v>1.030394421389477</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.017442947576069</v>
+        <v>1.019227135426874</v>
       </c>
       <c r="N2">
-        <v>1.022528921440058</v>
+        <v>1.024147733460393</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007061729654715</v>
+        <v>1.007964033407442</v>
       </c>
       <c r="D3">
-        <v>1.022487573785085</v>
+        <v>1.024990090288804</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.014562670006702</v>
+        <v>1.01572994508875</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.047352894938946</v>
+        <v>1.048619714515565</v>
       </c>
       <c r="J3">
-        <v>1.02736171864826</v>
+        <v>1.028239920474022</v>
       </c>
       <c r="K3">
-        <v>1.032840585261889</v>
+        <v>1.035312899393785</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.025012548779358</v>
+        <v>1.026165437982327</v>
       </c>
       <c r="N3">
-        <v>1.028820690128777</v>
+        <v>1.029700139101862</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012179683835703</v>
+        <v>1.012617763532354</v>
       </c>
       <c r="D4">
-        <v>1.026361872407989</v>
+        <v>1.028618982233459</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.019873003874236</v>
+        <v>1.020652514469137</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.049304980071861</v>
+        <v>1.050409033295523</v>
       </c>
       <c r="J4">
-        <v>1.031276881332914</v>
+        <v>1.031704121545829</v>
       </c>
       <c r="K4">
-        <v>1.03615221243373</v>
+        <v>1.038383848371097</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.029737352942397</v>
+        <v>1.030507911410413</v>
       </c>
       <c r="N4">
-        <v>1.032741412793518</v>
+        <v>1.033169259736541</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014289471425091</v>
+        <v>1.014538961707683</v>
       </c>
       <c r="D5">
-        <v>1.027959096310406</v>
+        <v>1.030117386311793</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.022063662018089</v>
+        <v>1.02268611247964</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.050105773874902</v>
+        <v>1.051144036638528</v>
       </c>
       <c r="J5">
-        <v>1.03288901349488</v>
+        <v>1.033132530568893</v>
       </c>
       <c r="K5">
-        <v>1.037514952125386</v>
+        <v>1.039649578197639</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9715596031702913</v>
       </c>
       <c r="M5">
-        <v>1.031684783176549</v>
+        <v>1.032300299099286</v>
       </c>
       <c r="N5">
-        <v>1.034355834368068</v>
+        <v>1.034599697264258</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014641340019523</v>
+        <v>1.014859533031386</v>
       </c>
       <c r="D6">
-        <v>1.0282254831466</v>
+        <v>1.030367424352566</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.9614041218017086</v>
       </c>
       <c r="F6">
-        <v>1.022429109753267</v>
+        <v>1.023025522052217</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.050239097247852</v>
+        <v>1.05126646122355</v>
       </c>
       <c r="J6">
-        <v>1.033157774531446</v>
+        <v>1.033370772687624</v>
       </c>
       <c r="K6">
-        <v>1.037742084135413</v>
+        <v>1.039860655545284</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9717150950965047</v>
       </c>
       <c r="M6">
-        <v>1.032009556184948</v>
+        <v>1.032599358114051</v>
       </c>
       <c r="N6">
-        <v>1.034624977076134</v>
+        <v>1.034838277714125</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012208035631075</v>
+        <v>1.012643570376311</v>
       </c>
       <c r="D7">
-        <v>1.026383335971112</v>
+        <v>1.028639108802329</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.9600397355691361</v>
       </c>
       <c r="F7">
-        <v>1.019902436244922</v>
+        <v>1.020679825541853</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.049315756928684</v>
+        <v>1.050418921013485</v>
       </c>
       <c r="J7">
-        <v>1.031298552831334</v>
+        <v>1.031723315770936</v>
       </c>
       <c r="K7">
-        <v>1.03617053492439</v>
+        <v>1.038400858720726</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9706424616290571</v>
       </c>
       <c r="M7">
-        <v>1.02976352412238</v>
+        <v>1.030531989251429</v>
       </c>
       <c r="N7">
-        <v>1.032763115067952</v>
+        <v>1.033188481219649</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.00167495220432</v>
+        <v>1.003076444246315</v>
       </c>
       <c r="D8">
-        <v>1.01841051749326</v>
+        <v>1.021180144251707</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9542328392922299</v>
       </c>
       <c r="F8">
-        <v>1.008978942248132</v>
+        <v>1.010564957239214</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.045284722866041</v>
+        <v>1.046727777534914</v>
       </c>
       <c r="J8">
-        <v>1.023234678977017</v>
+        <v>1.024595780229346</v>
       </c>
       <c r="K8">
-        <v>1.029346750220973</v>
+        <v>1.032080660811088</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.020038646308365</v>
+        <v>1.021603696200662</v>
       </c>
       <c r="N8">
-        <v>1.024687789587822</v>
+        <v>1.026050823760051</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.981541848921578</v>
+        <v>0.984911888317082</v>
       </c>
       <c r="D9">
-        <v>1.003185706459699</v>
+        <v>1.007036926738148</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923925</v>
+        <v>0.9435740419923924</v>
       </c>
       <c r="F9">
-        <v>0.9881548135860423</v>
+        <v>0.9914087665766842</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.03745071560535</v>
+        <v>1.039599058395855</v>
       </c>
       <c r="J9">
-        <v>1.007763683046033</v>
+        <v>1.011008932852517</v>
       </c>
       <c r="K9">
-        <v>1.016227308387373</v>
+        <v>1.020016857180519</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832519</v>
+        <v>0.9576541208832517</v>
       </c>
       <c r="M9">
-        <v>1.001443039331463</v>
+        <v>1.004642785596248</v>
       </c>
       <c r="N9">
-        <v>1.009194823068068</v>
+        <v>1.012444681501513</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9668274050351033</v>
+        <v>0.97174923509503</v>
       </c>
       <c r="D10">
-        <v>0.9920791301324372</v>
+        <v>0.9968095462798893</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547282</v>
+        <v>0.9361465105547279</v>
       </c>
       <c r="F10">
-        <v>0.9729747916507369</v>
+        <v>0.9775607433270119</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.03164158904723</v>
+        <v>1.034355210456869</v>
       </c>
       <c r="J10">
-        <v>0.9964219159214956</v>
+        <v>1.001130352391166</v>
       </c>
       <c r="K10">
-        <v>1.006592886360566</v>
+        <v>1.011236645282689</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689356</v>
       </c>
       <c r="M10">
-        <v>0.98784976213112</v>
+        <v>0.9923473195443785</v>
       </c>
       <c r="N10">
-        <v>0.9978369493332954</v>
+        <v>1.002552072322818</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.960084695128222</v>
+        <v>0.9657530729952881</v>
       </c>
       <c r="D11">
-        <v>0.9869974204356119</v>
+        <v>0.9921577914419218</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016258</v>
+        <v>0.9328454960016259</v>
       </c>
       <c r="F11">
-        <v>0.9660285531999317</v>
+        <v>0.9712602885830315</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.028961002049378</v>
+        <v>1.031948902245617</v>
       </c>
       <c r="J11">
-        <v>0.9912177245048134</v>
+        <v>0.9966233814363158</v>
       </c>
       <c r="K11">
-        <v>1.002168784016068</v>
+        <v>1.007229131352678</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9816208743196198</v>
+        <v>0.9867453376212999</v>
       </c>
       <c r="N11">
-        <v>0.9926253673678723</v>
+        <v>0.9980387009522549</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9575177080162258</v>
+        <v>0.9634765475602001</v>
       </c>
       <c r="D12">
-        <v>0.9850642314210759</v>
+        <v>0.9903929942313751</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9316058186411974</v>
       </c>
       <c r="F12">
-        <v>0.9633855981014352</v>
+        <v>0.9688694259266897</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.027937812746789</v>
+        <v>1.031032786090004</v>
       </c>
       <c r="J12">
-        <v>0.989235540880527</v>
+        <v>0.9949113183311079</v>
       </c>
       <c r="K12">
-        <v>1.000483282534153</v>
+        <v>1.005706593181848</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9481721277252509</v>
       </c>
       <c r="M12">
-        <v>0.9792495772666686</v>
+        <v>0.9846183699847654</v>
       </c>
       <c r="N12">
-        <v>0.9906403688154797</v>
+        <v>0.9963242065210616</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9580712809481265</v>
+        <v>0.9639671837237207</v>
       </c>
       <c r="D13">
-        <v>0.9854810550810066</v>
+        <v>0.9907732802579837</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9639554845004988</v>
+        <v>0.9693846502581599</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.028158582829141</v>
+        <v>1.031230339488195</v>
       </c>
       <c r="J13">
-        <v>0.9896630396332566</v>
+        <v>0.9952803419345212</v>
       </c>
       <c r="K13">
-        <v>1.000846814445252</v>
+        <v>1.006034774383427</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9483836088965216</v>
       </c>
       <c r="M13">
-        <v>0.979760944928257</v>
+        <v>0.9850767773833579</v>
       </c>
       <c r="N13">
-        <v>0.9910684746654732</v>
+        <v>0.996693754180319</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.959873823707447</v>
+        <v>0.9655659298808966</v>
       </c>
       <c r="D14">
-        <v>0.986838582871271</v>
+        <v>0.9920126874795718</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194317</v>
       </c>
       <c r="F14">
-        <v>0.965811410258138</v>
+        <v>0.9710637221684804</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.028877003033069</v>
+        <v>1.031873642963227</v>
       </c>
       <c r="J14">
-        <v>0.9910549109921462</v>
+        <v>0.9964826584981484</v>
       </c>
       <c r="K14">
-        <v>1.002030348043624</v>
+        <v>1.007103990256834</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9814260764044881</v>
+        <v>0.9865704907912098</v>
       </c>
       <c r="N14">
-        <v>0.9924623226413422</v>
+        <v>0.9978977781713744</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9609759362648086</v>
+        <v>0.9665442864244106</v>
       </c>
       <c r="D15">
-        <v>0.9876688025971287</v>
+        <v>0.9927713238767296</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>0.9669463624531573</v>
+        <v>0.9720913907047014</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.029315913462682</v>
+        <v>1.032266985389039</v>
       </c>
       <c r="J15">
-        <v>0.9919058140175691</v>
+        <v>0.9972183001098722</v>
       </c>
       <c r="K15">
-        <v>1.002753830662203</v>
+        <v>1.007758168419878</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9824441847730477</v>
+        <v>0.9874845603881262</v>
       </c>
       <c r="N15">
-        <v>0.9933144340466609</v>
+        <v>0.9986344644785661</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9672665308722653</v>
+        <v>0.9721405438183626</v>
       </c>
       <c r="D16">
-        <v>0.9924102637342845</v>
+        <v>0.9971132864245438</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9363637346017256</v>
       </c>
       <c r="F16">
-        <v>0.9734273779355297</v>
+        <v>0.9779720737974986</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.031815791516073</v>
+        <v>1.034511892810592</v>
       </c>
       <c r="J16">
-        <v>0.9967607110007906</v>
+        <v>1.001424343429802</v>
       </c>
       <c r="K16">
-        <v>1.006880833664784</v>
+        <v>1.011498026071072</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9519451749175714</v>
       </c>
       <c r="M16">
-        <v>0.9882554313462186</v>
+        <v>0.9927128888982091</v>
       </c>
       <c r="N16">
-        <v>0.9981762255404634</v>
+        <v>1.00284648086245</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9711086944125867</v>
+        <v>0.9755683908813901</v>
       </c>
       <c r="D17">
-        <v>0.995308438297303</v>
+        <v>0.9997748761819915</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9382760156855667</v>
       </c>
       <c r="F17">
-        <v>0.9773884192297709</v>
+        <v>0.98157620161714</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.033337914304499</v>
+        <v>1.03588246607555</v>
       </c>
       <c r="J17">
-        <v>0.9997242556417151</v>
+        <v>1.003998932695708</v>
       </c>
       <c r="K17">
-        <v>1.009399230693653</v>
+        <v>1.01378685378596</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9534603602068051</v>
       </c>
       <c r="M17">
-        <v>0.9918048775185732</v>
+        <v>0.9959151668306171</v>
       </c>
       <c r="N17">
-        <v>1.001143978754701</v>
+        <v>1.005424726340423</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9733144476378176</v>
+        <v>0.9775395270559409</v>
       </c>
       <c r="D18">
-        <v>0.9969729571324768</v>
+        <v>1.001306051234791</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9393832867215686</v>
       </c>
       <c r="F18">
-        <v>0.979663331525209</v>
+        <v>0.9836494470123455</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.034210006574873</v>
+        <v>1.036668950004885</v>
       </c>
       <c r="J18">
-        <v>1.001424942507332</v>
+        <v>1.00547876706668</v>
       </c>
       <c r="K18">
-        <v>1.010844146651406</v>
+        <v>1.015102278551258</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.993842585284761</v>
+        <v>0.9977565098257298</v>
       </c>
       <c r="N18">
-        <v>1.002847080790738</v>
+        <v>1.006906662245941</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9740607468510266</v>
+        <v>0.9782069707321152</v>
       </c>
       <c r="D19">
-        <v>0.9975362452975751</v>
+        <v>1.001824627116141</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9397594814684963</v>
       </c>
       <c r="F19">
-        <v>0.9804331837876329</v>
+        <v>0.9843515914558678</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.034504772678088</v>
+        <v>1.036934978307701</v>
       </c>
       <c r="J19">
-        <v>1.002000241294895</v>
+        <v>1.005979739130167</v>
       </c>
       <c r="K19">
-        <v>1.011332869716481</v>
+        <v>1.015547564510169</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.9546352493816589</v>
       </c>
       <c r="M19">
-        <v>0.994532026037604</v>
+        <v>0.9983799895028391</v>
       </c>
       <c r="N19">
-        <v>1.003423196568568</v>
+        <v>1.007408345747221</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.970700164094754</v>
+        <v>0.9752035711928639</v>
       </c>
       <c r="D20">
-        <v>0.9950002057472558</v>
+        <v>0.9994915373544871</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660144</v>
       </c>
       <c r="F20">
-        <v>0.9769671536304837</v>
+        <v>0.981192543559528</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.033176250556883</v>
+        <v>1.035736768824387</v>
       </c>
       <c r="J20">
-        <v>0.9994092150023385</v>
+        <v>1.003724990421703</v>
       </c>
       <c r="K20">
-        <v>1.009131543952966</v>
+        <v>1.013543333361017</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057445</v>
       </c>
       <c r="M20">
-        <v>0.9914274707644248</v>
+        <v>0.9955743624616114</v>
       </c>
       <c r="N20">
-        <v>1.000828490721481</v>
+        <v>1.005150395036967</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9593448029152559</v>
+        <v>0.9650965409108786</v>
       </c>
       <c r="D21">
-        <v>0.9864401255560032</v>
+        <v>0.991648762098845</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>0.9652666803699517</v>
+        <v>0.9705707169955029</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.028666229153436</v>
+        <v>1.031684838742289</v>
       </c>
       <c r="J21">
-        <v>0.990646440532277</v>
+        <v>0.9961296851966175</v>
       </c>
       <c r="K21">
-        <v>1.001683029701591</v>
+        <v>1.006790097552655</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9809373812464321</v>
+        <v>0.9861319416738277</v>
       </c>
       <c r="N21">
-        <v>0.9920532721065678</v>
+        <v>0.9975443036072688</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9518397460941501</v>
+        <v>0.9584538217030053</v>
       </c>
       <c r="D22">
-        <v>0.9807912056851301</v>
+        <v>0.9865019740675854</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9288972953651159</v>
       </c>
       <c r="F22">
-        <v>0.9575424571246141</v>
+        <v>0.963596638043096</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.025669807862293</v>
+        <v>1.029007000691077</v>
       </c>
       <c r="J22">
-        <v>0.9848495752610865</v>
+        <v>0.9911323763770445</v>
       </c>
       <c r="K22">
-        <v>0.9967530444695073</v>
+        <v>1.002345657254617</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9460223821572513</v>
       </c>
       <c r="M22">
-        <v>0.9740046863697073</v>
+        <v>0.9799254714888982</v>
       </c>
       <c r="N22">
-        <v>0.9862481746217824</v>
+        <v>0.9925398980359725</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9558555078459274</v>
+        <v>0.962004324125374</v>
       </c>
       <c r="D23">
-        <v>0.9838128812024191</v>
+        <v>0.9892521014223219</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9308081199963312</v>
       </c>
       <c r="F23">
-        <v>0.9616746396849732</v>
+        <v>0.9673235969137306</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.027274530027583</v>
+        <v>1.030439636961244</v>
       </c>
       <c r="J23">
-        <v>0.987951776832932</v>
+        <v>0.9938038826962774</v>
       </c>
       <c r="K23">
-        <v>0.9993915493394613</v>
+        <v>1.004721699020866</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9475391330285315</v>
       </c>
       <c r="M23">
-        <v>0.9777141224836694</v>
+        <v>0.983242841727838</v>
       </c>
       <c r="N23">
-        <v>0.9893547816756875</v>
+        <v>0.9952151982006048</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9708848700064591</v>
+        <v>0.9753685045177933</v>
       </c>
       <c r="D24">
-        <v>0.9951395625790196</v>
+        <v>0.9996196315016351</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>0.977157614619277</v>
+        <v>0.9813659913208755</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.033249347877873</v>
+        <v>1.035802643012623</v>
       </c>
       <c r="J24">
-        <v>0.9995516541481108</v>
+        <v>1.003848840500815</v>
       </c>
       <c r="K24">
-        <v>1.009252573989987</v>
+        <v>1.013653430131268</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9533716596442539</v>
       </c>
       <c r="M24">
-        <v>0.9915981050016793</v>
+        <v>0.9957284388292192</v>
       </c>
       <c r="N24">
-        <v>1.000971132147178</v>
+        <v>1.005274420997397</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9869552500460674</v>
+        <v>0.9897792829902802</v>
       </c>
       <c r="D25">
-        <v>1.0072767073497</v>
+        <v>1.010823805386973</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9937474938125668</v>
+        <v>0.9965362728220732</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.039571574532977</v>
+        <v>1.041522820280853</v>
       </c>
       <c r="J25">
-        <v>1.011929740784185</v>
+        <v>1.014655579686259</v>
       </c>
       <c r="K25">
-        <v>1.019763102354669</v>
+        <v>1.0232563876249</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.006443653573635</v>
+        <v>1.009188597721496</v>
       </c>
       <c r="N25">
-        <v>1.013366797086062</v>
+        <v>1.016096506992035</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
@@ -421,37 +421,37 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.000530534252903</v>
+        <v>1.044601349579914</v>
       </c>
       <c r="D2">
-        <v>1.019196195916506</v>
+        <v>1.05663687810428</v>
       </c>
       <c r="E2">
         <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.007876452208469</v>
+        <v>1.059245033149641</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.045737479776238</v>
+        <v>1.069144771267117</v>
       </c>
       <c r="J2">
-        <v>1.022695388703633</v>
+        <v>1.065525228707202</v>
       </c>
       <c r="K2">
-        <v>1.030394421389477</v>
+        <v>1.067359777420219</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.019227135426874</v>
+        <v>1.069936375723302</v>
       </c>
       <c r="N2">
-        <v>1.024147733460393</v>
+        <v>1.067038396749418</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -462,37 +462,37 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.007964033407442</v>
+        <v>1.051057924994269</v>
       </c>
       <c r="D3">
-        <v>1.024990090288804</v>
+        <v>1.061812512395708</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.01572994508875</v>
+        <v>1.065206259607815</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.048619714515565</v>
+        <v>1.071925410898184</v>
       </c>
       <c r="J3">
-        <v>1.028239920474022</v>
+        <v>1.070247265111469</v>
       </c>
       <c r="K3">
-        <v>1.035312899393785</v>
+        <v>1.071711167496187</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.026165437982327</v>
+        <v>1.07506763583073</v>
       </c>
       <c r="N3">
-        <v>1.029700139101862</v>
+        <v>1.071767138987004</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -503,37 +503,37 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.012617763532354</v>
+        <v>1.055121367488</v>
       </c>
       <c r="D4">
-        <v>1.028618982233459</v>
+        <v>1.065071260494247</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.020652514469137</v>
+        <v>1.068963467098875</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.050409033295523</v>
+        <v>1.07366311479479</v>
       </c>
       <c r="J4">
-        <v>1.031704121545829</v>
+        <v>1.073212949614469</v>
       </c>
       <c r="K4">
-        <v>1.038383848371097</v>
+        <v>1.074442988121468</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.030507911410413</v>
+        <v>1.078295149683477</v>
       </c>
       <c r="N4">
-        <v>1.033169259736541</v>
+        <v>1.074737035102168</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -544,37 +544,37 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.014538961707683</v>
+        <v>1.056803579852978</v>
       </c>
       <c r="D5">
-        <v>1.030117386311793</v>
+        <v>1.066420626833544</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.02268611247964</v>
+        <v>1.070520169459348</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.051144036638528</v>
+        <v>1.074379510893268</v>
       </c>
       <c r="J5">
-        <v>1.033132530568893</v>
+        <v>1.074439193973449</v>
       </c>
       <c r="K5">
-        <v>1.039649578197639</v>
+        <v>1.075572264484688</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702913</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.032300299099286</v>
+        <v>1.079630805218166</v>
       </c>
       <c r="N5">
-        <v>1.034599697264258</v>
+        <v>1.075965020868789</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -585,37 +585,37 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.014859533031386</v>
+        <v>1.057084539415999</v>
       </c>
       <c r="D6">
-        <v>1.030367424352566</v>
+        <v>1.066646010222141</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017086</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.023025522052217</v>
+        <v>1.070780239589689</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.05126646122355</v>
+        <v>1.074498984790065</v>
       </c>
       <c r="J6">
-        <v>1.033370772687624</v>
+        <v>1.074643908751011</v>
       </c>
       <c r="K6">
-        <v>1.039860655545284</v>
+        <v>1.075760774745795</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965047</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.032599358114051</v>
+        <v>1.079853853144783</v>
       </c>
       <c r="N6">
-        <v>1.034838277714125</v>
+        <v>1.076170026364817</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -626,37 +626,37 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.012643570376311</v>
+        <v>1.055143946000862</v>
       </c>
       <c r="D7">
-        <v>1.028639108802329</v>
+        <v>1.065089370522991</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691361</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.020679825541853</v>
+        <v>1.068984356083801</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.050418921013485</v>
+        <v>1.07367274208923</v>
       </c>
       <c r="J7">
-        <v>1.031723315770936</v>
+        <v>1.073229414190993</v>
       </c>
       <c r="K7">
-        <v>1.038400858720726</v>
+        <v>1.074458151810838</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290571</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.030531989251429</v>
+        <v>1.078313078756762</v>
       </c>
       <c r="N7">
-        <v>1.033188481219649</v>
+        <v>1.074753523060278</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -667,37 +667,37 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.003076444246315</v>
+        <v>1.046807895773352</v>
       </c>
       <c r="D8">
-        <v>1.021180144251707</v>
+        <v>1.058405310719347</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922299</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.010564957239214</v>
+        <v>1.061281096087989</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.046727777534914</v>
+        <v>1.070097623541276</v>
       </c>
       <c r="J8">
-        <v>1.024595780229346</v>
+        <v>1.067140258706746</v>
       </c>
       <c r="K8">
-        <v>1.032080660811088</v>
+        <v>1.068848259310582</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.021603696200662</v>
+        <v>1.071690348806856</v>
       </c>
       <c r="N8">
-        <v>1.026050823760051</v>
+        <v>1.068655720276808</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -708,37 +708,37 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>0.984911888317082</v>
+        <v>1.031177451874962</v>
       </c>
       <c r="D9">
-        <v>1.007036926738148</v>
+        <v>1.0458875352418</v>
       </c>
       <c r="E9">
-        <v>0.9435740419923924</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>0.9914087665766842</v>
+        <v>1.046884555483917</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.039599058395855</v>
+        <v>1.063296839958375</v>
       </c>
       <c r="J9">
-        <v>1.011008932852517</v>
+        <v>1.055675332518946</v>
       </c>
       <c r="K9">
-        <v>1.020016857180519</v>
+        <v>1.058277541768458</v>
       </c>
       <c r="L9">
-        <v>0.9576541208832517</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.004642785596248</v>
+        <v>1.059260153188593</v>
       </c>
       <c r="N9">
-        <v>1.012444681501513</v>
+        <v>1.057174512578777</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -749,37 +749,37 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.97174923509503</v>
+        <v>1.020023521853364</v>
       </c>
       <c r="D10">
-        <v>0.9968095462798893</v>
+        <v>1.036970179491801</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547279</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>0.9775607433270119</v>
+        <v>1.036647883604402</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.034355210456869</v>
+        <v>1.058380539403244</v>
       </c>
       <c r="J10">
-        <v>1.001130352391166</v>
+        <v>1.047464617205156</v>
       </c>
       <c r="K10">
-        <v>1.011236645282689</v>
+        <v>1.050702537357357</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689356</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>0.9923473195443785</v>
+        <v>1.050385541266104</v>
       </c>
       <c r="N10">
-        <v>1.002552072322818</v>
+        <v>1.048952137107458</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -790,37 +790,37 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9657530729952881</v>
+        <v>1.014993946881971</v>
       </c>
       <c r="D11">
-        <v>0.9921577914419218</v>
+        <v>1.032954050586868</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016259</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>0.9712602885830315</v>
+        <v>1.032041783732764</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.031948902245617</v>
+        <v>1.056149364629102</v>
       </c>
       <c r="J11">
-        <v>0.9966233814363158</v>
+        <v>1.043755994849806</v>
       </c>
       <c r="K11">
-        <v>1.007229131352678</v>
+        <v>1.047280156855093</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>0.9867453376212999</v>
+        <v>1.046383720994686</v>
       </c>
       <c r="N11">
-        <v>0.9980387009522549</v>
+        <v>1.045238248082979</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -831,37 +831,37 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9634765475602001</v>
+        <v>1.013093222108239</v>
       </c>
       <c r="D12">
-        <v>0.9903929942313751</v>
+        <v>1.031437176027078</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411974</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>0.9688694259266897</v>
+        <v>1.030302683555976</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.031032786090004</v>
+        <v>1.055304101445473</v>
       </c>
       <c r="J12">
-        <v>0.9949113183311079</v>
+        <v>1.042353607396366</v>
       </c>
       <c r="K12">
-        <v>1.005706593181848</v>
+        <v>1.045985895098325</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252509</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>0.9846183699847654</v>
+        <v>1.044871482091056</v>
       </c>
       <c r="N12">
-        <v>0.9963242065210616</v>
+        <v>1.043833869078499</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -872,37 +872,37 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9639671837237207</v>
+        <v>1.01350244856945</v>
       </c>
       <c r="D13">
-        <v>0.9907732802579837</v>
+        <v>1.031763718625345</v>
       </c>
       <c r="E13">
         <v>0.931872359336823</v>
       </c>
       <c r="F13">
-        <v>0.9693846502581599</v>
+        <v>1.030677038622185</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.031230339488195</v>
+        <v>1.055486179586836</v>
       </c>
       <c r="J13">
-        <v>0.9952803419345212</v>
+        <v>1.042655579504589</v>
       </c>
       <c r="K13">
-        <v>1.006034774383427</v>
+        <v>1.046264589632171</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965216</v>
+        <v>0.9483836088965215</v>
       </c>
       <c r="M13">
-        <v>0.9850767773833579</v>
+        <v>1.045197061903901</v>
       </c>
       <c r="N13">
-        <v>0.996693754180319</v>
+        <v>1.044136270021752</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -913,37 +913,37 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9655659298808966</v>
+        <v>1.014837511119957</v>
       </c>
       <c r="D14">
-        <v>0.9920126874795718</v>
+        <v>1.032829188771764</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194317</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>0.9710637221684804</v>
+        <v>1.031898617294552</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.031873642963227</v>
+        <v>1.056079838559271</v>
       </c>
       <c r="J14">
-        <v>0.9964826584981484</v>
+        <v>1.043640590942514</v>
       </c>
       <c r="K14">
-        <v>1.007103990256834</v>
+        <v>1.047173652922621</v>
       </c>
       <c r="L14">
         <v>0.9490745509764519</v>
       </c>
       <c r="M14">
-        <v>0.9865704907912098</v>
+        <v>1.046259256521201</v>
       </c>
       <c r="N14">
-        <v>0.9978977781713744</v>
+        <v>1.045122680288901</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -954,37 +954,37 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9665442864244106</v>
+        <v>1.015655699139963</v>
       </c>
       <c r="D15">
-        <v>0.9927713238767296</v>
+        <v>1.033482274881218</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717474</v>
+        <v>0.9332781050717475</v>
       </c>
       <c r="F15">
-        <v>0.9720913907047014</v>
+        <v>1.032647469591366</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.032266985389039</v>
+        <v>1.056443388580567</v>
       </c>
       <c r="J15">
-        <v>0.9972183001098722</v>
+        <v>1.044244140081483</v>
       </c>
       <c r="K15">
-        <v>1.007758168419878</v>
+        <v>1.047730651688266</v>
       </c>
       <c r="L15">
         <v>0.9494987508767193</v>
       </c>
       <c r="M15">
-        <v>0.9874845603881262</v>
+        <v>1.046910232918559</v>
       </c>
       <c r="N15">
-        <v>0.9986344644785661</v>
+        <v>1.045727086536876</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -995,37 +995,37 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9721405438183626</v>
+        <v>1.020352901186847</v>
       </c>
       <c r="D16">
-        <v>0.9971132864245438</v>
+        <v>1.037233301581891</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017256</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>0.9779720737974986</v>
+        <v>1.036949743398569</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.034511892810592</v>
+        <v>1.058526364896913</v>
       </c>
       <c r="J16">
-        <v>1.001424343429802</v>
+        <v>1.04770736629805</v>
       </c>
       <c r="K16">
-        <v>1.011498026071072</v>
+        <v>1.050926533482453</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175714</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>0.9927128888982091</v>
+        <v>1.050647621276566</v>
       </c>
       <c r="N16">
-        <v>1.00284648086245</v>
+        <v>1.049195230931908</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1036,37 +1036,37 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>0.9755683908813901</v>
+        <v>1.023244152877672</v>
       </c>
       <c r="D17">
-        <v>0.9997748761819915</v>
+        <v>1.039543524943993</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855667</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>0.98157620161714</v>
+        <v>1.039600558755742</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.03588246607555</v>
+        <v>1.059804794469956</v>
       </c>
       <c r="J17">
-        <v>1.003998932695708</v>
+        <v>1.04983749358511</v>
       </c>
       <c r="K17">
-        <v>1.01378685378596</v>
+        <v>1.052892004143847</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068051</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>0.9959151668306171</v>
+        <v>1.052948133104477</v>
       </c>
       <c r="N17">
-        <v>1.005424726340423</v>
+        <v>1.051328383244044</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1077,37 +1077,37 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>0.9775395270559409</v>
+        <v>1.024911470835669</v>
       </c>
       <c r="D18">
-        <v>1.001306051234791</v>
+        <v>1.040876232351496</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215686</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>0.9836494470123455</v>
+        <v>1.041130143709212</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.036668950004885</v>
+        <v>1.060540684350899</v>
       </c>
       <c r="J18">
-        <v>1.00547876706668</v>
+        <v>1.051065298744219</v>
       </c>
       <c r="K18">
-        <v>1.015102278551258</v>
+        <v>1.054024815500599</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>0.9977565098257298</v>
+        <v>1.054274774295275</v>
       </c>
       <c r="N18">
-        <v>1.006906662245941</v>
+        <v>1.052557932027311</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1118,37 +1118,37 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>0.9782069707321152</v>
+        <v>1.025476814642226</v>
       </c>
       <c r="D19">
-        <v>1.001824627116141</v>
+        <v>1.041328192308506</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684963</v>
+        <v>0.9397594814684967</v>
       </c>
       <c r="F19">
-        <v>0.9843515914558678</v>
+        <v>1.041648939080225</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.036934978307701</v>
+        <v>1.060789974271859</v>
       </c>
       <c r="J19">
-        <v>1.005979739130167</v>
+        <v>1.051481513233684</v>
       </c>
       <c r="K19">
-        <v>1.015547564510169</v>
+        <v>1.054408812864616</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816589</v>
+        <v>0.9546352493816592</v>
       </c>
       <c r="M19">
-        <v>0.9983799895028391</v>
+        <v>1.054724599070233</v>
       </c>
       <c r="N19">
-        <v>1.007408345747221</v>
+        <v>1.052974737589091</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1159,37 +1159,37 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9752035711928639</v>
+        <v>1.022935941681587</v>
       </c>
       <c r="D20">
-        <v>0.9994915373544871</v>
+        <v>1.039297204036923</v>
       </c>
       <c r="E20">
-        <v>0.9380716924660144</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>0.981192543559528</v>
+        <v>1.039317881967674</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.035736768824387</v>
+        <v>1.059668652096208</v>
       </c>
       <c r="J20">
-        <v>1.003724990421703</v>
+        <v>1.049610480056361</v>
       </c>
       <c r="K20">
-        <v>1.013543333361017</v>
+        <v>1.052682547296768</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057445</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>0.9955743624616114</v>
+        <v>1.052702896026027</v>
       </c>
       <c r="N20">
-        <v>1.005150395036967</v>
+        <v>1.051101047330045</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1200,37 +1200,37 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.9650965409108786</v>
+        <v>1.014445287519169</v>
       </c>
       <c r="D21">
-        <v>0.991648762098845</v>
+        <v>1.032516143204965</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148895</v>
+        <v>0.9324872132148894</v>
       </c>
       <c r="F21">
-        <v>0.9705707169955029</v>
+        <v>1.031539689158936</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.031684838742289</v>
+        <v>1.055905486071842</v>
       </c>
       <c r="J21">
-        <v>0.9961296851966175</v>
+        <v>1.043351230830576</v>
       </c>
       <c r="K21">
-        <v>1.006790097552655</v>
+        <v>1.04690660655683</v>
       </c>
       <c r="L21">
         <v>0.9488714019981064</v>
       </c>
       <c r="M21">
-        <v>0.9861319416738277</v>
+        <v>1.045947194684313</v>
       </c>
       <c r="N21">
-        <v>0.9975443036072688</v>
+        <v>1.044832909252415</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1241,37 +1241,37 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9584538217030053</v>
+        <v>1.008917296278499</v>
       </c>
       <c r="D22">
-        <v>0.9865019740675854</v>
+        <v>1.028106302461229</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651159</v>
+        <v>0.928897295365116</v>
       </c>
       <c r="F22">
-        <v>0.963596638043096</v>
+        <v>1.026484908297997</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.029007000691077</v>
+        <v>1.053443286939584</v>
       </c>
       <c r="J22">
-        <v>0.9911323763770445</v>
+        <v>1.039271029210284</v>
       </c>
       <c r="K22">
-        <v>1.002345657254617</v>
+        <v>1.04314080011728</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572513</v>
+        <v>0.9460223821572515</v>
       </c>
       <c r="M22">
-        <v>0.9799254714888982</v>
+        <v>1.041549340116861</v>
       </c>
       <c r="N22">
-        <v>0.9925398980359725</v>
+        <v>1.040746913277816</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1282,37 +1282,37 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.962004324125374</v>
+        <v>1.01186666715622</v>
       </c>
       <c r="D23">
-        <v>0.9892521014223219</v>
+        <v>1.030458581262208</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963312</v>
+        <v>0.9308081199963315</v>
       </c>
       <c r="F23">
-        <v>0.9673235969137306</v>
+        <v>1.029180888803973</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.030439636961244</v>
+        <v>1.05475806782183</v>
       </c>
       <c r="J23">
-        <v>0.9938038826962774</v>
+        <v>1.041448400011194</v>
       </c>
       <c r="K23">
-        <v>1.004721699020866</v>
+        <v>1.045150450661267</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285315</v>
+        <v>0.9475391330285319</v>
       </c>
       <c r="M23">
-        <v>0.983242841727838</v>
+        <v>1.043895657824039</v>
       </c>
       <c r="N23">
-        <v>0.9952151982006048</v>
+        <v>1.042927376195012</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1323,37 +1323,37 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9753685045177933</v>
+        <v>1.023075267895112</v>
       </c>
       <c r="D24">
-        <v>0.9996196315016351</v>
+        <v>1.039408551473272</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011829</v>
       </c>
       <c r="F24">
-        <v>0.9813659913208755</v>
+        <v>1.039445662554494</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.035802643012623</v>
+        <v>1.059730199165357</v>
       </c>
       <c r="J24">
-        <v>1.003848840500815</v>
+        <v>1.049713102874726</v>
       </c>
       <c r="K24">
-        <v>1.013653430131268</v>
+        <v>1.05277723378035</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442539</v>
+        <v>0.9533716596442545</v>
       </c>
       <c r="M24">
-        <v>0.9957284388292192</v>
+        <v>1.052813754964416</v>
       </c>
       <c r="N24">
-        <v>1.005274420997397</v>
+        <v>1.051203815884584</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1364,37 +1364,37 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>0.9897792829902802</v>
+        <v>1.03533960762311</v>
       </c>
       <c r="D25">
-        <v>1.010823805386973</v>
+        <v>1.049218596156506</v>
       </c>
       <c r="E25">
         <v>0.9463835801718012</v>
       </c>
       <c r="F25">
-        <v>0.9965362728220732</v>
+        <v>1.050712214249763</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.041522820280853</v>
+        <v>1.065118797578838</v>
       </c>
       <c r="J25">
-        <v>1.014655579686259</v>
+        <v>1.058733499599276</v>
       </c>
       <c r="K25">
-        <v>1.0232563876249</v>
+        <v>1.06109805013269</v>
       </c>
       <c r="L25">
         <v>0.9598754494005829</v>
       </c>
       <c r="M25">
-        <v>1.009188597721496</v>
+        <v>1.062571179839448</v>
       </c>
       <c r="N25">
-        <v>1.016096506992035</v>
+        <v>1.060237022607137</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C2">
-        <v>1.044601349579914</v>
+        <v>1.066139318179095</v>
       </c>
       <c r="D2">
-        <v>1.05663687810428</v>
+        <v>1.067857451690567</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.992614727750844</v>
       </c>
       <c r="F2">
-        <v>1.059245033149641</v>
+        <v>1.076761132788726</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069144771267117</v>
+        <v>1.05649201043406</v>
       </c>
       <c r="J2">
-        <v>1.065525228707202</v>
+        <v>1.071090847343355</v>
       </c>
       <c r="K2">
-        <v>1.067359777420219</v>
+        <v>1.070564189899962</v>
       </c>
       <c r="L2">
-        <v>0.9648701708403392</v>
+        <v>0.9955398523335997</v>
       </c>
       <c r="M2">
-        <v>1.069936375723302</v>
+        <v>1.079444214072221</v>
       </c>
       <c r="N2">
-        <v>1.067038396749418</v>
+        <v>1.072611919202419</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C3">
-        <v>1.051057924994269</v>
+        <v>1.067404269981731</v>
       </c>
       <c r="D3">
-        <v>1.061812512395708</v>
+        <v>1.068877336879326</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057848</v>
+        <v>0.9936372048519299</v>
       </c>
       <c r="F3">
-        <v>1.065206259607815</v>
+        <v>1.077977673300468</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.071925410898184</v>
+        <v>1.056943145109938</v>
       </c>
       <c r="J3">
-        <v>1.070247265111469</v>
+        <v>1.072010181804702</v>
       </c>
       <c r="K3">
-        <v>1.071711167496187</v>
+        <v>1.07139943376161</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474066</v>
+        <v>0.9963617723202687</v>
       </c>
       <c r="M3">
-        <v>1.07506763583073</v>
+        <v>1.080477344915502</v>
       </c>
       <c r="N3">
-        <v>1.071767138987004</v>
+        <v>1.073532559224151</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C4">
-        <v>1.055121367488</v>
+        <v>1.068221776081627</v>
       </c>
       <c r="D4">
-        <v>1.065071260494247</v>
+        <v>1.069536277956044</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088612</v>
+        <v>0.9942998659930998</v>
       </c>
       <c r="F4">
-        <v>1.068963467098875</v>
+        <v>1.078764247416554</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.07366311479479</v>
+        <v>1.057233199754469</v>
       </c>
       <c r="J4">
-        <v>1.073212949614469</v>
+        <v>1.072603516855246</v>
       </c>
       <c r="K4">
-        <v>1.074442988121468</v>
+        <v>1.071938289960432</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952756</v>
+        <v>0.9968940712668347</v>
       </c>
       <c r="M4">
-        <v>1.078295149683477</v>
+        <v>1.081144668170764</v>
       </c>
       <c r="N4">
-        <v>1.074737035102168</v>
+        <v>1.074126736878523</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C5">
-        <v>1.056803579852978</v>
+        <v>1.0685652192807</v>
       </c>
       <c r="D5">
-        <v>1.066420626833544</v>
+        <v>1.069813061425091</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769891</v>
+        <v>0.994578699834602</v>
       </c>
       <c r="F5">
-        <v>1.070520169459348</v>
+        <v>1.079094780219495</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.074379510893268</v>
+        <v>1.057354694950235</v>
       </c>
       <c r="J5">
-        <v>1.074439193973449</v>
+        <v>1.072852589760375</v>
       </c>
       <c r="K5">
-        <v>1.075572264484688</v>
+        <v>1.072164443751108</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702912</v>
+        <v>0.9971179600053012</v>
       </c>
       <c r="M5">
-        <v>1.079630805218166</v>
+        <v>1.081424930617541</v>
       </c>
       <c r="N5">
-        <v>1.075965020868789</v>
+        <v>1.074376163495747</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C6">
-        <v>1.057084539415999</v>
+        <v>1.068622871148538</v>
       </c>
       <c r="D6">
-        <v>1.066646010222141</v>
+        <v>1.069859520853329</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017085</v>
+        <v>0.994625531979634</v>
       </c>
       <c r="F6">
-        <v>1.070780239589689</v>
+        <v>1.079150269830519</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.074498984790065</v>
+        <v>1.057375068546347</v>
       </c>
       <c r="J6">
-        <v>1.074643908751011</v>
+        <v>1.072894388857847</v>
       </c>
       <c r="K6">
-        <v>1.075760774745795</v>
+        <v>1.072202393670645</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965046</v>
+        <v>0.9971555583673455</v>
       </c>
       <c r="M6">
-        <v>1.079853853144783</v>
+        <v>1.081471971556979</v>
       </c>
       <c r="N6">
-        <v>1.076170026364817</v>
+        <v>1.074418021952732</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C7">
-        <v>1.055143946000862</v>
+        <v>1.068226366110747</v>
       </c>
       <c r="D7">
-        <v>1.065089370522991</v>
+        <v>1.06953997727221</v>
       </c>
       <c r="E7">
-        <v>0.9600397355691357</v>
+        <v>0.994303590798249</v>
       </c>
       <c r="F7">
-        <v>1.068984356083801</v>
+        <v>1.078768664570239</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.07367274208923</v>
+        <v>1.057234824921188</v>
       </c>
       <c r="J7">
-        <v>1.073229414190993</v>
+        <v>1.072606846411243</v>
       </c>
       <c r="K7">
-        <v>1.074458151810838</v>
+        <v>1.071941313334095</v>
       </c>
       <c r="L7">
-        <v>0.9706424616290568</v>
+        <v>0.9968970624462089</v>
       </c>
       <c r="M7">
-        <v>1.078313078756762</v>
+        <v>1.08114841414925</v>
       </c>
       <c r="N7">
-        <v>1.074753523060278</v>
+        <v>1.074130071162872</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C8">
-        <v>1.046807895773352</v>
+        <v>1.066567024259258</v>
       </c>
       <c r="D8">
-        <v>1.058405310719347</v>
+        <v>1.068202333643187</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922297</v>
+        <v>0.9929600610674297</v>
       </c>
       <c r="F8">
-        <v>1.061281096087989</v>
+        <v>1.077172396140735</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.070097623541276</v>
+        <v>1.056644859426179</v>
       </c>
       <c r="J8">
-        <v>1.067140258706746</v>
+        <v>1.071401860255377</v>
       </c>
       <c r="K8">
-        <v>1.068848259310582</v>
+        <v>1.070846797636392</v>
       </c>
       <c r="L8">
-        <v>0.966070643453771</v>
+        <v>0.9958175282591056</v>
       </c>
       <c r="M8">
-        <v>1.071690348806856</v>
+        <v>1.079793611679747</v>
       </c>
       <c r="N8">
-        <v>1.068655720276808</v>
+        <v>1.07292337378845</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C9">
-        <v>1.031177451874962</v>
+        <v>1.063635214335322</v>
       </c>
       <c r="D9">
-        <v>1.0458875352418</v>
+        <v>1.065837525861173</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925933</v>
+        <v>0.9906006454969559</v>
       </c>
       <c r="F9">
-        <v>1.046884555483917</v>
+        <v>1.074354776286639</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063296839958375</v>
+        <v>1.055590957755106</v>
       </c>
       <c r="J9">
-        <v>1.055675332518946</v>
+        <v>1.069266644406517</v>
       </c>
       <c r="K9">
-        <v>1.058277541768458</v>
+        <v>1.068905746302002</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834081</v>
+        <v>0.9939188001724441</v>
       </c>
       <c r="M9">
-        <v>1.059260153188593</v>
+        <v>1.07739711091143</v>
       </c>
       <c r="N9">
-        <v>1.057174512578777</v>
+        <v>1.070785125688172</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C10">
-        <v>1.020023521853364</v>
+        <v>1.061675177355689</v>
       </c>
       <c r="D10">
-        <v>1.036970179491801</v>
+        <v>1.064255655378965</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547283</v>
+        <v>0.989033133672735</v>
       </c>
       <c r="F10">
-        <v>1.036647883604402</v>
+        <v>1.072472961640151</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058380539403244</v>
+        <v>1.054878646013741</v>
       </c>
       <c r="J10">
-        <v>1.047464617205156</v>
+        <v>1.067835021107607</v>
       </c>
       <c r="K10">
-        <v>1.050702537357357</v>
+        <v>1.067603247158138</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689358</v>
+        <v>0.9926553831429383</v>
       </c>
       <c r="M10">
-        <v>1.050385541266104</v>
+        <v>1.075793115426424</v>
       </c>
       <c r="N10">
-        <v>1.048952137107458</v>
+        <v>1.069351469319969</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C11">
-        <v>1.014993946881971</v>
+        <v>1.060825104586827</v>
       </c>
       <c r="D11">
-        <v>1.032954050586868</v>
+        <v>1.063569389425585</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016257</v>
+        <v>0.988355674866747</v>
       </c>
       <c r="F11">
-        <v>1.032041783732764</v>
+        <v>1.071657267479959</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056149364629102</v>
+        <v>1.054567883162799</v>
       </c>
       <c r="J11">
-        <v>1.043755994849806</v>
+        <v>1.067213143767433</v>
       </c>
       <c r="K11">
-        <v>1.047280156855093</v>
+        <v>1.067037210040499</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416573</v>
+        <v>0.9921088820399291</v>
       </c>
       <c r="M11">
-        <v>1.046383720994686</v>
+        <v>1.075097029087997</v>
       </c>
       <c r="N11">
-        <v>1.045238248082979</v>
+        <v>1.068728708842641</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C12">
-        <v>1.013093222108239</v>
+        <v>1.060509140296651</v>
       </c>
       <c r="D12">
-        <v>1.031437176027078</v>
+        <v>1.063314280524437</v>
       </c>
       <c r="E12">
-        <v>0.9316058186411971</v>
+        <v>0.9881042295826724</v>
       </c>
       <c r="F12">
-        <v>1.030302683555976</v>
+        <v>1.071354150125639</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055304101445473</v>
+        <v>1.054452100510475</v>
       </c>
       <c r="J12">
-        <v>1.042353607396366</v>
+        <v>1.066981850871436</v>
       </c>
       <c r="K12">
-        <v>1.045985895098325</v>
+        <v>1.066826648282805</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252507</v>
+        <v>0.9919059725120875</v>
       </c>
       <c r="M12">
-        <v>1.044871482091056</v>
+        <v>1.074838236067017</v>
       </c>
       <c r="N12">
-        <v>1.043833869078499</v>
+        <v>1.068497087484202</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C13">
-        <v>1.01350244856945</v>
+        <v>1.060576925258641</v>
       </c>
       <c r="D13">
-        <v>1.031763718625345</v>
+        <v>1.063369011311251</v>
       </c>
       <c r="E13">
-        <v>0.931872359336823</v>
+        <v>0.9881581567098651</v>
       </c>
       <c r="F13">
-        <v>1.030677038622185</v>
+        <v>1.07141917586887</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055486179586836</v>
+        <v>1.054476952218225</v>
       </c>
       <c r="J13">
-        <v>1.042655579504589</v>
+        <v>1.067031477608935</v>
       </c>
       <c r="K13">
-        <v>1.046264589632171</v>
+        <v>1.066871828586547</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965215</v>
+        <v>0.9919494934313052</v>
       </c>
       <c r="M13">
-        <v>1.045197061903901</v>
+        <v>1.074893758761934</v>
       </c>
       <c r="N13">
-        <v>1.044136270021752</v>
+        <v>1.068546784697361</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C14">
-        <v>1.014837511119957</v>
+        <v>1.06079899117822</v>
       </c>
       <c r="D14">
-        <v>1.032829188771764</v>
+        <v>1.063548306124768</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9883348863814464</v>
       </c>
       <c r="F14">
-        <v>1.031898617294552</v>
+        <v>1.071632214423239</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056079838559271</v>
+        <v>1.05455831971379</v>
       </c>
       <c r="J14">
-        <v>1.043640590942514</v>
+        <v>1.067194031162451</v>
       </c>
       <c r="K14">
-        <v>1.047173652922621</v>
+        <v>1.067019811288319</v>
       </c>
       <c r="L14">
-        <v>0.9490745509764519</v>
+        <v>0.9920921077337197</v>
       </c>
       <c r="M14">
-        <v>1.046259256521201</v>
+        <v>1.075075642000898</v>
       </c>
       <c r="N14">
-        <v>1.045122680288901</v>
+        <v>1.068709569095569</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C15">
-        <v>1.015655699139963</v>
+        <v>1.060935785435494</v>
       </c>
       <c r="D15">
-        <v>1.033482274881218</v>
+        <v>1.063658749094279</v>
       </c>
       <c r="E15">
-        <v>0.9332781050717475</v>
+        <v>0.9884438009545853</v>
       </c>
       <c r="F15">
-        <v>1.032647469591366</v>
+        <v>1.071763456878105</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056443388580567</v>
+        <v>1.054608406281202</v>
       </c>
       <c r="J15">
-        <v>1.044244140081483</v>
+        <v>1.067294145926511</v>
       </c>
       <c r="K15">
-        <v>1.047730651688266</v>
+        <v>1.067110947100307</v>
       </c>
       <c r="L15">
-        <v>0.9494987508767193</v>
+        <v>0.9921799884222134</v>
       </c>
       <c r="M15">
-        <v>1.046910232918559</v>
+        <v>1.075187674953024</v>
       </c>
       <c r="N15">
-        <v>1.045727086536876</v>
+        <v>1.068809826034076</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C16">
-        <v>1.020352901186847</v>
+        <v>1.061731564766624</v>
       </c>
       <c r="D16">
-        <v>1.037233301581891</v>
+        <v>1.064301172825427</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017258</v>
+        <v>0.9890781214508737</v>
       </c>
       <c r="F16">
-        <v>1.036949743398569</v>
+        <v>1.072527078231646</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058526364896913</v>
+        <v>1.054899221131218</v>
       </c>
       <c r="J16">
-        <v>1.04770736629805</v>
+        <v>1.067876251171274</v>
       </c>
       <c r="K16">
-        <v>1.050926533482453</v>
+        <v>1.06764076981322</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175715</v>
+        <v>0.9926916645766087</v>
       </c>
       <c r="M16">
-        <v>1.050647621276566</v>
+        <v>1.075839279533515</v>
       </c>
       <c r="N16">
-        <v>1.049195230931908</v>
+        <v>1.069392757935055</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C17">
-        <v>1.023244152877672</v>
+        <v>1.062230367801363</v>
       </c>
       <c r="D17">
-        <v>1.039543524943993</v>
+        <v>1.064703796587819</v>
       </c>
       <c r="E17">
-        <v>0.9382760156855671</v>
+        <v>0.9894763578477731</v>
       </c>
       <c r="F17">
-        <v>1.039600558755742</v>
+        <v>1.073005846006348</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059804794469956</v>
+        <v>1.055081017242803</v>
       </c>
       <c r="J17">
-        <v>1.04983749358511</v>
+        <v>1.068240859364526</v>
       </c>
       <c r="K17">
-        <v>1.052892004143847</v>
+        <v>1.067972563667151</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068054</v>
+        <v>0.9930127773692701</v>
       </c>
       <c r="M17">
-        <v>1.052948133104477</v>
+        <v>1.07624759769115</v>
       </c>
       <c r="N17">
-        <v>1.051328383244044</v>
+        <v>1.069757883913763</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C18">
-        <v>1.024911470835669</v>
+        <v>1.062521179890472</v>
       </c>
       <c r="D18">
-        <v>1.040876232351496</v>
+        <v>1.0649385144513</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215685</v>
+        <v>0.9897087662937551</v>
       </c>
       <c r="F18">
-        <v>1.041130143709212</v>
+        <v>1.073285020804198</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060540684350899</v>
+        <v>1.055186831427946</v>
       </c>
       <c r="J18">
-        <v>1.051065298744219</v>
+        <v>1.068453338816304</v>
       </c>
       <c r="K18">
-        <v>1.054024815500599</v>
+        <v>1.068165896160329</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865727</v>
+        <v>0.9932001317071766</v>
       </c>
       <c r="M18">
-        <v>1.054274774295275</v>
+        <v>1.076485613853039</v>
       </c>
       <c r="N18">
-        <v>1.052557932027311</v>
+        <v>1.069970665110734</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C19">
-        <v>1.025476814642226</v>
+        <v>1.062620317165764</v>
       </c>
       <c r="D19">
-        <v>1.041328192308506</v>
+        <v>1.065018525935803</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684967</v>
+        <v>0.9897880325774039</v>
       </c>
       <c r="F19">
-        <v>1.041648939080225</v>
+        <v>1.073380198337393</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060789974271859</v>
+        <v>1.055222873322578</v>
       </c>
       <c r="J19">
-        <v>1.051481513233684</v>
+        <v>1.068525756631092</v>
       </c>
       <c r="K19">
-        <v>1.054408812864616</v>
+        <v>1.068231784175447</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816592</v>
+        <v>0.993264023964098</v>
       </c>
       <c r="M19">
-        <v>1.054724599070233</v>
+        <v>1.076566746055707</v>
       </c>
       <c r="N19">
-        <v>1.052974737589091</v>
+        <v>1.070043185767125</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C20">
-        <v>1.022935941681587</v>
+        <v>1.062176864569555</v>
       </c>
       <c r="D20">
-        <v>1.039297204036923</v>
+        <v>1.064660611899953</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9894336180360677</v>
       </c>
       <c r="F20">
-        <v>1.039317881967674</v>
+        <v>1.072954487299935</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059668652096208</v>
+        <v>1.055061535466545</v>
       </c>
       <c r="J20">
-        <v>1.049610480056361</v>
+        <v>1.068201760068174</v>
       </c>
       <c r="K20">
-        <v>1.052682547296768</v>
+        <v>1.067936985751164</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9929783193494215</v>
       </c>
       <c r="M20">
-        <v>1.052702896026027</v>
+        <v>1.076203804445014</v>
       </c>
       <c r="N20">
-        <v>1.051101047330045</v>
+        <v>1.069718729091925</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C21">
-        <v>1.014445287519169</v>
+        <v>1.060733604116985</v>
       </c>
       <c r="D21">
-        <v>1.032516143204965</v>
+        <v>1.063495513793394</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148894</v>
+        <v>0.9882828385668249</v>
       </c>
       <c r="F21">
-        <v>1.031539689158936</v>
+        <v>1.071569483558035</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055905486071842</v>
+        <v>1.054534368732302</v>
       </c>
       <c r="J21">
-        <v>1.043351230830576</v>
+        <v>1.067146171499033</v>
       </c>
       <c r="K21">
-        <v>1.04690660655683</v>
+        <v>1.066976242662275</v>
       </c>
       <c r="L21">
-        <v>0.9488714019981064</v>
+        <v>0.9920501090198102</v>
       </c>
       <c r="M21">
-        <v>1.045947194684313</v>
+        <v>1.07502208844988</v>
       </c>
       <c r="N21">
-        <v>1.044832909252415</v>
+        <v>1.068661641465938</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C22">
-        <v>1.008917296278499</v>
+        <v>1.059824955129217</v>
       </c>
       <c r="D22">
-        <v>1.028106302461229</v>
+        <v>1.062761816527222</v>
       </c>
       <c r="E22">
-        <v>0.928897295365116</v>
+        <v>0.9875604150241495</v>
       </c>
       <c r="F22">
-        <v>1.026484908297997</v>
+        <v>1.070697909918567</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053443286939584</v>
+        <v>1.054200883525624</v>
       </c>
       <c r="J22">
-        <v>1.039271029210284</v>
+        <v>1.066480743960525</v>
       </c>
       <c r="K22">
-        <v>1.04314080011728</v>
+        <v>1.066370388191296</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572515</v>
+        <v>0.9914670000341481</v>
       </c>
       <c r="M22">
-        <v>1.041549340116861</v>
+        <v>1.074277732149916</v>
       </c>
       <c r="N22">
-        <v>1.040746913277816</v>
+        <v>1.067995268944</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C23">
-        <v>1.01186666715622</v>
+        <v>1.060306763722035</v>
       </c>
       <c r="D23">
-        <v>1.030458581262208</v>
+        <v>1.063150873712882</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963315</v>
+        <v>0.9879432794636464</v>
       </c>
       <c r="F23">
-        <v>1.029180888803973</v>
+        <v>1.071160021493776</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.05475806782183</v>
+        <v>1.054377863819817</v>
       </c>
       <c r="J23">
-        <v>1.041448400011194</v>
+        <v>1.066833665432551</v>
       </c>
       <c r="K23">
-        <v>1.045150450661267</v>
+        <v>1.066691734438255</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285319</v>
+        <v>0.9917760702887611</v>
       </c>
       <c r="M23">
-        <v>1.043895657824039</v>
+        <v>1.074672459969699</v>
       </c>
       <c r="N23">
-        <v>1.042927376195012</v>
+        <v>1.068348691604996</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C24">
-        <v>1.023075267895112</v>
+        <v>1.062201040782423</v>
       </c>
       <c r="D24">
-        <v>1.039408551473272</v>
+        <v>1.064680125590045</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011829</v>
+        <v>0.9894529299347244</v>
       </c>
       <c r="F24">
-        <v>1.039445662554494</v>
+        <v>1.072977694342971</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059730199165357</v>
+        <v>1.055070339135969</v>
       </c>
       <c r="J24">
-        <v>1.049713102874726</v>
+        <v>1.06821942794517</v>
       </c>
       <c r="K24">
-        <v>1.05277723378035</v>
+        <v>1.067953062489319</v>
       </c>
       <c r="L24">
-        <v>0.9533716596442545</v>
+        <v>0.9929938892766441</v>
       </c>
       <c r="M24">
-        <v>1.052813754964416</v>
+        <v>1.076223593187877</v>
       </c>
       <c r="N24">
-        <v>1.051203815884584</v>
+        <v>1.069736422059333</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.05</v>
+        <v>1.02</v>
       </c>
       <c r="C25">
-        <v>1.03533960762311</v>
+        <v>1.064394109625145</v>
       </c>
       <c r="D25">
-        <v>1.049218596156506</v>
+        <v>1.066449814176102</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718012</v>
+        <v>0.9912096547607051</v>
       </c>
       <c r="F25">
-        <v>1.050712214249763</v>
+        <v>1.075083784807246</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.065118797578838</v>
+        <v>1.055865121437749</v>
       </c>
       <c r="J25">
-        <v>1.058733499599276</v>
+        <v>1.069820072821605</v>
       </c>
       <c r="K25">
-        <v>1.06109805013269</v>
+        <v>1.069409035940159</v>
       </c>
       <c r="L25">
-        <v>0.9598754494005829</v>
+        <v>0.9944092447426416</v>
       </c>
       <c r="M25">
-        <v>1.062571179839448</v>
+        <v>1.078017767004798</v>
       </c>
       <c r="N25">
-        <v>1.060237022607137</v>
+        <v>1.071339340035089</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
@@ -418,40 +418,40 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.02</v>
+        <v>1.050000000000001</v>
       </c>
       <c r="C2">
-        <v>1.066139318179095</v>
+        <v>1.044601349579914</v>
       </c>
       <c r="D2">
-        <v>1.067857451690567</v>
+        <v>1.056636878104281</v>
       </c>
       <c r="E2">
-        <v>0.992614727750844</v>
+        <v>0.9527101846680758</v>
       </c>
       <c r="F2">
-        <v>1.076761132788726</v>
+        <v>1.059245033149641</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.05649201043406</v>
+        <v>1.069144771267117</v>
       </c>
       <c r="J2">
-        <v>1.071090847343355</v>
+        <v>1.065525228707202</v>
       </c>
       <c r="K2">
-        <v>1.070564189899962</v>
+        <v>1.067359777420219</v>
       </c>
       <c r="L2">
-        <v>0.9955398523335997</v>
+        <v>0.964870170840339</v>
       </c>
       <c r="M2">
-        <v>1.079444214072221</v>
+        <v>1.069936375723302</v>
       </c>
       <c r="N2">
-        <v>1.072611919202419</v>
+        <v>1.067038396749418</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -459,40 +459,40 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.067404269981731</v>
+        <v>1.05105792499427</v>
       </c>
       <c r="D3">
-        <v>1.068877336879326</v>
+        <v>1.061812512395709</v>
       </c>
       <c r="E3">
-        <v>0.9936372048519299</v>
+        <v>0.9571825583057846</v>
       </c>
       <c r="F3">
-        <v>1.077977673300468</v>
+        <v>1.065206259607816</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.056943145109938</v>
+        <v>1.071925410898185</v>
       </c>
       <c r="J3">
-        <v>1.072010181804702</v>
+        <v>1.070247265111469</v>
       </c>
       <c r="K3">
-        <v>1.07139943376161</v>
+        <v>1.071711167496189</v>
       </c>
       <c r="L3">
-        <v>0.9963617723202687</v>
+        <v>0.9683942856474063</v>
       </c>
       <c r="M3">
-        <v>1.080477344915502</v>
+        <v>1.075067635830731</v>
       </c>
       <c r="N3">
-        <v>1.073532559224151</v>
+        <v>1.071767138987005</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -500,40 +500,40 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.068221776081627</v>
+        <v>1.055121367487998</v>
       </c>
       <c r="D4">
-        <v>1.069536277956044</v>
+        <v>1.065071260494246</v>
       </c>
       <c r="E4">
-        <v>0.9942998659930998</v>
+        <v>0.9600238894088611</v>
       </c>
       <c r="F4">
-        <v>1.078764247416554</v>
+        <v>1.068963467098873</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.057233199754469</v>
+        <v>1.073663114794789</v>
       </c>
       <c r="J4">
-        <v>1.072603516855246</v>
+        <v>1.073212949614468</v>
       </c>
       <c r="K4">
-        <v>1.071938289960432</v>
+        <v>1.074442988121467</v>
       </c>
       <c r="L4">
-        <v>0.9968940712668347</v>
+        <v>0.9706300002952755</v>
       </c>
       <c r="M4">
-        <v>1.081144668170764</v>
+        <v>1.078295149683475</v>
       </c>
       <c r="N4">
-        <v>1.074126736878523</v>
+        <v>1.074737035102167</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -541,40 +541,40 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.0685652192807</v>
+        <v>1.056803579852979</v>
       </c>
       <c r="D5">
-        <v>1.069813061425091</v>
+        <v>1.066420626833545</v>
       </c>
       <c r="E5">
-        <v>0.994578699834602</v>
+        <v>0.9612062874769892</v>
       </c>
       <c r="F5">
-        <v>1.079094780219495</v>
+        <v>1.070520169459349</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.057354694950235</v>
+        <v>1.074379510893268</v>
       </c>
       <c r="J5">
-        <v>1.072852589760375</v>
+        <v>1.07443919397345</v>
       </c>
       <c r="K5">
-        <v>1.072164443751108</v>
+        <v>1.075572264484689</v>
       </c>
       <c r="L5">
-        <v>0.9971179600053012</v>
+        <v>0.9715596031702914</v>
       </c>
       <c r="M5">
-        <v>1.081424930617541</v>
+        <v>1.079630805218167</v>
       </c>
       <c r="N5">
-        <v>1.074376163495747</v>
+        <v>1.07596502086879</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -582,40 +582,40 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.068622871148538</v>
+        <v>1.057084539415999</v>
       </c>
       <c r="D6">
-        <v>1.069859520853329</v>
+        <v>1.066646010222142</v>
       </c>
       <c r="E6">
-        <v>0.994625531979634</v>
+        <v>0.9614041218017083</v>
       </c>
       <c r="F6">
-        <v>1.079150269830519</v>
+        <v>1.070780239589689</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.057375068546347</v>
+        <v>1.074498984790065</v>
       </c>
       <c r="J6">
-        <v>1.072894388857847</v>
+        <v>1.074643908751011</v>
       </c>
       <c r="K6">
-        <v>1.072202393670645</v>
+        <v>1.075760774745796</v>
       </c>
       <c r="L6">
-        <v>0.9971555583673455</v>
+        <v>0.9717150950965043</v>
       </c>
       <c r="M6">
-        <v>1.081471971556979</v>
+        <v>1.079853853144784</v>
       </c>
       <c r="N6">
-        <v>1.074418021952732</v>
+        <v>1.076170026364817</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -623,40 +623,40 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.068226366110747</v>
+        <v>1.055143946000863</v>
       </c>
       <c r="D7">
-        <v>1.06953997727221</v>
+        <v>1.065089370522992</v>
       </c>
       <c r="E7">
-        <v>0.994303590798249</v>
+        <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.078768664570239</v>
+        <v>1.068984356083803</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.057234824921188</v>
+        <v>1.073672742089231</v>
       </c>
       <c r="J7">
-        <v>1.072606846411243</v>
+        <v>1.073229414190994</v>
       </c>
       <c r="K7">
-        <v>1.071941313334095</v>
+        <v>1.07445815181084</v>
       </c>
       <c r="L7">
-        <v>0.9968970624462089</v>
+        <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.08114841414925</v>
+        <v>1.078313078756764</v>
       </c>
       <c r="N7">
-        <v>1.074130071162872</v>
+        <v>1.07475352306028</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -664,40 +664,40 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.066567024259258</v>
+        <v>1.046807895773354</v>
       </c>
       <c r="D8">
-        <v>1.068202333643187</v>
+        <v>1.058405310719347</v>
       </c>
       <c r="E8">
-        <v>0.9929600610674297</v>
+        <v>0.9542328392922295</v>
       </c>
       <c r="F8">
-        <v>1.077172396140735</v>
+        <v>1.06128109608799</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.056644859426179</v>
+        <v>1.070097623541277</v>
       </c>
       <c r="J8">
-        <v>1.071401860255377</v>
+        <v>1.067140258706747</v>
       </c>
       <c r="K8">
-        <v>1.070846797636392</v>
+        <v>1.068848259310584</v>
       </c>
       <c r="L8">
-        <v>0.9958175282591056</v>
+        <v>0.9660706434537708</v>
       </c>
       <c r="M8">
-        <v>1.079793611679747</v>
+        <v>1.071690348806858</v>
       </c>
       <c r="N8">
-        <v>1.07292337378845</v>
+        <v>1.068655720276809</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -705,40 +705,40 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.063635214335322</v>
+        <v>1.031177451874961</v>
       </c>
       <c r="D9">
-        <v>1.065837525861173</v>
+        <v>1.045887535241799</v>
       </c>
       <c r="E9">
-        <v>0.9906006454969559</v>
+        <v>0.9435740419925935</v>
       </c>
       <c r="F9">
-        <v>1.074354776286639</v>
+        <v>1.046884555483916</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.055590957755106</v>
+        <v>1.063296839958374</v>
       </c>
       <c r="J9">
-        <v>1.069266644406517</v>
+        <v>1.055675332518946</v>
       </c>
       <c r="K9">
-        <v>1.068905746302002</v>
+        <v>1.058277541768458</v>
       </c>
       <c r="L9">
-        <v>0.9939188001724441</v>
+        <v>0.9576541208834084</v>
       </c>
       <c r="M9">
-        <v>1.07739711091143</v>
+        <v>1.059260153188592</v>
       </c>
       <c r="N9">
-        <v>1.070785125688172</v>
+        <v>1.057174512578776</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -746,40 +746,40 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.061675177355689</v>
+        <v>1.020023521853365</v>
       </c>
       <c r="D10">
-        <v>1.064255655378965</v>
+        <v>1.036970179491802</v>
       </c>
       <c r="E10">
-        <v>0.989033133672735</v>
+        <v>0.9361465105547281</v>
       </c>
       <c r="F10">
-        <v>1.072472961640151</v>
+        <v>1.036647883604403</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.054878646013741</v>
+        <v>1.058380539403245</v>
       </c>
       <c r="J10">
-        <v>1.067835021107607</v>
+        <v>1.047464617205157</v>
       </c>
       <c r="K10">
-        <v>1.067603247158138</v>
+        <v>1.050702537357358</v>
       </c>
       <c r="L10">
-        <v>0.9926553831429383</v>
+        <v>0.9517730114689357</v>
       </c>
       <c r="M10">
-        <v>1.075793115426424</v>
+        <v>1.050385541266105</v>
       </c>
       <c r="N10">
-        <v>1.069351469319969</v>
+        <v>1.048952137107459</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -787,40 +787,40 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.060825104586827</v>
+        <v>1.014993946881971</v>
       </c>
       <c r="D11">
-        <v>1.063569389425585</v>
+        <v>1.032954050586868</v>
       </c>
       <c r="E11">
-        <v>0.988355674866747</v>
+        <v>0.9328454960016256</v>
       </c>
       <c r="F11">
-        <v>1.071657267479959</v>
+        <v>1.032041783732763</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.054567883162799</v>
+        <v>1.056149364629102</v>
       </c>
       <c r="J11">
-        <v>1.067213143767433</v>
+        <v>1.043755994849806</v>
       </c>
       <c r="K11">
-        <v>1.067037210040499</v>
+        <v>1.047280156855093</v>
       </c>
       <c r="L11">
-        <v>0.9921088820399291</v>
+        <v>0.9491556125416571</v>
       </c>
       <c r="M11">
-        <v>1.075097029087997</v>
+        <v>1.046383720994686</v>
       </c>
       <c r="N11">
-        <v>1.068728708842641</v>
+        <v>1.045238248082979</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -828,40 +828,40 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.060509140296651</v>
+        <v>1.01309322210824</v>
       </c>
       <c r="D12">
-        <v>1.063314280524437</v>
+        <v>1.03143717602708</v>
       </c>
       <c r="E12">
-        <v>0.9881042295826724</v>
+        <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.071354150125639</v>
+        <v>1.030302683555977</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.054452100510475</v>
+        <v>1.055304101445473</v>
       </c>
       <c r="J12">
-        <v>1.066981850871436</v>
+        <v>1.042353607396367</v>
       </c>
       <c r="K12">
-        <v>1.066826648282805</v>
+        <v>1.045985895098326</v>
       </c>
       <c r="L12">
-        <v>0.9919059725120875</v>
+        <v>0.9481721277252506</v>
       </c>
       <c r="M12">
-        <v>1.074838236067017</v>
+        <v>1.044871482091057</v>
       </c>
       <c r="N12">
-        <v>1.068497087484202</v>
+        <v>1.0438338690785</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -869,40 +869,40 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.060576925258641</v>
+        <v>1.013502448569452</v>
       </c>
       <c r="D13">
-        <v>1.063369011311251</v>
+        <v>1.031763718625347</v>
       </c>
       <c r="E13">
-        <v>0.9881581567098651</v>
+        <v>0.9318723593368229</v>
       </c>
       <c r="F13">
-        <v>1.07141917586887</v>
+        <v>1.030677038622187</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.054476952218225</v>
+        <v>1.055486179586837</v>
       </c>
       <c r="J13">
-        <v>1.067031477608935</v>
+        <v>1.042655579504591</v>
       </c>
       <c r="K13">
-        <v>1.066871828586547</v>
+        <v>1.046264589632172</v>
       </c>
       <c r="L13">
-        <v>0.9919494934313052</v>
+        <v>0.9483836088965214</v>
       </c>
       <c r="M13">
-        <v>1.074893758761934</v>
+        <v>1.045197061903903</v>
       </c>
       <c r="N13">
-        <v>1.068546784697361</v>
+        <v>1.044136270021754</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -910,40 +910,40 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.06079899117822</v>
+        <v>1.014837511119954</v>
       </c>
       <c r="D14">
-        <v>1.063548306124768</v>
+        <v>1.032829188771761</v>
       </c>
       <c r="E14">
-        <v>0.9883348863814464</v>
+        <v>0.9327433047194318</v>
       </c>
       <c r="F14">
-        <v>1.071632214423239</v>
+        <v>1.03189861729455</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.05455831971379</v>
+        <v>1.056079838559269</v>
       </c>
       <c r="J14">
-        <v>1.067194031162451</v>
+        <v>1.043640590942511</v>
       </c>
       <c r="K14">
-        <v>1.067019811288319</v>
+        <v>1.047173652922619</v>
       </c>
       <c r="L14">
-        <v>0.9920921077337197</v>
+        <v>0.949074550976452</v>
       </c>
       <c r="M14">
-        <v>1.075075642000898</v>
+        <v>1.046259256521198</v>
       </c>
       <c r="N14">
-        <v>1.068709569095569</v>
+        <v>1.045122680288898</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -951,40 +951,40 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.060935785435494</v>
+        <v>1.015655699139963</v>
       </c>
       <c r="D15">
-        <v>1.063658749094279</v>
+        <v>1.033482274881217</v>
       </c>
       <c r="E15">
-        <v>0.9884438009545853</v>
+        <v>0.933278105071747</v>
       </c>
       <c r="F15">
-        <v>1.071763456878105</v>
+        <v>1.032647469591365</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.054608406281202</v>
+        <v>1.056443388580566</v>
       </c>
       <c r="J15">
-        <v>1.067294145926511</v>
+        <v>1.044244140081482</v>
       </c>
       <c r="K15">
-        <v>1.067110947100307</v>
+        <v>1.047730651688264</v>
       </c>
       <c r="L15">
-        <v>0.9921799884222134</v>
+        <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.075187674953024</v>
+        <v>1.046910232918558</v>
       </c>
       <c r="N15">
-        <v>1.068809826034076</v>
+        <v>1.045727086536875</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -992,40 +992,40 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.061731564766624</v>
+        <v>1.02035290118685</v>
       </c>
       <c r="D16">
-        <v>1.064301172825427</v>
+        <v>1.037233301581894</v>
       </c>
       <c r="E16">
-        <v>0.9890781214508737</v>
+        <v>0.9363637346017261</v>
       </c>
       <c r="F16">
-        <v>1.072527078231646</v>
+        <v>1.036949743398572</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.054899221131218</v>
+        <v>1.058526364896915</v>
       </c>
       <c r="J16">
-        <v>1.067876251171274</v>
+        <v>1.047707366298053</v>
       </c>
       <c r="K16">
-        <v>1.06764076981322</v>
+        <v>1.050926533482456</v>
       </c>
       <c r="L16">
-        <v>0.9926916645766087</v>
+        <v>0.9519451749175718</v>
       </c>
       <c r="M16">
-        <v>1.075839279533515</v>
+        <v>1.050647621276569</v>
       </c>
       <c r="N16">
-        <v>1.069392757935055</v>
+        <v>1.049195230931911</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1033,40 +1033,40 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.062230367801363</v>
+        <v>1.023244152877668</v>
       </c>
       <c r="D17">
-        <v>1.064703796587819</v>
+        <v>1.039543524943989</v>
       </c>
       <c r="E17">
-        <v>0.9894763578477731</v>
+        <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.073005846006348</v>
+        <v>1.039600558755739</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.055081017242803</v>
+        <v>1.059804794469953</v>
       </c>
       <c r="J17">
-        <v>1.068240859364526</v>
+        <v>1.049837493585106</v>
       </c>
       <c r="K17">
-        <v>1.067972563667151</v>
+        <v>1.052892004143843</v>
       </c>
       <c r="L17">
-        <v>0.9930127773692701</v>
+        <v>0.9534603602068055</v>
       </c>
       <c r="M17">
-        <v>1.07624759769115</v>
+        <v>1.052948133104473</v>
       </c>
       <c r="N17">
-        <v>1.069757883913763</v>
+        <v>1.051328383244041</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1074,40 +1074,40 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.062521179890472</v>
+        <v>1.024911470835668</v>
       </c>
       <c r="D18">
-        <v>1.0649385144513</v>
+        <v>1.040876232351495</v>
       </c>
       <c r="E18">
-        <v>0.9897087662937551</v>
+        <v>0.9393832867215683</v>
       </c>
       <c r="F18">
-        <v>1.073285020804198</v>
+        <v>1.041130143709211</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.055186831427946</v>
+        <v>1.060540684350899</v>
       </c>
       <c r="J18">
-        <v>1.068453338816304</v>
+        <v>1.051065298744218</v>
       </c>
       <c r="K18">
-        <v>1.068165896160329</v>
+        <v>1.054024815500599</v>
       </c>
       <c r="L18">
-        <v>0.9932001317071766</v>
+        <v>0.9543373515865726</v>
       </c>
       <c r="M18">
-        <v>1.076485613853039</v>
+        <v>1.054274774295274</v>
       </c>
       <c r="N18">
-        <v>1.069970665110734</v>
+        <v>1.05255793202731</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1115,40 +1115,40 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.062620317165764</v>
+        <v>1.025476814642226</v>
       </c>
       <c r="D19">
-        <v>1.065018525935803</v>
+        <v>1.041328192308506</v>
       </c>
       <c r="E19">
-        <v>0.9897880325774039</v>
+        <v>0.9397594814684969</v>
       </c>
       <c r="F19">
-        <v>1.073380198337393</v>
+        <v>1.041648939080225</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.055222873322578</v>
+        <v>1.060789974271858</v>
       </c>
       <c r="J19">
-        <v>1.068525756631092</v>
+        <v>1.051481513233684</v>
       </c>
       <c r="K19">
-        <v>1.068231784175447</v>
+        <v>1.054408812864616</v>
       </c>
       <c r="L19">
-        <v>0.993264023964098</v>
+        <v>0.9546352493816593</v>
       </c>
       <c r="M19">
-        <v>1.076566746055707</v>
+        <v>1.054724599070233</v>
       </c>
       <c r="N19">
-        <v>1.070043185767125</v>
+        <v>1.052974737589091</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1156,40 +1156,40 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.062176864569555</v>
+        <v>1.022935941681586</v>
       </c>
       <c r="D20">
-        <v>1.064660611899953</v>
+        <v>1.039297204036921</v>
       </c>
       <c r="E20">
-        <v>0.9894336180360677</v>
+        <v>0.938071692466014</v>
       </c>
       <c r="F20">
-        <v>1.072954487299935</v>
+        <v>1.039317881967672</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.055061535466545</v>
+        <v>1.059668652096207</v>
       </c>
       <c r="J20">
-        <v>1.068201760068174</v>
+        <v>1.049610480056359</v>
       </c>
       <c r="K20">
-        <v>1.067936985751164</v>
+        <v>1.052682547296767</v>
       </c>
       <c r="L20">
-        <v>0.9929783193494215</v>
+        <v>0.9532985019057444</v>
       </c>
       <c r="M20">
-        <v>1.076203804445014</v>
+        <v>1.052702896026026</v>
       </c>
       <c r="N20">
-        <v>1.069718729091925</v>
+        <v>1.051101047330044</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1197,40 +1197,40 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.060733604116985</v>
+        <v>1.014445287519172</v>
       </c>
       <c r="D21">
-        <v>1.063495513793394</v>
+        <v>1.032516143204968</v>
       </c>
       <c r="E21">
-        <v>0.9882828385668249</v>
+        <v>0.9324872132148896</v>
       </c>
       <c r="F21">
-        <v>1.071569483558035</v>
+        <v>1.031539689158939</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.054534368732302</v>
+        <v>1.055905486071844</v>
       </c>
       <c r="J21">
-        <v>1.067146171499033</v>
+        <v>1.04335123083058</v>
       </c>
       <c r="K21">
-        <v>1.066976242662275</v>
+        <v>1.046906606556832</v>
       </c>
       <c r="L21">
-        <v>0.9920501090198102</v>
+        <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.07502208844988</v>
+        <v>1.045947194684316</v>
       </c>
       <c r="N21">
-        <v>1.068661641465938</v>
+        <v>1.044832909252418</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1238,40 +1238,40 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.059824955129217</v>
+        <v>1.008917296278498</v>
       </c>
       <c r="D22">
-        <v>1.062761816527222</v>
+        <v>1.028106302461229</v>
       </c>
       <c r="E22">
-        <v>0.9875604150241495</v>
+        <v>0.9288972953651162</v>
       </c>
       <c r="F22">
-        <v>1.070697909918567</v>
+        <v>1.026484908297996</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.054200883525624</v>
+        <v>1.053443286939584</v>
       </c>
       <c r="J22">
-        <v>1.066480743960525</v>
+        <v>1.039271029210284</v>
       </c>
       <c r="K22">
-        <v>1.066370388191296</v>
+        <v>1.04314080011728</v>
       </c>
       <c r="L22">
-        <v>0.9914670000341481</v>
+        <v>0.9460223821572518</v>
       </c>
       <c r="M22">
-        <v>1.074277732149916</v>
+        <v>1.04154934011686</v>
       </c>
       <c r="N22">
-        <v>1.067995268944</v>
+        <v>1.040746913277816</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1279,40 +1279,40 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.060306763722035</v>
+        <v>1.011866667156218</v>
       </c>
       <c r="D23">
-        <v>1.063150873712882</v>
+        <v>1.030458581262205</v>
       </c>
       <c r="E23">
-        <v>0.9879432794636464</v>
+        <v>0.9308081199963311</v>
       </c>
       <c r="F23">
-        <v>1.071160021493776</v>
+        <v>1.029180888803971</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054377863819817</v>
+        <v>1.054758067821828</v>
       </c>
       <c r="J23">
-        <v>1.066833665432551</v>
+        <v>1.041448400011192</v>
       </c>
       <c r="K23">
-        <v>1.066691734438255</v>
+        <v>1.045150450661265</v>
       </c>
       <c r="L23">
-        <v>0.9917760702887611</v>
+        <v>0.9475391330285314</v>
       </c>
       <c r="M23">
-        <v>1.074672459969699</v>
+        <v>1.043895657824036</v>
       </c>
       <c r="N23">
-        <v>1.068348691604996</v>
+        <v>1.042927376195009</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1320,40 +1320,40 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.062201040782423</v>
+        <v>1.023075267895112</v>
       </c>
       <c r="D24">
-        <v>1.064680125590045</v>
+        <v>1.039408551473271</v>
       </c>
       <c r="E24">
-        <v>0.9894529299347244</v>
+        <v>0.9381640424011821</v>
       </c>
       <c r="F24">
-        <v>1.072977694342971</v>
+        <v>1.039445662554493</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.055070339135969</v>
+        <v>1.059730199165356</v>
       </c>
       <c r="J24">
-        <v>1.06821942794517</v>
+        <v>1.049713102874726</v>
       </c>
       <c r="K24">
-        <v>1.067953062489319</v>
+        <v>1.05277723378035</v>
       </c>
       <c r="L24">
-        <v>0.9929938892766441</v>
+        <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.076223593187877</v>
+        <v>1.052813754964415</v>
       </c>
       <c r="N24">
-        <v>1.069736422059333</v>
+        <v>1.051203815884584</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1361,40 +1361,40 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>1.02</v>
+        <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.064394109625145</v>
+        <v>1.035339607623108</v>
       </c>
       <c r="D25">
-        <v>1.066449814176102</v>
+        <v>1.049218596156504</v>
       </c>
       <c r="E25">
-        <v>0.9912096547607051</v>
+        <v>0.9463835801718014</v>
       </c>
       <c r="F25">
-        <v>1.075083784807246</v>
+        <v>1.05071221424976</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.055865121437749</v>
+        <v>1.065118797578837</v>
       </c>
       <c r="J25">
-        <v>1.069820072821605</v>
+        <v>1.058733499599274</v>
       </c>
       <c r="K25">
-        <v>1.069409035940159</v>
+        <v>1.061098050132688</v>
       </c>
       <c r="L25">
-        <v>0.9944092447426416</v>
+        <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.078017767004798</v>
+        <v>1.062571179839446</v>
       </c>
       <c r="N25">
-        <v>1.071339340035089</v>
+        <v>1.060237022607135</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:N25"/>
+  <dimension ref="A1:R25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:14">
+    <row r="1" spans="1:18">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -412,49 +412,73 @@
       <c r="N1" s="1">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:14">
+      <c r="O1" s="1">
+        <v>13</v>
+      </c>
+      <c r="P1" s="1">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1">
+        <v>15</v>
+      </c>
+      <c r="R1" s="1">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18">
       <c r="A2" s="1">
         <v>0</v>
       </c>
       <c r="B2">
-        <v>1.050000000000001</v>
+        <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.044601349579914</v>
+        <v>1.009375879338362</v>
       </c>
       <c r="D2">
-        <v>1.056636878104281</v>
+        <v>1.027666373093522</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680758</v>
+        <v>0.9527101846680761</v>
       </c>
       <c r="F2">
-        <v>1.059245033149641</v>
+        <v>1.029717332840116</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
       <c r="I2">
-        <v>1.069144771267117</v>
+        <v>1.050183439953453</v>
       </c>
       <c r="J2">
-        <v>1.065525228707202</v>
+        <v>1.031279730704792</v>
       </c>
       <c r="K2">
-        <v>1.067359777420219</v>
+        <v>1.038753271113001</v>
       </c>
       <c r="L2">
-        <v>0.964870170840339</v>
+        <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.069936375723302</v>
+        <v>1.040777618864338</v>
       </c>
       <c r="N2">
-        <v>1.067038396749418</v>
-      </c>
-    </row>
-    <row r="3" spans="1:14">
+        <v>1.014411809252046</v>
+      </c>
+      <c r="O2">
+        <v>1.03</v>
+      </c>
+      <c r="P2">
+        <v>1.040845140510636</v>
+      </c>
+      <c r="Q2">
+        <v>1.02</v>
+      </c>
+      <c r="R2">
+        <v>1.038472192645187</v>
+      </c>
+    </row>
+    <row r="3" spans="1:18">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -462,40 +486,52 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.05105792499427</v>
+        <v>1.012453311581772</v>
       </c>
       <c r="D3">
-        <v>1.061812512395709</v>
+        <v>1.029668788170855</v>
       </c>
       <c r="E3">
-        <v>0.9571825583057846</v>
+        <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.065206259607816</v>
+        <v>1.032174768098593</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
       <c r="I3">
-        <v>1.071925410898185</v>
+        <v>1.050917846950044</v>
       </c>
       <c r="J3">
-        <v>1.070247265111469</v>
+        <v>1.032610149308073</v>
       </c>
       <c r="K3">
-        <v>1.071711167496189</v>
+        <v>1.039935619207052</v>
       </c>
       <c r="L3">
-        <v>0.9683942856474063</v>
+        <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.075067635830731</v>
+        <v>1.042411874991292</v>
       </c>
       <c r="N3">
-        <v>1.071767138987005</v>
-      </c>
-    </row>
-    <row r="4" spans="1:14">
+        <v>1.014852778372946</v>
+      </c>
+      <c r="O3">
+        <v>1.03</v>
+      </c>
+      <c r="P3">
+        <v>1.042138542885329</v>
+      </c>
+      <c r="Q3">
+        <v>1.02</v>
+      </c>
+      <c r="R3">
+        <v>1.039305548371592</v>
+      </c>
+    </row>
+    <row r="4" spans="1:18">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -503,40 +539,52 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.055121367487998</v>
+        <v>1.014411891209815</v>
       </c>
       <c r="D4">
-        <v>1.065071260494246</v>
+        <v>1.030946410693746</v>
       </c>
       <c r="E4">
-        <v>0.9600238894088611</v>
+        <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.068963467098873</v>
+        <v>1.033744992049904</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
       <c r="I4">
-        <v>1.073663114794789</v>
+        <v>1.051375982671342</v>
       </c>
       <c r="J4">
-        <v>1.073212949614468</v>
+        <v>1.033453988327062</v>
       </c>
       <c r="K4">
-        <v>1.074442988121467</v>
+        <v>1.040685153131607</v>
       </c>
       <c r="L4">
-        <v>0.9706300002952755</v>
+        <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.078295149683475</v>
+        <v>1.04345251406284</v>
       </c>
       <c r="N4">
-        <v>1.074737035102167</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14">
+        <v>1.015132583219028</v>
+      </c>
+      <c r="O4">
+        <v>1.03</v>
+      </c>
+      <c r="P4">
+        <v>1.042962136603731</v>
+      </c>
+      <c r="Q4">
+        <v>1.02</v>
+      </c>
+      <c r="R4">
+        <v>1.039836427980163</v>
+      </c>
+    </row>
+    <row r="5" spans="1:18">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -544,40 +592,52 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.056803579852979</v>
+        <v>1.015230162795512</v>
       </c>
       <c r="D5">
-        <v>1.066420626833545</v>
+        <v>1.031483004191359</v>
       </c>
       <c r="E5">
-        <v>0.9612062874769892</v>
+        <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.070520169459349</v>
+        <v>1.03440167772954</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
       <c r="I5">
-        <v>1.074379510893268</v>
+        <v>1.051566534253882</v>
       </c>
       <c r="J5">
-        <v>1.07443919397345</v>
+        <v>1.033807203741028</v>
       </c>
       <c r="K5">
-        <v>1.075572264484689</v>
+        <v>1.041000285954288</v>
       </c>
       <c r="L5">
-        <v>0.9715596031702914</v>
+        <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.079630805218167</v>
+        <v>1.043887254647867</v>
       </c>
       <c r="N5">
-        <v>1.07596502086879</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14">
+        <v>1.015249980149833</v>
+      </c>
+      <c r="O5">
+        <v>1.03</v>
+      </c>
+      <c r="P5">
+        <v>1.043306203376891</v>
+      </c>
+      <c r="Q5">
+        <v>1.02</v>
+      </c>
+      <c r="R5">
+        <v>1.040066422688709</v>
+      </c>
+    </row>
+    <row r="6" spans="1:18">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -585,40 +645,52 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.057084539415999</v>
+        <v>1.015370187923142</v>
       </c>
       <c r="D6">
-        <v>1.066646010222142</v>
+        <v>1.03157738315584</v>
       </c>
       <c r="E6">
-        <v>0.9614041218017083</v>
+        <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.070780239589689</v>
+        <v>1.034513156598479</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
       <c r="I6">
-        <v>1.074498984790065</v>
+        <v>1.051600716612754</v>
       </c>
       <c r="J6">
-        <v>1.074643908751011</v>
+        <v>1.0338692813405</v>
       </c>
       <c r="K6">
-        <v>1.075760774745796</v>
+        <v>1.041057465635888</v>
       </c>
       <c r="L6">
-        <v>0.9717150950965043</v>
+        <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.079853853144784</v>
+        <v>1.043961492545744</v>
       </c>
       <c r="N6">
-        <v>1.076170026364817</v>
-      </c>
-    </row>
-    <row r="7" spans="1:14">
+        <v>1.015270915738649</v>
+      </c>
+      <c r="O6">
+        <v>1.03</v>
+      </c>
+      <c r="P6">
+        <v>1.043364957465608</v>
+      </c>
+      <c r="Q6">
+        <v>1.02</v>
+      </c>
+      <c r="R6">
+        <v>1.040115597046946</v>
+      </c>
+    </row>
+    <row r="7" spans="1:18">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -626,40 +698,52 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.055143946000863</v>
+        <v>1.014431094484718</v>
       </c>
       <c r="D7">
-        <v>1.065089370522992</v>
+        <v>1.030965707031736</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.068984356083803</v>
+        <v>1.033757768345818</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
       <c r="I7">
-        <v>1.073672742089231</v>
+        <v>1.05138502240349</v>
       </c>
       <c r="J7">
-        <v>1.073229414190994</v>
+        <v>1.033466760612049</v>
       </c>
       <c r="K7">
-        <v>1.07445815181084</v>
+        <v>1.040701352507615</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.078313078756764</v>
+        <v>1.043462277702986</v>
       </c>
       <c r="N7">
-        <v>1.07475352306028</v>
-      </c>
-    </row>
-    <row r="8" spans="1:14">
+        <v>1.015137644815173</v>
+      </c>
+      <c r="O7">
+        <v>1.03</v>
+      </c>
+      <c r="P7">
+        <v>1.042969863843955</v>
+      </c>
+      <c r="Q7">
+        <v>1.02</v>
+      </c>
+      <c r="R7">
+        <v>1.039867991485089</v>
+      </c>
+    </row>
+    <row r="8" spans="1:18">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -667,40 +751,52 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.046807895773354</v>
+        <v>1.010432943975199</v>
       </c>
       <c r="D8">
-        <v>1.058405310719347</v>
+        <v>1.028361715612357</v>
       </c>
       <c r="E8">
-        <v>0.9542328392922295</v>
+        <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.06128109608799</v>
+        <v>1.030556904008994</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
       <c r="I8">
-        <v>1.070097623541277</v>
+        <v>1.050443116217359</v>
       </c>
       <c r="J8">
-        <v>1.067140258706747</v>
+        <v>1.031742777324044</v>
       </c>
       <c r="K8">
-        <v>1.068848259310584</v>
+        <v>1.039170739611241</v>
       </c>
       <c r="L8">
-        <v>0.9660706434537708</v>
+        <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.071690348806858</v>
+        <v>1.041338278898967</v>
       </c>
       <c r="N8">
-        <v>1.068655720276809</v>
-      </c>
-    </row>
-    <row r="9" spans="1:14">
+        <v>1.01456631755213</v>
+      </c>
+      <c r="O8">
+        <v>1.03</v>
+      </c>
+      <c r="P8">
+        <v>1.041288864988211</v>
+      </c>
+      <c r="Q8">
+        <v>1.02</v>
+      </c>
+      <c r="R8">
+        <v>1.03879028262138</v>
+      </c>
+    </row>
+    <row r="9" spans="1:18">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -708,40 +804,52 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.031177451874961</v>
+        <v>1.003115231361851</v>
       </c>
       <c r="D9">
-        <v>1.045887535241799</v>
+        <v>1.023611832605661</v>
       </c>
       <c r="E9">
-        <v>0.9435740419925935</v>
+        <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.046884555483916</v>
+        <v>1.024753101588904</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
       <c r="I9">
-        <v>1.063296839958374</v>
+        <v>1.048640297221577</v>
       </c>
       <c r="J9">
-        <v>1.055675332518946</v>
+        <v>1.02855846035406</v>
       </c>
       <c r="K9">
-        <v>1.058277541768458</v>
+        <v>1.036333097463062</v>
       </c>
       <c r="L9">
-        <v>0.9576541208834084</v>
+        <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.059260153188592</v>
+        <v>1.037456948597424</v>
       </c>
       <c r="N9">
-        <v>1.057174512578776</v>
-      </c>
-    </row>
-    <row r="10" spans="1:14">
+        <v>1.01351057849484</v>
+      </c>
+      <c r="O9">
+        <v>1.03</v>
+      </c>
+      <c r="P9">
+        <v>1.038217049096073</v>
+      </c>
+      <c r="Q9">
+        <v>1.02</v>
+      </c>
+      <c r="R9">
+        <v>1.036780712628498</v>
+      </c>
+    </row>
+    <row r="10" spans="1:18">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -749,40 +857,52 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>1.020023521853365</v>
+        <v>0.9981018465673337</v>
       </c>
       <c r="D10">
-        <v>1.036970179491802</v>
+        <v>1.020387038607661</v>
       </c>
       <c r="E10">
-        <v>0.9361465105547281</v>
+        <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.036647883604403</v>
+        <v>1.020983833642935</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
       <c r="I10">
-        <v>1.058380539403245</v>
+        <v>1.047386738706527</v>
       </c>
       <c r="J10">
-        <v>1.047464617205157</v>
+        <v>1.026390977660202</v>
       </c>
       <c r="K10">
-        <v>1.050702537357358</v>
+        <v>1.034397703106911</v>
       </c>
       <c r="L10">
-        <v>0.9517730114689357</v>
+        <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.050385541266105</v>
+        <v>1.034984279805897</v>
       </c>
       <c r="N10">
-        <v>1.048952137107459</v>
-      </c>
-    </row>
-    <row r="11" spans="1:14">
+        <v>1.012796613845767</v>
+      </c>
+      <c r="O10">
+        <v>1.03</v>
+      </c>
+      <c r="P10">
+        <v>1.03631166259878</v>
+      </c>
+      <c r="Q10">
+        <v>1.02</v>
+      </c>
+      <c r="R10">
+        <v>1.035429083205298</v>
+      </c>
+    </row>
+    <row r="11" spans="1:18">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -790,40 +910,52 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>1.014993946881971</v>
+        <v>0.9962759403010161</v>
       </c>
       <c r="D11">
-        <v>1.032954050586868</v>
+        <v>1.019280954897712</v>
       </c>
       <c r="E11">
-        <v>0.9328454960016256</v>
+        <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.032041783732763</v>
+        <v>1.020979606195125</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
       <c r="I11">
-        <v>1.056149364629102</v>
+        <v>1.047127344077146</v>
       </c>
       <c r="J11">
-        <v>1.043755994849806</v>
+        <v>1.025804469378898</v>
       </c>
       <c r="K11">
-        <v>1.047280156855093</v>
+        <v>1.033848195967995</v>
       </c>
       <c r="L11">
-        <v>0.9491556125416571</v>
+        <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.046383720994686</v>
+        <v>1.035516434114094</v>
       </c>
       <c r="N11">
-        <v>1.045238248082979</v>
-      </c>
-    </row>
-    <row r="12" spans="1:14">
+        <v>1.012634922214167</v>
+      </c>
+      <c r="O11">
+        <v>1.03</v>
+      </c>
+      <c r="P11">
+        <v>1.037169670624923</v>
+      </c>
+      <c r="Q11">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="R11">
+        <v>1.035073400010592</v>
+      </c>
+    </row>
+    <row r="12" spans="1:18">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -831,40 +963,52 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>1.01309322210824</v>
+        <v>0.9957004636926425</v>
       </c>
       <c r="D12">
-        <v>1.03143717602708</v>
+        <v>1.018946790909484</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.030302683555977</v>
+        <v>1.021529270013647</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
       <c r="I12">
-        <v>1.055304101445473</v>
+        <v>1.047114160739928</v>
       </c>
       <c r="J12">
-        <v>1.042353607396367</v>
+        <v>1.02568790889349</v>
       </c>
       <c r="K12">
-        <v>1.045985895098326</v>
+        <v>1.033719785092182</v>
       </c>
       <c r="L12">
-        <v>0.9481721277252506</v>
+        <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.044871482091057</v>
+        <v>1.036255308702573</v>
       </c>
       <c r="N12">
-        <v>1.0438338690785</v>
-      </c>
-    </row>
-    <row r="13" spans="1:14">
+        <v>1.012619226840275</v>
+      </c>
+      <c r="O12">
+        <v>1.03</v>
+      </c>
+      <c r="P12">
+        <v>1.038080737393534</v>
+      </c>
+      <c r="Q12">
+        <v>1.02</v>
+      </c>
+      <c r="R12">
+        <v>1.034982609393154</v>
+      </c>
+    </row>
+    <row r="13" spans="1:18">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -872,40 +1016,52 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>1.013502448569452</v>
+        <v>0.9960595646005322</v>
       </c>
       <c r="D13">
-        <v>1.031763718625347</v>
+        <v>1.019198771381786</v>
       </c>
       <c r="E13">
-        <v>0.9318723593368229</v>
+        <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.030677038622187</v>
+        <v>1.022567470054068</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
       <c r="I13">
-        <v>1.055486179586837</v>
+        <v>1.047302962863594</v>
       </c>
       <c r="J13">
-        <v>1.042655579504591</v>
+        <v>1.025938397203283</v>
       </c>
       <c r="K13">
-        <v>1.046264589632172</v>
+        <v>1.033924339033285</v>
       </c>
       <c r="L13">
-        <v>0.9483836088965214</v>
+        <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.045197061903903</v>
+        <v>1.037232091723197</v>
       </c>
       <c r="N13">
-        <v>1.044136270021754</v>
-      </c>
-    </row>
-    <row r="14" spans="1:14">
+        <v>1.012720529797347</v>
+      </c>
+      <c r="O13">
+        <v>1.03</v>
+      </c>
+      <c r="P13">
+        <v>1.039129806969697</v>
+      </c>
+      <c r="Q13">
+        <v>1.02</v>
+      </c>
+      <c r="R13">
+        <v>1.035124743285968</v>
+      </c>
+    </row>
+    <row r="14" spans="1:18">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -913,40 +1069,52 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>1.014837511119954</v>
+        <v>0.9967308946248641</v>
       </c>
       <c r="D14">
-        <v>1.032829188771761</v>
+        <v>1.01963895573542</v>
       </c>
       <c r="E14">
-        <v>0.9327433047194318</v>
+        <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.03189861729455</v>
+        <v>1.023502693681638</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
       <c r="I14">
-        <v>1.056079838559269</v>
+        <v>1.047523426244256</v>
       </c>
       <c r="J14">
-        <v>1.043640590942511</v>
+        <v>1.026276156870349</v>
       </c>
       <c r="K14">
-        <v>1.047173652922619</v>
+        <v>1.03421627228596</v>
       </c>
       <c r="L14">
-        <v>0.949074550976452</v>
+        <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.046259256521198</v>
+        <v>1.03801099554872</v>
       </c>
       <c r="N14">
-        <v>1.045122680288898</v>
-      </c>
-    </row>
-    <row r="15" spans="1:14">
+        <v>1.01284308493464</v>
+      </c>
+      <c r="O14">
+        <v>1.03</v>
+      </c>
+      <c r="P14">
+        <v>1.03991883306183</v>
+      </c>
+      <c r="Q14">
+        <v>1.02</v>
+      </c>
+      <c r="R14">
+        <v>1.035332574005756</v>
+      </c>
+    </row>
+    <row r="15" spans="1:18">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -954,40 +1122,52 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>1.015655699139963</v>
+        <v>0.9971062301298099</v>
       </c>
       <c r="D15">
-        <v>1.033482274881217</v>
+        <v>1.01988304546643</v>
       </c>
       <c r="E15">
-        <v>0.933278105071747</v>
+        <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.032647469591365</v>
+        <v>1.023869812132537</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
       <c r="I15">
-        <v>1.056443388580566</v>
+        <v>1.047629102971789</v>
       </c>
       <c r="J15">
-        <v>1.044244140081482</v>
+        <v>1.026448069919835</v>
       </c>
       <c r="K15">
-        <v>1.047730651688264</v>
+        <v>1.034369590481506</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.046910232918558</v>
+        <v>1.038285685542964</v>
       </c>
       <c r="N15">
-        <v>1.045727086536875</v>
-      </c>
-    </row>
-    <row r="16" spans="1:14">
+        <v>1.012902178665896</v>
+      </c>
+      <c r="O15">
+        <v>1.03</v>
+      </c>
+      <c r="P15">
+        <v>1.040173478977677</v>
+      </c>
+      <c r="Q15">
+        <v>1.02</v>
+      </c>
+      <c r="R15">
+        <v>1.035446845426874</v>
+      </c>
+    </row>
+    <row r="16" spans="1:18">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -995,40 +1175,52 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>1.02035290118685</v>
+        <v>0.9991571878389414</v>
       </c>
       <c r="D16">
-        <v>1.037233301581894</v>
+        <v>1.021200414640302</v>
       </c>
       <c r="E16">
-        <v>0.9363637346017261</v>
+        <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.036949743398572</v>
+        <v>1.025316185385636</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
       <c r="I16">
-        <v>1.058526364896915</v>
+        <v>1.048140680369605</v>
       </c>
       <c r="J16">
-        <v>1.047707366298053</v>
+        <v>1.027327392245989</v>
       </c>
       <c r="K16">
-        <v>1.050926533482456</v>
+        <v>1.03516157054209</v>
       </c>
       <c r="L16">
-        <v>0.9519451749175718</v>
+        <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.050647621276569</v>
+        <v>1.039207531829352</v>
       </c>
       <c r="N16">
-        <v>1.049195230931911</v>
-      </c>
-    </row>
-    <row r="17" spans="1:14">
+        <v>1.013189104128603</v>
+      </c>
+      <c r="O16">
+        <v>1.03</v>
+      </c>
+      <c r="P16">
+        <v>1.040863391281295</v>
+      </c>
+      <c r="Q16">
+        <v>1.02</v>
+      </c>
+      <c r="R16">
+        <v>1.036009972367284</v>
+      </c>
+    </row>
+    <row r="17" spans="1:18">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1036,40 +1228,52 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.023244152877668</v>
+        <v>1.000384215801189</v>
       </c>
       <c r="D17">
-        <v>1.039543524943989</v>
+        <v>1.021985273061524</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.039600558755739</v>
+        <v>1.025934180645391</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
       <c r="I17">
-        <v>1.059804794469953</v>
+        <v>1.048417645657178</v>
       </c>
       <c r="J17">
-        <v>1.049837493585106</v>
+        <v>1.027827637165267</v>
       </c>
       <c r="K17">
-        <v>1.052892004143843</v>
+        <v>1.03561849742341</v>
       </c>
       <c r="L17">
-        <v>0.9534603602068055</v>
+        <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.052948133104473</v>
+        <v>1.039502272542149</v>
       </c>
       <c r="N17">
-        <v>1.051328383244041</v>
-      </c>
-    </row>
-    <row r="18" spans="1:14">
+        <v>1.0133458738274</v>
+      </c>
+      <c r="O17">
+        <v>1.03</v>
+      </c>
+      <c r="P17">
+        <v>1.040967325954573</v>
+      </c>
+      <c r="Q17">
+        <v>1.02</v>
+      </c>
+      <c r="R17">
+        <v>1.036335626108441</v>
+      </c>
+    </row>
+    <row r="18" spans="1:18">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1077,40 +1281,52 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.024911470835668</v>
+        <v>1.000993126385414</v>
       </c>
       <c r="D18">
-        <v>1.040876232351495</v>
+        <v>1.022358162532873</v>
       </c>
       <c r="E18">
-        <v>0.9393832867215683</v>
+        <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.041130143709211</v>
+        <v>1.025786036190844</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
       <c r="I18">
-        <v>1.060540684350899</v>
+        <v>1.048495448665128</v>
       </c>
       <c r="J18">
-        <v>1.051065298744218</v>
+        <v>1.028018667033204</v>
       </c>
       <c r="K18">
-        <v>1.054024815500599</v>
+        <v>1.035801811114357</v>
       </c>
       <c r="L18">
-        <v>0.9543373515865726</v>
+        <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.054274774295274</v>
+        <v>1.039174033931358</v>
       </c>
       <c r="N18">
-        <v>1.05255793202731</v>
-      </c>
-    </row>
-    <row r="19" spans="1:14">
+        <v>1.013393488041239</v>
+      </c>
+      <c r="O18">
+        <v>1.03</v>
+      </c>
+      <c r="P18">
+        <v>1.040470101825521</v>
+      </c>
+      <c r="Q18">
+        <v>1.02</v>
+      </c>
+      <c r="R18">
+        <v>1.036453600097961</v>
+      </c>
+    </row>
+    <row r="19" spans="1:18">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1118,40 +1334,52 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.025476814642226</v>
+        <v>1.001022489820267</v>
       </c>
       <c r="D19">
-        <v>1.041328192308506</v>
+        <v>1.022348758557121</v>
       </c>
       <c r="E19">
-        <v>0.9397594814684969</v>
+        <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.041648939080225</v>
+        <v>1.024884383689353</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
       <c r="I19">
-        <v>1.060789974271858</v>
+        <v>1.048381393184689</v>
       </c>
       <c r="J19">
-        <v>1.051481513233684</v>
+        <v>1.027912522611952</v>
       </c>
       <c r="K19">
-        <v>1.054408812864616</v>
+        <v>1.035730023671083</v>
       </c>
       <c r="L19">
-        <v>0.9546352493816593</v>
+        <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.054724599070233</v>
+        <v>1.038224656215197</v>
       </c>
       <c r="N19">
-        <v>1.052974737589091</v>
-      </c>
-    </row>
-    <row r="20" spans="1:14">
+        <v>1.013337453255125</v>
+      </c>
+      <c r="O19">
+        <v>1.03</v>
+      </c>
+      <c r="P19">
+        <v>1.039393686719888</v>
+      </c>
+      <c r="Q19">
+        <v>1.02</v>
+      </c>
+      <c r="R19">
+        <v>1.036409237882535</v>
+      </c>
+    </row>
+    <row r="20" spans="1:18">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1159,40 +1387,52 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>1.022935941681586</v>
+        <v>0.9994205888839367</v>
       </c>
       <c r="D20">
-        <v>1.039297204036921</v>
+        <v>1.021250224809515</v>
       </c>
       <c r="E20">
-        <v>0.938071692466014</v>
+        <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.039317881967672</v>
+        <v>1.021975191056001</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
       <c r="I20">
-        <v>1.059668652096207</v>
+        <v>1.047731350273016</v>
       </c>
       <c r="J20">
-        <v>1.049610480056359</v>
+        <v>1.026973864143642</v>
       </c>
       <c r="K20">
-        <v>1.052682547296767</v>
+        <v>1.034929430314291</v>
       </c>
       <c r="L20">
-        <v>0.9532985019057444</v>
+        <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.052702896026026</v>
+        <v>1.035642334147027</v>
       </c>
       <c r="N20">
-        <v>1.051101047330044</v>
-      </c>
-    </row>
-    <row r="21" spans="1:14">
+        <v>1.012991053185206</v>
+      </c>
+      <c r="O20">
+        <v>1.03</v>
+      </c>
+      <c r="P20">
+        <v>1.036821867834855</v>
+      </c>
+      <c r="Q20">
+        <v>1.02</v>
+      </c>
+      <c r="R20">
+        <v>1.035847104614823</v>
+      </c>
+    </row>
+    <row r="21" spans="1:18">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1200,40 +1440,52 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>1.014445287519172</v>
+        <v>0.99558394123669</v>
       </c>
       <c r="D21">
-        <v>1.032516143204968</v>
+        <v>1.018773676979196</v>
       </c>
       <c r="E21">
-        <v>0.9324872132148896</v>
+        <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.031539689158939</v>
+        <v>1.01883788582468</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
       <c r="I21">
-        <v>1.055905486071844</v>
+        <v>1.04671300330126</v>
       </c>
       <c r="J21">
-        <v>1.04335123083058</v>
+        <v>1.025267463436148</v>
       </c>
       <c r="K21">
-        <v>1.046906606556832</v>
+        <v>1.033407896501645</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.045947194684316</v>
+        <v>1.033470946569417</v>
       </c>
       <c r="N21">
-        <v>1.044832909252418</v>
-      </c>
-    </row>
-    <row r="22" spans="1:14">
+        <v>1.012422882167368</v>
+      </c>
+      <c r="O21">
+        <v>1.03</v>
+      </c>
+      <c r="P21">
+        <v>1.035062378723276</v>
+      </c>
+      <c r="Q21">
+        <v>1.02</v>
+      </c>
+      <c r="R21">
+        <v>1.034774543928155</v>
+      </c>
+    </row>
+    <row r="22" spans="1:18">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1241,40 +1493,52 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>1.008917296278498</v>
+        <v>0.9931453442130921</v>
       </c>
       <c r="D22">
-        <v>1.028106302461229</v>
+        <v>1.017201940028792</v>
       </c>
       <c r="E22">
-        <v>0.9288972953651162</v>
+        <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.026484908297996</v>
+        <v>1.016940652001598</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
       <c r="I22">
-        <v>1.053443286939584</v>
+        <v>1.046065773633887</v>
       </c>
       <c r="J22">
-        <v>1.039271029210284</v>
+        <v>1.024189371326139</v>
       </c>
       <c r="K22">
-        <v>1.04314080011728</v>
+        <v>1.032440155716119</v>
       </c>
       <c r="L22">
-        <v>0.9460223821572518</v>
+        <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.04154934011686</v>
+        <v>1.03218381920878</v>
       </c>
       <c r="N22">
-        <v>1.040746913277816</v>
-      </c>
-    </row>
-    <row r="23" spans="1:14">
+        <v>1.012064937210995</v>
+      </c>
+      <c r="O22">
+        <v>1.03</v>
+      </c>
+      <c r="P22">
+        <v>1.034043695219898</v>
+      </c>
+      <c r="Q22">
+        <v>1.02</v>
+      </c>
+      <c r="R22">
+        <v>1.034076799670471</v>
+      </c>
+    </row>
+    <row r="23" spans="1:18">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1282,40 +1546,52 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>1.011866667156218</v>
+        <v>0.9944350997326757</v>
       </c>
       <c r="D23">
-        <v>1.030458581262205</v>
+        <v>1.018027097256539</v>
       </c>
       <c r="E23">
-        <v>0.9308081199963311</v>
+        <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.029180888803971</v>
+        <v>1.017945477896656</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
       <c r="I23">
-        <v>1.054758067821828</v>
+        <v>1.046405376401824</v>
       </c>
       <c r="J23">
-        <v>1.041448400011192</v>
+        <v>1.024756086802385</v>
       </c>
       <c r="K23">
-        <v>1.045150450661265</v>
+        <v>1.032944953604077</v>
       </c>
       <c r="L23">
-        <v>0.9475391330285314</v>
+        <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.043895657824036</v>
+        <v>1.032864841743843</v>
       </c>
       <c r="N23">
-        <v>1.042927376195009</v>
-      </c>
-    </row>
-    <row r="24" spans="1:14">
+        <v>1.012252238777414</v>
+      </c>
+      <c r="O23">
+        <v>1.03</v>
+      </c>
+      <c r="P23">
+        <v>1.034582683574141</v>
+      </c>
+      <c r="Q23">
+        <v>1.02</v>
+      </c>
+      <c r="R23">
+        <v>1.034424078567318</v>
+      </c>
+    </row>
+    <row r="24" spans="1:18">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1323,40 +1599,52 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>1.023075267895112</v>
+        <v>0.9994328095519827</v>
       </c>
       <c r="D24">
-        <v>1.039408551473271</v>
+        <v>1.021242942260583</v>
       </c>
       <c r="E24">
-        <v>0.9381640424011821</v>
+        <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.039445662554493</v>
+        <v>1.021852595630291</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
       <c r="I24">
-        <v>1.059730199165356</v>
+        <v>1.047708058487563</v>
       </c>
       <c r="J24">
-        <v>1.049713102874726</v>
+        <v>1.026952710501873</v>
       </c>
       <c r="K24">
-        <v>1.05277723378035</v>
+        <v>1.03490700257904</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.052813754964415</v>
+        <v>1.035506523517583</v>
       </c>
       <c r="N24">
-        <v>1.051203815884584</v>
-      </c>
-    </row>
-    <row r="25" spans="1:14">
+        <v>1.012979849716271</v>
+      </c>
+      <c r="O24">
+        <v>1.03</v>
+      </c>
+      <c r="P24">
+        <v>1.03667341183824</v>
+      </c>
+      <c r="Q24">
+        <v>1.02</v>
+      </c>
+      <c r="R24">
+        <v>1.035803841123165</v>
+      </c>
+    </row>
+    <row r="25" spans="1:18">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1364,37 +1652,49 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.035339607623108</v>
+        <v>1.005051783558703</v>
       </c>
       <c r="D25">
-        <v>1.049218596156504</v>
+        <v>1.024875680432826</v>
       </c>
       <c r="E25">
-        <v>0.9463835801718014</v>
+        <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.05071221424976</v>
+        <v>1.026278946792877</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
       <c r="I25">
-        <v>1.065118797578837</v>
+        <v>1.049132266712664</v>
       </c>
       <c r="J25">
-        <v>1.058733499599274</v>
+        <v>1.029410322938422</v>
       </c>
       <c r="K25">
-        <v>1.061098050132688</v>
+        <v>1.037099727512648</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.062571179839446</v>
+        <v>1.038482566593808</v>
       </c>
       <c r="N25">
-        <v>1.060237022607135</v>
+        <v>1.013794281990844</v>
+      </c>
+      <c r="O25">
+        <v>1.03</v>
+      </c>
+      <c r="P25">
+        <v>1.039028759095724</v>
+      </c>
+      <c r="Q25">
+        <v>1.02</v>
+      </c>
+      <c r="R25">
+        <v>1.037351350090003</v>
       </c>
     </row>
   </sheetData>

--- a/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
+++ b/Code/Results/Cases/Case_2_54/res_bus/vm_pu.xlsx
@@ -366,13 +366,13 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:R25"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:18">
+    <row r="1" spans="1:20">
       <c r="B1" s="1">
         <v>0</v>
       </c>
@@ -424,8 +424,14 @@
       <c r="R1" s="1">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:18">
+      <c r="S1" s="1">
+        <v>17</v>
+      </c>
+      <c r="T1" s="1">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="2" spans="1:20">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -433,52 +439,61 @@
         <v>1.05</v>
       </c>
       <c r="C2">
-        <v>1.009375879338362</v>
+        <v>1.008950551488515</v>
       </c>
       <c r="D2">
-        <v>1.027666373093522</v>
+        <v>1.026755070321744</v>
       </c>
       <c r="E2">
-        <v>0.9527101846680761</v>
+        <v>0.9527101846680759</v>
       </c>
       <c r="F2">
-        <v>1.029717332840116</v>
+        <v>1.029484320749617</v>
       </c>
       <c r="G2">
         <v>1</v>
       </c>
+      <c r="H2">
+        <v>1.02</v>
+      </c>
       <c r="I2">
-        <v>1.050183439953453</v>
+        <v>1.049739424014942</v>
       </c>
       <c r="J2">
-        <v>1.031279730704792</v>
+        <v>1.030866809520959</v>
       </c>
       <c r="K2">
-        <v>1.038753271113001</v>
+        <v>1.037853835570706</v>
       </c>
       <c r="L2">
         <v>0.9648701708403392</v>
       </c>
       <c r="M2">
-        <v>1.040777618864338</v>
+        <v>1.040547623514038</v>
       </c>
       <c r="N2">
-        <v>1.014411809252046</v>
+        <v>1.015446335028287</v>
       </c>
       <c r="O2">
         <v>1.03</v>
       </c>
       <c r="P2">
-        <v>1.040845140510636</v>
+        <v>1.04066311467576</v>
       </c>
       <c r="Q2">
         <v>1.02</v>
       </c>
       <c r="R2">
-        <v>1.038472192645187</v>
-      </c>
-    </row>
-    <row r="3" spans="1:18">
+        <v>1.037844989542178</v>
+      </c>
+      <c r="S2">
+        <v>1.019999999999999</v>
+      </c>
+      <c r="T2">
+        <v>1.022173490185011</v>
+      </c>
+    </row>
+    <row r="3" spans="1:20">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -486,52 +501,61 @@
         <v>1.05</v>
       </c>
       <c r="C3">
-        <v>1.012453311581772</v>
+        <v>1.011929843328961</v>
       </c>
       <c r="D3">
-        <v>1.029668788170855</v>
+        <v>1.028622926011614</v>
       </c>
       <c r="E3">
         <v>0.9571825583057848</v>
       </c>
       <c r="F3">
-        <v>1.032174768098593</v>
+        <v>1.03189383021353</v>
       </c>
       <c r="G3">
         <v>1</v>
       </c>
+      <c r="H3">
+        <v>1.02</v>
+      </c>
       <c r="I3">
-        <v>1.050917846950044</v>
+        <v>1.050398780221098</v>
       </c>
       <c r="J3">
-        <v>1.032610149308073</v>
+        <v>1.032100488880362</v>
       </c>
       <c r="K3">
-        <v>1.039935619207052</v>
+        <v>1.038902215423588</v>
       </c>
       <c r="L3">
         <v>0.9683942856474066</v>
       </c>
       <c r="M3">
-        <v>1.042411874991292</v>
+        <v>1.042134260489737</v>
       </c>
       <c r="N3">
-        <v>1.014852778372946</v>
+        <v>1.015771105412227</v>
       </c>
       <c r="O3">
         <v>1.03</v>
       </c>
       <c r="P3">
-        <v>1.042138542885329</v>
+        <v>1.041918830085535</v>
       </c>
       <c r="Q3">
         <v>1.02</v>
       </c>
       <c r="R3">
-        <v>1.039305548371592</v>
-      </c>
-    </row>
-    <row r="4" spans="1:18">
+        <v>1.03858334406246</v>
+      </c>
+      <c r="S3">
+        <v>1.02</v>
+      </c>
+      <c r="T3">
+        <v>1.022353020551745</v>
+      </c>
+    </row>
+    <row r="4" spans="1:20">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -539,52 +563,61 @@
         <v>1.05</v>
       </c>
       <c r="C4">
-        <v>1.014411891209815</v>
+        <v>1.013826489167692</v>
       </c>
       <c r="D4">
-        <v>1.030946410693746</v>
+        <v>1.029815284034851</v>
       </c>
       <c r="E4">
         <v>0.9600238894088612</v>
       </c>
       <c r="F4">
-        <v>1.033744992049904</v>
+        <v>1.033433805685286</v>
       </c>
       <c r="G4">
         <v>1</v>
       </c>
+      <c r="H4">
+        <v>1.02</v>
+      </c>
       <c r="I4">
-        <v>1.051375982671342</v>
+        <v>1.050809284564922</v>
       </c>
       <c r="J4">
-        <v>1.033453988327062</v>
+        <v>1.032883004889402</v>
       </c>
       <c r="K4">
-        <v>1.040685153131607</v>
+        <v>1.039566704389382</v>
       </c>
       <c r="L4">
         <v>0.9706300002952756</v>
       </c>
       <c r="M4">
-        <v>1.04345251406284</v>
+        <v>1.043144788952761</v>
       </c>
       <c r="N4">
-        <v>1.015132583219028</v>
+        <v>1.015977209988089</v>
       </c>
       <c r="O4">
         <v>1.03</v>
       </c>
       <c r="P4">
-        <v>1.042962136603731</v>
+        <v>1.042718593598872</v>
       </c>
       <c r="Q4">
         <v>1.02</v>
       </c>
       <c r="R4">
-        <v>1.039836427980163</v>
-      </c>
-    </row>
-    <row r="5" spans="1:18">
+        <v>1.039054173389713</v>
+      </c>
+      <c r="S4">
+        <v>1.02</v>
+      </c>
+      <c r="T4">
+        <v>1.022464368058647</v>
+      </c>
+    </row>
+    <row r="5" spans="1:20">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -592,52 +625,61 @@
         <v>1.05</v>
       </c>
       <c r="C5">
-        <v>1.015230162795512</v>
+        <v>1.014618999266127</v>
       </c>
       <c r="D5">
-        <v>1.031483004191359</v>
+        <v>1.030316378553301</v>
       </c>
       <c r="E5">
         <v>0.9612062874769891</v>
       </c>
       <c r="F5">
-        <v>1.03440167772954</v>
+        <v>1.034077912033255</v>
       </c>
       <c r="G5">
         <v>1</v>
       </c>
+      <c r="H5">
+        <v>1.02</v>
+      </c>
       <c r="I5">
-        <v>1.051566534253882</v>
+        <v>1.050979979712767</v>
       </c>
       <c r="J5">
-        <v>1.033807203741028</v>
+        <v>1.033210652731634</v>
       </c>
       <c r="K5">
-        <v>1.041000285954288</v>
+        <v>1.039846394776791</v>
       </c>
       <c r="L5">
         <v>0.9715596031702912</v>
       </c>
       <c r="M5">
-        <v>1.043887254647867</v>
+        <v>1.043566995114852</v>
       </c>
       <c r="N5">
-        <v>1.015249980149833</v>
+        <v>1.016063725563673</v>
       </c>
       <c r="O5">
         <v>1.03</v>
       </c>
       <c r="P5">
-        <v>1.043306203376891</v>
+        <v>1.043052740366919</v>
       </c>
       <c r="Q5">
         <v>1.02</v>
       </c>
       <c r="R5">
-        <v>1.040066422688709</v>
-      </c>
-    </row>
-    <row r="6" spans="1:18">
+        <v>1.039259819489678</v>
+      </c>
+      <c r="S5">
+        <v>1.02</v>
+      </c>
+      <c r="T5">
+        <v>1.022511100156219</v>
+      </c>
+    </row>
+    <row r="6" spans="1:20">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -645,52 +687,61 @@
         <v>1.05</v>
       </c>
       <c r="C6">
-        <v>1.015370187923142</v>
+        <v>1.014754614901795</v>
       </c>
       <c r="D6">
-        <v>1.03157738315584</v>
+        <v>1.030404731333586</v>
       </c>
       <c r="E6">
         <v>0.9614041218017085</v>
       </c>
       <c r="F6">
-        <v>1.034513156598479</v>
+        <v>1.03418724192676</v>
       </c>
       <c r="G6">
         <v>1</v>
       </c>
+      <c r="H6">
+        <v>1.02</v>
+      </c>
       <c r="I6">
-        <v>1.051600716612754</v>
+        <v>1.051010780869371</v>
       </c>
       <c r="J6">
-        <v>1.0338692813405</v>
+        <v>1.033268352130843</v>
       </c>
       <c r="K6">
-        <v>1.041057465635888</v>
+        <v>1.03989755654239</v>
       </c>
       <c r="L6">
         <v>0.9717150950965046</v>
       </c>
       <c r="M6">
-        <v>1.043961492545744</v>
+        <v>1.043639091309388</v>
       </c>
       <c r="N6">
-        <v>1.015270915738649</v>
+        <v>1.016079195292488</v>
       </c>
       <c r="O6">
         <v>1.03</v>
       </c>
       <c r="P6">
-        <v>1.043364957465608</v>
+        <v>1.043109799467606</v>
       </c>
       <c r="Q6">
         <v>1.02</v>
       </c>
       <c r="R6">
-        <v>1.040115597046946</v>
-      </c>
-    </row>
-    <row r="7" spans="1:18">
+        <v>1.039305608231301</v>
+      </c>
+      <c r="S6">
+        <v>1.02</v>
+      </c>
+      <c r="T6">
+        <v>1.022520172209664</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -698,52 +749,61 @@
         <v>1.05</v>
       </c>
       <c r="C7">
-        <v>1.014431094484718</v>
+        <v>1.013851936999789</v>
       </c>
       <c r="D7">
-        <v>1.030965707031736</v>
+        <v>1.02983873755592</v>
       </c>
       <c r="E7">
         <v>0.9600397355691357</v>
       </c>
       <c r="F7">
-        <v>1.033757768345818</v>
+        <v>1.03344939040846</v>
       </c>
       <c r="G7">
         <v>1</v>
       </c>
+      <c r="H7">
+        <v>1.02</v>
+      </c>
       <c r="I7">
-        <v>1.05138502240349</v>
+        <v>1.050821465753671</v>
       </c>
       <c r="J7">
-        <v>1.033466760612049</v>
+        <v>1.03290186187955</v>
       </c>
       <c r="K7">
-        <v>1.040701352507615</v>
+        <v>1.039587009497561</v>
       </c>
       <c r="L7">
         <v>0.9706424616290568</v>
       </c>
       <c r="M7">
-        <v>1.043462277702986</v>
+        <v>1.043157328524353</v>
       </c>
       <c r="N7">
-        <v>1.015137644815173</v>
+        <v>1.016008580642526</v>
       </c>
       <c r="O7">
         <v>1.03</v>
       </c>
       <c r="P7">
-        <v>1.042969863843955</v>
+        <v>1.042728517798542</v>
       </c>
       <c r="Q7">
         <v>1.02</v>
       </c>
       <c r="R7">
-        <v>1.039867991485089</v>
-      </c>
-    </row>
-    <row r="8" spans="1:18">
+        <v>1.039090640273721</v>
+      </c>
+      <c r="S7">
+        <v>1.02</v>
+      </c>
+      <c r="T7">
+        <v>1.022469862791471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -751,52 +811,61 @@
         <v>1.05</v>
       </c>
       <c r="C8">
-        <v>1.010432943975199</v>
+        <v>1.009994800956171</v>
       </c>
       <c r="D8">
-        <v>1.028361715612357</v>
+        <v>1.027419170034535</v>
       </c>
       <c r="E8">
         <v>0.9542328392922297</v>
       </c>
       <c r="F8">
-        <v>1.030556904008994</v>
+        <v>1.030316887649352</v>
       </c>
       <c r="G8">
         <v>1</v>
       </c>
+      <c r="H8">
+        <v>1.02</v>
+      </c>
       <c r="I8">
-        <v>1.050443116217359</v>
+        <v>1.049984236980489</v>
       </c>
       <c r="J8">
-        <v>1.031742777324044</v>
+        <v>1.031316995181978</v>
       </c>
       <c r="K8">
-        <v>1.039170739611241</v>
+        <v>1.038240110953688</v>
       </c>
       <c r="L8">
         <v>0.966070643453771</v>
       </c>
       <c r="M8">
-        <v>1.041338278898967</v>
+        <v>1.041101278467983</v>
       </c>
       <c r="N8">
-        <v>1.01456631755213</v>
+        <v>1.015643913704153</v>
       </c>
       <c r="O8">
         <v>1.03</v>
       </c>
       <c r="P8">
-        <v>1.041288864988211</v>
+        <v>1.041101295218152</v>
       </c>
       <c r="Q8">
         <v>1.02</v>
       </c>
       <c r="R8">
-        <v>1.03879028262138</v>
-      </c>
-    </row>
-    <row r="9" spans="1:18">
+        <v>1.038143292620279</v>
+      </c>
+      <c r="S8">
+        <v>1.02</v>
+      </c>
+      <c r="T8">
+        <v>1.022243718964048</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -804,52 +873,61 @@
         <v>1.05</v>
       </c>
       <c r="C9">
-        <v>1.003115231361851</v>
+        <v>1.002916736322538</v>
       </c>
       <c r="D9">
-        <v>1.023611832605661</v>
+        <v>1.022993446207113</v>
       </c>
       <c r="E9">
         <v>0.9435740419925933</v>
       </c>
       <c r="F9">
-        <v>1.024753101588904</v>
+        <v>1.024629992620901</v>
       </c>
       <c r="G9">
         <v>1</v>
       </c>
+      <c r="H9">
+        <v>1.02</v>
+      </c>
       <c r="I9">
-        <v>1.048640297221577</v>
+        <v>1.048362131704782</v>
       </c>
       <c r="J9">
-        <v>1.02855846035406</v>
+        <v>1.028366915878113</v>
       </c>
       <c r="K9">
-        <v>1.036333097463062</v>
+        <v>1.035724169478643</v>
       </c>
       <c r="L9">
         <v>0.9576541208834081</v>
       </c>
       <c r="M9">
-        <v>1.037456948597424</v>
+        <v>1.037335716116559</v>
       </c>
       <c r="N9">
-        <v>1.01351057849484</v>
+        <v>1.014876537291414</v>
       </c>
       <c r="O9">
         <v>1.03</v>
       </c>
       <c r="P9">
-        <v>1.038217049096073</v>
+        <v>1.038121101404271</v>
       </c>
       <c r="Q9">
         <v>1.02</v>
       </c>
       <c r="R9">
-        <v>1.036780712628498</v>
-      </c>
-    </row>
-    <row r="10" spans="1:18">
+        <v>1.03636090045816</v>
+      </c>
+      <c r="S9">
+        <v>1.02</v>
+      </c>
+      <c r="T9">
+        <v>1.021797763736517</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -857,52 +935,61 @@
         <v>1.05</v>
       </c>
       <c r="C10">
-        <v>0.9981018465673337</v>
+        <v>0.9980990979670173</v>
       </c>
       <c r="D10">
-        <v>1.020387038607661</v>
+        <v>1.020012085776588</v>
       </c>
       <c r="E10">
         <v>0.9361465105547283</v>
       </c>
       <c r="F10">
-        <v>1.020983833642935</v>
+        <v>1.020955261795362</v>
       </c>
       <c r="G10">
         <v>1</v>
       </c>
+      <c r="H10">
+        <v>1.02</v>
+      </c>
       <c r="I10">
-        <v>1.047386738706527</v>
+        <v>1.047247441955625</v>
       </c>
       <c r="J10">
-        <v>1.026390977660202</v>
+        <v>1.026388338700939</v>
       </c>
       <c r="K10">
-        <v>1.034397703106911</v>
+        <v>1.034029178130285</v>
       </c>
       <c r="L10">
         <v>0.9517730114689358</v>
       </c>
       <c r="M10">
-        <v>1.034984279805897</v>
+        <v>1.034956196814259</v>
       </c>
       <c r="N10">
-        <v>1.012796613845767</v>
+        <v>1.014475269617499</v>
       </c>
       <c r="O10">
         <v>1.03</v>
       </c>
       <c r="P10">
-        <v>1.03631166259878</v>
+        <v>1.036289438056235</v>
       </c>
       <c r="Q10">
         <v>1.02</v>
       </c>
       <c r="R10">
-        <v>1.035429083205298</v>
-      </c>
-    </row>
-    <row r="11" spans="1:18">
+        <v>1.035180926118729</v>
+      </c>
+      <c r="S10">
+        <v>1.02</v>
+      </c>
+      <c r="T10">
+        <v>1.021491606116307</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -910,52 +997,61 @@
         <v>1.05</v>
       </c>
       <c r="C11">
-        <v>0.9962759403010161</v>
+        <v>0.9963777531833283</v>
       </c>
       <c r="D11">
-        <v>1.019280954897712</v>
+        <v>1.019011702600882</v>
       </c>
       <c r="E11">
         <v>0.9328454960016257</v>
       </c>
       <c r="F11">
-        <v>1.020979606195125</v>
+        <v>1.021000638509527</v>
       </c>
       <c r="G11">
         <v>1</v>
       </c>
+      <c r="H11">
+        <v>1.02</v>
+      </c>
       <c r="I11">
-        <v>1.047127344077146</v>
+        <v>1.047053629935085</v>
       </c>
       <c r="J11">
-        <v>1.025804469378898</v>
+        <v>1.025902002130769</v>
       </c>
       <c r="K11">
-        <v>1.033848195967995</v>
+        <v>1.033583776539078</v>
       </c>
       <c r="L11">
         <v>0.9491556125416573</v>
       </c>
       <c r="M11">
-        <v>1.035516434114094</v>
+        <v>1.035537090683348</v>
       </c>
       <c r="N11">
-        <v>1.012634922214167</v>
+        <v>1.014596555741094</v>
       </c>
       <c r="O11">
         <v>1.03</v>
       </c>
       <c r="P11">
-        <v>1.037169670624923</v>
+        <v>1.03718600972492</v>
       </c>
       <c r="Q11">
-        <v>1.019999999999999</v>
+        <v>1.02</v>
       </c>
       <c r="R11">
-        <v>1.035073400010592</v>
-      </c>
-    </row>
-    <row r="12" spans="1:18">
+        <v>1.034902064614064</v>
+      </c>
+      <c r="S11">
+        <v>1.02</v>
+      </c>
+      <c r="T11">
+        <v>1.021441609743045</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -963,52 +1059,61 @@
         <v>1.05</v>
       </c>
       <c r="C12">
-        <v>0.9957004636926425</v>
+        <v>0.9958366609241185</v>
       </c>
       <c r="D12">
-        <v>1.018946790909484</v>
+        <v>1.018709237233312</v>
       </c>
       <c r="E12">
         <v>0.9316058186411971</v>
       </c>
       <c r="F12">
-        <v>1.021529270013647</v>
+        <v>1.021566593371779</v>
       </c>
       <c r="G12">
         <v>1</v>
       </c>
+      <c r="H12">
+        <v>1.02</v>
+      </c>
       <c r="I12">
-        <v>1.047114160739928</v>
+        <v>1.047061054223506</v>
       </c>
       <c r="J12">
-        <v>1.02568790889349</v>
+        <v>1.025818271903093</v>
       </c>
       <c r="K12">
-        <v>1.033719785092182</v>
+        <v>1.033486566260196</v>
       </c>
       <c r="L12">
         <v>0.9481721277252507</v>
       </c>
       <c r="M12">
-        <v>1.036255308702573</v>
+        <v>1.036291955698495</v>
       </c>
       <c r="N12">
-        <v>1.012619226840275</v>
+        <v>1.014690657412129</v>
       </c>
       <c r="O12">
         <v>1.03</v>
       </c>
       <c r="P12">
-        <v>1.038080737393534</v>
+        <v>1.038109714902751</v>
       </c>
       <c r="Q12">
         <v>1.02</v>
       </c>
       <c r="R12">
-        <v>1.034982609393154</v>
-      </c>
-    </row>
-    <row r="13" spans="1:18">
+        <v>1.034833335230756</v>
+      </c>
+      <c r="S12">
+        <v>1.02</v>
+      </c>
+      <c r="T12">
+        <v>1.021441916330575</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -1016,52 +1121,61 @@
         <v>1.05</v>
       </c>
       <c r="C13">
-        <v>0.9960595646005322</v>
+        <v>0.9961691599577875</v>
       </c>
       <c r="D13">
-        <v>1.019198771381786</v>
+        <v>1.018931658764679</v>
       </c>
       <c r="E13">
         <v>0.9318723593367009</v>
       </c>
       <c r="F13">
-        <v>1.022567470054068</v>
+        <v>1.022592603907183</v>
       </c>
       <c r="G13">
         <v>1</v>
       </c>
+      <c r="H13">
+        <v>1.02</v>
+      </c>
       <c r="I13">
-        <v>1.047302962863594</v>
+        <v>1.047232630474681</v>
       </c>
       <c r="J13">
-        <v>1.025938397203283</v>
+        <v>1.026043319693969</v>
       </c>
       <c r="K13">
-        <v>1.033924339033285</v>
+        <v>1.033662081413219</v>
       </c>
       <c r="L13">
         <v>0.9483836088964246</v>
       </c>
       <c r="M13">
-        <v>1.037232091723197</v>
+        <v>1.037256772819944</v>
       </c>
       <c r="N13">
-        <v>1.012720529797347</v>
+        <v>1.014739523693017</v>
       </c>
       <c r="O13">
         <v>1.03</v>
       </c>
       <c r="P13">
-        <v>1.039129806969697</v>
+        <v>1.039149317900714</v>
       </c>
       <c r="Q13">
         <v>1.02</v>
       </c>
       <c r="R13">
-        <v>1.035124743285968</v>
-      </c>
-    </row>
-    <row r="14" spans="1:18">
+        <v>1.03495469272066</v>
+      </c>
+      <c r="S13">
+        <v>1.02</v>
+      </c>
+      <c r="T13">
+        <v>1.021485823238394</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -1069,52 +1183,61 @@
         <v>1.05</v>
       </c>
       <c r="C14">
-        <v>0.9967308946248641</v>
+        <v>0.9967953216517496</v>
       </c>
       <c r="D14">
-        <v>1.01963895573542</v>
+        <v>1.019324433213084</v>
       </c>
       <c r="E14">
         <v>0.9327433047194313</v>
       </c>
       <c r="F14">
-        <v>1.023502693681638</v>
+        <v>1.023506980202385</v>
       </c>
       <c r="G14">
         <v>1</v>
       </c>
+      <c r="H14">
+        <v>1.02</v>
+      </c>
       <c r="I14">
-        <v>1.047523426244256</v>
+        <v>1.047424541198696</v>
       </c>
       <c r="J14">
-        <v>1.026276156870349</v>
+        <v>1.026337874942092</v>
       </c>
       <c r="K14">
-        <v>1.03421627228596</v>
+        <v>1.033907397735178</v>
       </c>
       <c r="L14">
         <v>0.9490745509764514</v>
       </c>
       <c r="M14">
-        <v>1.03801099554872</v>
+        <v>1.038015205878484</v>
       </c>
       <c r="N14">
-        <v>1.01284308493464</v>
+        <v>1.014753671470283</v>
       </c>
       <c r="O14">
         <v>1.03</v>
       </c>
       <c r="P14">
-        <v>1.03991883306183</v>
+        <v>1.039922160968024</v>
       </c>
       <c r="Q14">
         <v>1.02</v>
       </c>
       <c r="R14">
-        <v>1.035332574005756</v>
-      </c>
-    </row>
-    <row r="15" spans="1:18">
+        <v>1.035129698827316</v>
+      </c>
+      <c r="S14">
+        <v>1.02</v>
+      </c>
+      <c r="T14">
+        <v>1.021536085660107</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -1122,52 +1245,61 @@
         <v>1.05</v>
       </c>
       <c r="C15">
-        <v>0.9971062301298099</v>
+        <v>0.9971465413426503</v>
       </c>
       <c r="D15">
-        <v>1.01988304546643</v>
+        <v>1.019543487790904</v>
       </c>
       <c r="E15">
         <v>0.9332781050717474</v>
       </c>
       <c r="F15">
-        <v>1.023869812132537</v>
+        <v>1.023862909373597</v>
       </c>
       <c r="G15">
         <v>1</v>
       </c>
+      <c r="H15">
+        <v>1.02</v>
+      </c>
       <c r="I15">
-        <v>1.047629102971789</v>
+        <v>1.04751501391979</v>
       </c>
       <c r="J15">
-        <v>1.026448069919835</v>
+        <v>1.026486700590865</v>
       </c>
       <c r="K15">
-        <v>1.034369590481506</v>
+        <v>1.034036085149738</v>
       </c>
       <c r="L15">
         <v>0.9494987508767192</v>
       </c>
       <c r="M15">
-        <v>1.038285685542964</v>
+        <v>1.038278904529399</v>
       </c>
       <c r="N15">
-        <v>1.012902178665896</v>
+        <v>1.014753014212775</v>
       </c>
       <c r="O15">
         <v>1.03</v>
       </c>
       <c r="P15">
-        <v>1.040173478977677</v>
+        <v>1.040168119306417</v>
       </c>
       <c r="Q15">
         <v>1.02</v>
       </c>
       <c r="R15">
-        <v>1.035446845426874</v>
-      </c>
-    </row>
-    <row r="16" spans="1:18">
+        <v>1.035227124889309</v>
+      </c>
+      <c r="S15">
+        <v>1.02</v>
+      </c>
+      <c r="T15">
+        <v>1.021560707126058</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -1175,52 +1307,61 @@
         <v>1.05</v>
       </c>
       <c r="C16">
-        <v>0.9991571878389414</v>
+        <v>0.9990760803758612</v>
       </c>
       <c r="D16">
-        <v>1.021200414640302</v>
+        <v>1.020733042141118</v>
       </c>
       <c r="E16">
         <v>0.9363637346017258</v>
       </c>
       <c r="F16">
-        <v>1.025316185385636</v>
+        <v>1.025252412470591</v>
       </c>
       <c r="G16">
         <v>1</v>
       </c>
+      <c r="H16">
+        <v>1.02</v>
+      </c>
       <c r="I16">
-        <v>1.048140680369605</v>
+        <v>1.047949083991123</v>
       </c>
       <c r="J16">
-        <v>1.027327392245989</v>
+        <v>1.027249500496331</v>
       </c>
       <c r="K16">
-        <v>1.03516157054209</v>
+        <v>1.034702171337668</v>
       </c>
       <c r="L16">
         <v>0.9519451749175715</v>
       </c>
       <c r="M16">
-        <v>1.039207531829352</v>
+        <v>1.039144835080735</v>
       </c>
       <c r="N16">
-        <v>1.013189104128603</v>
+        <v>1.014746304048357</v>
       </c>
       <c r="O16">
         <v>1.03</v>
       </c>
       <c r="P16">
-        <v>1.040863391281295</v>
+        <v>1.040813834753912</v>
       </c>
       <c r="Q16">
         <v>1.02</v>
       </c>
       <c r="R16">
-        <v>1.036009972367284</v>
-      </c>
-    </row>
-    <row r="17" spans="1:18">
+        <v>1.035701540909712</v>
+      </c>
+      <c r="S16">
+        <v>1.02</v>
+      </c>
+      <c r="T16">
+        <v>1.02168085291205</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -1228,52 +1369,61 @@
         <v>1.05</v>
       </c>
       <c r="C17">
-        <v>1.000384215801189</v>
+        <v>1.000240391030162</v>
       </c>
       <c r="D17">
-        <v>1.021985273061524</v>
+        <v>1.021449130640983</v>
       </c>
       <c r="E17">
         <v>0.9382760156855671</v>
       </c>
       <c r="F17">
-        <v>1.025934180645391</v>
+        <v>1.02584062148512</v>
       </c>
       <c r="G17">
         <v>1</v>
       </c>
+      <c r="H17">
+        <v>1.02</v>
+      </c>
       <c r="I17">
-        <v>1.048417645657178</v>
+        <v>1.048184827102677</v>
       </c>
       <c r="J17">
-        <v>1.027827637165267</v>
+        <v>1.027689334498717</v>
       </c>
       <c r="K17">
-        <v>1.03561849742341</v>
+        <v>1.035091248019053</v>
       </c>
       <c r="L17">
         <v>0.9534603602068054</v>
       </c>
       <c r="M17">
-        <v>1.039502272542149</v>
+        <v>1.039410249069414</v>
       </c>
       <c r="N17">
-        <v>1.0133458738274</v>
+        <v>1.014762576274442</v>
       </c>
       <c r="O17">
         <v>1.03</v>
       </c>
       <c r="P17">
-        <v>1.040967325954573</v>
+        <v>1.040894581877694</v>
       </c>
       <c r="Q17">
         <v>1.02</v>
       </c>
       <c r="R17">
-        <v>1.036335626108441</v>
-      </c>
-    </row>
-    <row r="18" spans="1:18">
+        <v>1.035979469972524</v>
+      </c>
+      <c r="S17">
+        <v>1.02</v>
+      </c>
+      <c r="T17">
+        <v>1.021747568965486</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -1281,52 +1431,61 @@
         <v>1.05</v>
       </c>
       <c r="C18">
-        <v>1.000993126385414</v>
+        <v>1.000823961072714</v>
       </c>
       <c r="D18">
-        <v>1.022358162532873</v>
+        <v>1.021793625804392</v>
       </c>
       <c r="E18">
         <v>0.9393832867215685</v>
       </c>
       <c r="F18">
-        <v>1.025786036190844</v>
+        <v>1.025679963748875</v>
       </c>
       <c r="G18">
         <v>1</v>
       </c>
+      <c r="H18">
+        <v>1.02</v>
+      </c>
       <c r="I18">
-        <v>1.048495448665128</v>
+        <v>1.048245531148752</v>
       </c>
       <c r="J18">
-        <v>1.028018667033204</v>
+        <v>1.027855876249927</v>
       </c>
       <c r="K18">
-        <v>1.035801811114357</v>
+        <v>1.035246485547495</v>
       </c>
       <c r="L18">
         <v>0.9543373515865727</v>
       </c>
       <c r="M18">
-        <v>1.039174033931358</v>
+        <v>1.039069676394705</v>
       </c>
       <c r="N18">
-        <v>1.013393488041239</v>
+        <v>1.014754705576616</v>
       </c>
       <c r="O18">
         <v>1.03</v>
       </c>
       <c r="P18">
-        <v>1.040470101825521</v>
+        <v>1.040387590551698</v>
       </c>
       <c r="Q18">
         <v>1.02</v>
       </c>
       <c r="R18">
-        <v>1.036453600097961</v>
-      </c>
-    </row>
-    <row r="19" spans="1:18">
+        <v>1.036076457322342</v>
+      </c>
+      <c r="S18">
+        <v>1.02</v>
+      </c>
+      <c r="T18">
+        <v>1.021765641132331</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -1334,52 +1493,61 @@
         <v>1.05</v>
       </c>
       <c r="C19">
-        <v>1.001022489820267</v>
+        <v>1.000858985980079</v>
       </c>
       <c r="D19">
-        <v>1.022348758557121</v>
+        <v>1.021791497164448</v>
       </c>
       <c r="E19">
         <v>0.939759481468009</v>
       </c>
       <c r="F19">
-        <v>1.024884383689353</v>
+        <v>1.024780314223957</v>
       </c>
       <c r="G19">
         <v>1</v>
       </c>
+      <c r="H19">
+        <v>1.02</v>
+      </c>
       <c r="I19">
-        <v>1.048381393184689</v>
+        <v>1.04813520442816</v>
       </c>
       <c r="J19">
-        <v>1.027912522611952</v>
+        <v>1.027755143386517</v>
       </c>
       <c r="K19">
-        <v>1.035730023671083</v>
+        <v>1.035181806357235</v>
       </c>
       <c r="L19">
         <v>0.954635249381271</v>
       </c>
       <c r="M19">
-        <v>1.038224656215197</v>
+        <v>1.038122264082551</v>
       </c>
       <c r="N19">
-        <v>1.013337453255125</v>
+        <v>1.014702014667073</v>
       </c>
       <c r="O19">
         <v>1.03</v>
       </c>
       <c r="P19">
-        <v>1.039393686719888</v>
+        <v>1.039312702931535</v>
       </c>
       <c r="Q19">
         <v>1.02</v>
       </c>
       <c r="R19">
-        <v>1.036409237882535</v>
-      </c>
-    </row>
-    <row r="20" spans="1:18">
+        <v>1.036037745327238</v>
+      </c>
+      <c r="S19">
+        <v>1.02</v>
+      </c>
+      <c r="T19">
+        <v>1.021737472520422</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -1387,52 +1555,61 @@
         <v>1.05</v>
       </c>
       <c r="C20">
-        <v>0.9994205888839367</v>
+        <v>0.9993470490084581</v>
       </c>
       <c r="D20">
-        <v>1.021250224809515</v>
+        <v>1.020797864010514</v>
       </c>
       <c r="E20">
         <v>0.9380716924660139</v>
       </c>
       <c r="F20">
-        <v>1.021975191056001</v>
+        <v>1.021913026641907</v>
       </c>
       <c r="G20">
         <v>1</v>
       </c>
+      <c r="H20">
+        <v>1.02</v>
+      </c>
       <c r="I20">
-        <v>1.047731350273016</v>
+        <v>1.047545776200991</v>
       </c>
       <c r="J20">
-        <v>1.026973864143642</v>
+        <v>1.026903164045671</v>
       </c>
       <c r="K20">
-        <v>1.034929430314291</v>
+        <v>1.034484607342532</v>
       </c>
       <c r="L20">
         <v>0.9532985019057443</v>
       </c>
       <c r="M20">
-        <v>1.035642334147027</v>
+        <v>1.035581203196985</v>
       </c>
       <c r="N20">
-        <v>1.012991053185206</v>
+        <v>1.014513955807653</v>
       </c>
       <c r="O20">
         <v>1.03</v>
       </c>
       <c r="P20">
-        <v>1.036821867834855</v>
+        <v>1.036773488945992</v>
       </c>
       <c r="Q20">
         <v>1.02</v>
       </c>
       <c r="R20">
-        <v>1.035847104614823</v>
-      </c>
-    </row>
-    <row r="21" spans="1:18">
+        <v>1.035549104778733</v>
+      </c>
+      <c r="S20">
+        <v>1.02</v>
+      </c>
+      <c r="T20">
+        <v>1.021576663900473</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -1440,52 +1617,61 @@
         <v>1.05</v>
       </c>
       <c r="C21">
-        <v>0.99558394123669</v>
+        <v>0.995755417560452</v>
       </c>
       <c r="D21">
-        <v>1.018773676979196</v>
+        <v>1.018575949778771</v>
       </c>
       <c r="E21">
         <v>0.9324872132148895</v>
       </c>
       <c r="F21">
-        <v>1.01883788582468</v>
+        <v>1.018891305620381</v>
       </c>
       <c r="G21">
         <v>1</v>
       </c>
+      <c r="H21">
+        <v>1.02</v>
+      </c>
       <c r="I21">
-        <v>1.04671300330126</v>
+        <v>1.046682506329132</v>
       </c>
       <c r="J21">
-        <v>1.025267463436148</v>
+        <v>1.025431681250682</v>
       </c>
       <c r="K21">
-        <v>1.033407896501645</v>
+        <v>1.033213738879113</v>
       </c>
       <c r="L21">
         <v>0.9488714019981066</v>
       </c>
       <c r="M21">
-        <v>1.033470946569417</v>
+        <v>1.033523402442188</v>
       </c>
       <c r="N21">
-        <v>1.012422882167368</v>
+        <v>1.014539659432197</v>
       </c>
       <c r="O21">
         <v>1.03</v>
       </c>
       <c r="P21">
-        <v>1.035062378723276</v>
+        <v>1.035103894344608</v>
       </c>
       <c r="Q21">
         <v>1.02</v>
       </c>
       <c r="R21">
-        <v>1.034774543928155</v>
-      </c>
-    </row>
-    <row r="22" spans="1:18">
+        <v>1.034654099742211</v>
+      </c>
+      <c r="S21">
+        <v>1.02</v>
+      </c>
+      <c r="T21">
+        <v>1.021343349586056</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -1493,52 +1679,61 @@
         <v>1.05</v>
       </c>
       <c r="C22">
-        <v>0.9931453442130921</v>
+        <v>0.9934706513210761</v>
       </c>
       <c r="D22">
-        <v>1.017201940028792</v>
+        <v>1.017164058393497</v>
       </c>
       <c r="E22">
         <v>0.9288972953651161</v>
       </c>
       <c r="F22">
-        <v>1.016940652001598</v>
+        <v>1.017066791840043</v>
       </c>
       <c r="G22">
         <v>1</v>
       </c>
+      <c r="H22">
+        <v>1.02</v>
+      </c>
       <c r="I22">
-        <v>1.046065773633887</v>
+        <v>1.046132339420384</v>
       </c>
       <c r="J22">
-        <v>1.024189371326139</v>
+        <v>1.024500123353458</v>
       </c>
       <c r="K22">
-        <v>1.032440155716119</v>
+        <v>1.032402991747895</v>
       </c>
       <c r="L22">
         <v>0.9460223821572517</v>
       </c>
       <c r="M22">
-        <v>1.03218381920878</v>
+        <v>1.032307568228095</v>
       </c>
       <c r="N22">
-        <v>1.012064937210995</v>
+        <v>1.014549996376986</v>
       </c>
       <c r="O22">
         <v>1.03</v>
       </c>
       <c r="P22">
-        <v>1.034043695219898</v>
+        <v>1.034141635152431</v>
       </c>
       <c r="Q22">
         <v>1.02</v>
       </c>
       <c r="R22">
-        <v>1.034076799670471</v>
-      </c>
-    </row>
-    <row r="23" spans="1:18">
+        <v>1.034066054861013</v>
+      </c>
+      <c r="S22">
+        <v>1.02</v>
+      </c>
+      <c r="T22">
+        <v>1.021192598263708</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -1546,52 +1741,61 @@
         <v>1.05</v>
       </c>
       <c r="C23">
-        <v>0.9944350997326757</v>
+        <v>0.9946682579154488</v>
       </c>
       <c r="D23">
-        <v>1.018027097256539</v>
+        <v>1.017896977541793</v>
       </c>
       <c r="E23">
         <v>0.9308081199963314</v>
       </c>
       <c r="F23">
-        <v>1.017945477896656</v>
+        <v>1.018028229593091</v>
       </c>
       <c r="G23">
         <v>1</v>
       </c>
+      <c r="H23">
+        <v>1.02</v>
+      </c>
       <c r="I23">
-        <v>1.046405376401824</v>
+        <v>1.046415073661427</v>
       </c>
       <c r="J23">
-        <v>1.024756086802385</v>
+        <v>1.024979112589817</v>
       </c>
       <c r="K23">
-        <v>1.032944953604077</v>
+        <v>1.0328172373339</v>
       </c>
       <c r="L23">
         <v>0.9475391330285318</v>
       </c>
       <c r="M23">
-        <v>1.032864841743843</v>
+        <v>1.032946065028726</v>
       </c>
       <c r="N23">
-        <v>1.012252238777414</v>
+        <v>1.014500759613264</v>
       </c>
       <c r="O23">
         <v>1.03</v>
       </c>
       <c r="P23">
-        <v>1.034582683574141</v>
+        <v>1.034646966888803</v>
       </c>
       <c r="Q23">
         <v>1.02</v>
       </c>
       <c r="R23">
-        <v>1.034424078567318</v>
-      </c>
-    </row>
-    <row r="24" spans="1:18">
+        <v>1.034348367424445</v>
+      </c>
+      <c r="S23">
+        <v>1.02</v>
+      </c>
+      <c r="T23">
+        <v>1.021267973071088</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -1599,52 +1803,61 @@
         <v>1.05</v>
       </c>
       <c r="C24">
-        <v>0.9994328095519827</v>
+        <v>0.9993597755383854</v>
       </c>
       <c r="D24">
-        <v>1.021242942260583</v>
+        <v>1.020791157869916</v>
       </c>
       <c r="E24">
         <v>0.9381640424011825</v>
       </c>
       <c r="F24">
-        <v>1.021852595630291</v>
+        <v>1.021790599105847</v>
       </c>
       <c r="G24">
         <v>1</v>
       </c>
+      <c r="H24">
+        <v>1.02</v>
+      </c>
       <c r="I24">
-        <v>1.047708058487563</v>
+        <v>1.047522774923815</v>
       </c>
       <c r="J24">
-        <v>1.026952710501873</v>
+        <v>1.026882492670629</v>
       </c>
       <c r="K24">
-        <v>1.03490700257904</v>
+        <v>1.034462736895731</v>
       </c>
       <c r="L24">
         <v>0.953371659644254</v>
       </c>
       <c r="M24">
-        <v>1.035506523517583</v>
+        <v>1.035445556663442</v>
       </c>
       <c r="N24">
-        <v>1.012979849716271</v>
+        <v>1.014501589312808</v>
       </c>
       <c r="O24">
         <v>1.03</v>
       </c>
       <c r="P24">
-        <v>1.03667341183824</v>
+        <v>1.036625160401304</v>
       </c>
       <c r="Q24">
         <v>1.02</v>
       </c>
       <c r="R24">
-        <v>1.035803841123165</v>
-      </c>
-    </row>
-    <row r="25" spans="1:18">
+        <v>1.035503561811523</v>
+      </c>
+      <c r="S24">
+        <v>1.02</v>
+      </c>
+      <c r="T24">
+        <v>1.021567906157261</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -1652,49 +1865,58 @@
         <v>1.05</v>
       </c>
       <c r="C25">
-        <v>1.005051783558703</v>
+        <v>1.004780873732856</v>
       </c>
       <c r="D25">
-        <v>1.024875680432826</v>
+        <v>1.024165353027813</v>
       </c>
       <c r="E25">
         <v>0.9463835801718015</v>
       </c>
       <c r="F25">
-        <v>1.026278946792877</v>
+        <v>1.026120825852529</v>
       </c>
       <c r="G25">
         <v>1</v>
       </c>
+      <c r="H25">
+        <v>1.02</v>
+      </c>
       <c r="I25">
-        <v>1.049132266712664</v>
+        <v>1.048801859734581</v>
       </c>
       <c r="J25">
-        <v>1.029410322938422</v>
+        <v>1.029148406707778</v>
       </c>
       <c r="K25">
-        <v>1.037099727512648</v>
+        <v>1.036399767383673</v>
       </c>
       <c r="L25">
         <v>0.959875449400583</v>
       </c>
       <c r="M25">
-        <v>1.038482566593808</v>
+        <v>1.038326743870194</v>
       </c>
       <c r="N25">
-        <v>1.013794281990844</v>
+        <v>1.015050508991157</v>
       </c>
       <c r="O25">
         <v>1.03</v>
       </c>
       <c r="P25">
-        <v>1.039028759095724</v>
+        <v>1.038905435594591</v>
       </c>
       <c r="Q25">
         <v>1.02</v>
       </c>
       <c r="R25">
-        <v>1.037351350090003</v>
+        <v>1.036869979184809</v>
+      </c>
+      <c r="S25">
+        <v>1.02</v>
+      </c>
+      <c r="T25">
+        <v>1.021921130209806</v>
       </c>
     </row>
   </sheetData>
